--- a/design/conflux.xlsx
+++ b/design/conflux.xlsx
@@ -5,27 +5,28 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shlsun\Documents\Projects\ProjectConflux\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ProjectConflux\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Card" sheetId="1" r:id="rId1"/>
     <sheet name="CardSlot" sheetId="4" r:id="rId2"/>
-    <sheet name="DeckBuilding" sheetId="2" r:id="rId3"/>
-    <sheet name="Numeric" sheetId="3" r:id="rId4"/>
+    <sheet name="Ability" sheetId="5" r:id="rId3"/>
+    <sheet name="DeckBuilding" sheetId="2" r:id="rId4"/>
+    <sheet name="Numeric" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Card!$E$1:$K$1000</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Card!$A$1:$P$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="475">
   <si>
     <t>Cost</t>
   </si>
@@ -417,12 +418,6 @@
     <t>转化</t>
   </si>
   <si>
-    <t>* 将一个你控制的蓝色生物置于墓地并获得2个符文</t>
-  </si>
-  <si>
-    <t>* 你抽一张牌</t>
-  </si>
-  <si>
     <t>位面动荡</t>
   </si>
   <si>
@@ -1008,9 +1003,6 @@
     <t>Water of Protection</t>
   </si>
   <si>
-    <t>* 目标生物将不参与战斗，直到施法者的回合结束</t>
-  </si>
-  <si>
     <t>* 退回：目标卡牌回到其拥有者手牌</t>
   </si>
   <si>
@@ -1026,9 +1018,6 @@
     <t>* 你抽2张牌，并弃掉1张牌</t>
   </si>
   <si>
-    <t>* 进攻时，获得1点生命</t>
-  </si>
-  <si>
     <t>* 死亡时，回到其拥有者手牌</t>
   </si>
   <si>
@@ -1041,18 +1030,6 @@
     <t>Soul of Water</t>
   </si>
   <si>
-    <t>* 死亡之后召唤P1的水之魂回到原卡槽。水之魂具有不稳定：回合结束时，置于墓地</t>
-  </si>
-  <si>
-    <t>* 防御者：进攻时力量结算-1，防守时力量结算+1</t>
-  </si>
-  <si>
-    <t>* 幻影裂片不参与战斗；进攻时，直接对目标玩家造成伤害</t>
-  </si>
-  <si>
-    <t>* 嘲讽：结算伤害时，优先计算嘲讽者</t>
-  </si>
-  <si>
     <t>* 目标生物攻击时，选择对面的生物中力量最高的一个退回其拥有者手牌</t>
   </si>
   <si>
@@ -1095,9 +1072,6 @@
     <t>* 目标卡槽所有生物的力量降为1，直到回合结束</t>
   </si>
   <si>
-    <t>* 进攻时，敌方力量结算-1</t>
-  </si>
-  <si>
     <t>* 目标生物进攻时力量结算为0，直到回合结束</t>
   </si>
   <si>
@@ -1296,9 +1270,6 @@
     <t>* 进入战场时，所有卡槽最多只会造成1点伤害，直到敌方玩家的回合结束</t>
   </si>
   <si>
-    <t>不稳定：回合结束时，置于墓地</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -1372,6 +1343,114 @@
   </si>
   <si>
     <t>生物入场时，获得【迅捷】</t>
+  </si>
+  <si>
+    <t>* 不稳定：回合结束时，置于墓地</t>
+  </si>
+  <si>
+    <t>* 防御者：无法攻击</t>
+  </si>
+  <si>
+    <t>不稳定</t>
+  </si>
+  <si>
+    <t>回合结束时，置于墓地</t>
+  </si>
+  <si>
+    <t>* 死亡召唤：死亡之后召唤一个1/1的水之魂回到原卡槽。水之魂具有不稳定：回合结束时，置于墓地</t>
+  </si>
+  <si>
+    <t>死亡召唤</t>
+  </si>
+  <si>
+    <t>死亡之后召唤一个生物回到原卡槽</t>
+  </si>
+  <si>
+    <t>防御者</t>
+  </si>
+  <si>
+    <t>无法攻击</t>
+  </si>
+  <si>
+    <t>Combat</t>
+  </si>
+  <si>
+    <t>战斗时，敌方生物力量-X</t>
+  </si>
+  <si>
+    <t>你抽X张牌</t>
+  </si>
+  <si>
+    <t>目标卡牌回到其拥有者手牌</t>
+  </si>
+  <si>
+    <t>退回</t>
+  </si>
+  <si>
+    <t>* 回收：将一个你控制的蓝色生物置于墓地并获得2个符文</t>
+  </si>
+  <si>
+    <t>* 学识：你抽1张牌</t>
+  </si>
+  <si>
+    <t>* 衰弱：战斗时，敌方生物力量-1</t>
+  </si>
+  <si>
+    <t>衰弱</t>
+  </si>
+  <si>
+    <t>学识</t>
+  </si>
+  <si>
+    <t>回收</t>
+  </si>
+  <si>
+    <t>将一个你控制的指定颜色生物置于墓地并获得X个符文</t>
+  </si>
+  <si>
+    <t>* 流放：目标生物将不参与战斗，直到施法者的回合结束</t>
+  </si>
+  <si>
+    <t>流放</t>
+  </si>
+  <si>
+    <t>目标生物将不参与战斗，直到施法者的回合结束</t>
+  </si>
+  <si>
+    <t>* 嘲讽：对位生物每回合必须进攻</t>
+  </si>
+  <si>
+    <t>嘲讽</t>
+  </si>
+  <si>
+    <t>对位生物每回合必须进攻</t>
+  </si>
+  <si>
+    <t>* 幽灵：无法被防御</t>
+  </si>
+  <si>
+    <t>幽灵</t>
+  </si>
+  <si>
+    <t>无法被防御</t>
+  </si>
+  <si>
+    <t>* 吸血：进攻时，获得1点生命</t>
+  </si>
+  <si>
+    <t>吸血</t>
+  </si>
+  <si>
+    <t>进攻时，获得X点生命</t>
+  </si>
+  <si>
+    <t>package</t>
+  </si>
+  <si>
+    <t>Aether</t>
+  </si>
+  <si>
+    <t>Boundary</t>
   </si>
 </sst>
 </file>
@@ -1440,7 +1519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1485,6 +1564,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1824,286 +1904,302 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O1000"/>
+  <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="163.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="70.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="2"/>
+    <col min="9" max="9" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="134.42578125" style="8" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="70.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="M1" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:16" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
-        <v>1000001</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="4" t="s">
+        <v>1000124</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="4">
-        <v>4</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="4">
+      <c r="H2" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="I2" s="2">
         <v>0</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>1000125</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="I3" s="2">
         <v>0</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="J3" s="2">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2">
+        <v>2</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+    </row>
+    <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>1000126</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>1000002</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="E5" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="4">
+      <c r="I5" s="4">
         <v>1</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J5" s="4">
         <v>1</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K5" s="4">
         <v>1</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>1000003</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="L5" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>1000023</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
         <v>3</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" s="11">
-        <v>3</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="12"/>
-    </row>
-    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>1000004</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="11">
-        <v>2</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="12"/>
-    </row>
-    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>1000005</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="4">
-        <v>2</v>
-      </c>
-      <c r="I6" s="4">
-        <v>2</v>
-      </c>
-      <c r="J6" s="4">
-        <v>2</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>282</v>
-      </c>
       <c r="L6" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>1000006</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="C7" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1</v>
       </c>
       <c r="I7" s="4">
         <v>1</v>
@@ -2111,35 +2207,38 @@
       <c r="J7" s="4">
         <v>1</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>281</v>
+      <c r="K7" s="4">
+        <v>1</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>1000007</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="C8" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1</v>
       </c>
       <c r="I8" s="4">
         <v>1</v>
@@ -2147,35 +2246,38 @@
       <c r="J8" s="4">
         <v>1</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="4">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1000008</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="C9" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1</v>
       </c>
       <c r="I9" s="4">
         <v>1</v>
@@ -2183,216 +2285,225 @@
       <c r="J9" s="4">
         <v>1</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>281</v>
+      <c r="K9" s="4">
+        <v>1</v>
       </c>
       <c r="L9" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="M9" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="P9" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>1000009</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="4">
-        <v>2</v>
-      </c>
       <c r="I10" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" s="4">
         <v>1</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>285</v>
+      <c r="K10" s="4">
+        <v>1</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
-        <v>1000010</v>
-      </c>
-      <c r="B11" s="3" t="s">
+        <v>1000118</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="2">
         <v>1</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>1000119</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="4">
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>1000028</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="4">
-        <v>2</v>
-      </c>
-      <c r="J11" s="4">
-        <v>2</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>1000011</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="E13" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="4">
         <v>1</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>1000043</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" s="4">
-        <v>2</v>
-      </c>
-      <c r="I12" s="4">
-        <v>1</v>
-      </c>
-      <c r="J12" s="4">
-        <v>1</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>1000012</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="4">
-        <v>3</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>1000013</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="4">
-        <v>2</v>
+      <c r="G14" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="4">
         <v>1</v>
       </c>
-      <c r="J14" s="4">
-        <v>1</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>283</v>
-      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>325</v>
+      </c>
       <c r="N14" s="2"/>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O14" s="2"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>1000014</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="C15" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="G15" s="4">
-        <v>1</v>
       </c>
       <c r="I15" s="4">
         <v>1</v>
@@ -2400,287 +2511,302 @@
       <c r="J15" s="4">
         <v>1</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>282</v>
+      <c r="K15" s="4">
+        <v>1</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="O15" s="4"/>
-    </row>
-    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="P15" s="4"/>
+    </row>
+    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>1000015</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G16" s="4">
-        <v>2</v>
-      </c>
       <c r="I16" s="4">
         <v>2</v>
       </c>
       <c r="J16" s="4">
         <v>2</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>283</v>
+      <c r="K16" s="4">
+        <v>2</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
-        <v>1000016</v>
+        <v>1000046</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="4">
-        <v>3</v>
+      <c r="G17" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="I17" s="4">
-        <v>2</v>
-      </c>
-      <c r="J17" s="4">
-        <v>2</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>281</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
       <c r="L17" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
-        <v>1000017</v>
-      </c>
-      <c r="B18" s="3" t="s">
+        <v>1000123</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" s="2">
         <v>1</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="4">
-        <v>3</v>
-      </c>
-      <c r="I18" s="4">
-        <v>3</v>
-      </c>
-      <c r="J18" s="4">
-        <v>3</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>1000018</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="4">
+      <c r="I19" s="4">
         <v>3</v>
-      </c>
-      <c r="I19" s="4">
-        <v>1</v>
       </c>
       <c r="J19" s="4">
         <v>1</v>
       </c>
-      <c r="K19" s="4" t="s">
-        <v>282</v>
+      <c r="K19" s="4">
+        <v>1</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
-        <v>1000019</v>
+        <v>1000005</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="E20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="4">
-        <v>6</v>
-      </c>
       <c r="I20" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J20" s="4">
-        <v>4</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>283</v>
+        <v>2</v>
+      </c>
+      <c r="K20" s="4">
+        <v>2</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
-        <v>1000020</v>
+        <v>1000011</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="E21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="4">
-        <v>4</v>
-      </c>
       <c r="I21" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J21" s="4">
-        <v>3</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>283</v>
+        <v>1</v>
+      </c>
+      <c r="K21" s="4">
+        <v>1</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
-        <v>1000021</v>
+        <v>1000013</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="4">
-        <v>5</v>
-      </c>
       <c r="I22" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J22" s="4">
-        <v>3</v>
-      </c>
-      <c r="K22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4">
+        <v>1</v>
+      </c>
+      <c r="L22" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="L22" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>1000022</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="C23" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="D23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="G23" s="4">
-        <v>4</v>
       </c>
       <c r="I23" s="4">
         <v>4</v>
@@ -2688,107 +2814,111 @@
       <c r="J23" s="4">
         <v>4</v>
       </c>
-      <c r="K23" s="4" t="s">
-        <v>282</v>
+      <c r="K23" s="4">
+        <v>4</v>
       </c>
       <c r="L23" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="M23" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
-        <v>1000023</v>
+        <v>1000030</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G24" s="4">
-        <v>1</v>
+      <c r="G24" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="I24" s="4">
-        <v>1</v>
-      </c>
-      <c r="J24" s="4">
-        <v>1</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
-        <v>1000024</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>1000004</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F25" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G25" s="4">
-        <v>5</v>
-      </c>
-      <c r="I25" s="4">
-        <v>4</v>
-      </c>
-      <c r="J25" s="4">
-        <v>4</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="I25" s="11">
+        <v>2</v>
+      </c>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="12"/>
+    </row>
+    <row r="26" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>1000025</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="C26" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="D26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="G26" s="4">
-        <v>5</v>
       </c>
       <c r="I26" s="4">
         <v>5</v>
@@ -2796,38 +2926,41 @@
       <c r="J26" s="4">
         <v>5</v>
       </c>
-      <c r="K26" s="4" t="s">
-        <v>286</v>
+      <c r="K26" s="4">
+        <v>5</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>1000026</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="C27" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="D27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G27" s="4">
-        <v>5</v>
-      </c>
       <c r="H27" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I27" s="4">
         <v>5</v>
@@ -2835,863 +2968,956 @@
       <c r="J27" s="4">
         <v>5</v>
       </c>
-      <c r="K27" s="4" t="s">
-        <v>282</v>
+      <c r="K27" s="4">
+        <v>5</v>
       </c>
       <c r="L27" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="M27" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
-        <v>1000027</v>
+        <v>1000029</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I28" s="4">
+        <v>2</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>1000040</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I29" s="4">
+        <v>2</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="1:16" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>1000010</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="4">
-        <v>6</v>
-      </c>
-      <c r="I28" s="4">
-        <v>6</v>
-      </c>
-      <c r="J28" s="4">
-        <v>6</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
-        <v>1000028</v>
-      </c>
-      <c r="B29" s="3" t="s">
+      <c r="H30" s="2"/>
+      <c r="I30" s="4">
         <v>3</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="4" t="s">
+      <c r="J30" s="4">
+        <v>2</v>
+      </c>
+      <c r="K30" s="4">
+        <v>2</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>1000016</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G29" s="4">
-        <v>1</v>
-      </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="1:15" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
-        <v>1000029</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G30" s="4">
-        <v>2</v>
-      </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="O30" s="2"/>
-    </row>
-    <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
-        <v>1000030</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G31" s="4">
-        <v>2</v>
-      </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3" t="s">
-        <v>98</v>
+      <c r="G31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I31" s="4">
+        <v>3</v>
+      </c>
+      <c r="J31" s="4">
+        <v>2</v>
+      </c>
+      <c r="K31" s="4">
+        <v>2</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>1000031</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G32" s="4">
-        <v>2</v>
-      </c>
-      <c r="I32" s="3"/>
+      <c r="I32" s="4">
+        <v>2</v>
+      </c>
       <c r="J32" s="3"/>
-      <c r="K32" s="3" t="s">
+      <c r="K32" s="3"/>
+      <c r="L32" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="L32" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M32" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>1000032</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="C33" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="D33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G33" s="4">
+      <c r="I33" s="4">
         <v>1</v>
       </c>
-      <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="4" t="s">
+      <c r="K33" s="4"/>
+      <c r="L33" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="L33" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="O33" s="4"/>
-    </row>
-    <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M33" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="P33" s="4"/>
+    </row>
+    <row r="34" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>1000033</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="C34" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="D34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G34" s="4">
+      <c r="I34" s="4">
         <v>1</v>
       </c>
-      <c r="I34" s="3"/>
       <c r="J34" s="3"/>
-      <c r="K34" s="3" t="s">
+      <c r="K34" s="3"/>
+      <c r="L34" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="L34" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M34" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>1000034</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="C35" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="D35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G35" s="4">
+      <c r="I35" s="4">
         <v>3</v>
       </c>
-      <c r="I35" s="3"/>
       <c r="J35" s="3"/>
-      <c r="K35" s="3" t="s">
+      <c r="K35" s="3"/>
+      <c r="L35" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="L35" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M35" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="36" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>1000035</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="C36" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="D36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G36" s="4">
-        <v>2</v>
-      </c>
-      <c r="I36" s="3"/>
+      <c r="I36" s="4">
+        <v>2</v>
+      </c>
       <c r="J36" s="3"/>
-      <c r="K36" s="3" t="s">
+      <c r="K36" s="3"/>
+      <c r="L36" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="L36" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="O36" s="3"/>
-    </row>
-    <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M36" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P36" s="3"/>
+    </row>
+    <row r="37" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>1000036</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G37" s="4">
+      <c r="I37" s="4">
         <v>3</v>
       </c>
-      <c r="I37" s="3"/>
       <c r="J37" s="3"/>
-      <c r="K37" s="3" t="s">
+      <c r="K37" s="3"/>
+      <c r="L37" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="L37" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="O37" s="3"/>
-    </row>
-    <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M37" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="P37" s="3"/>
+    </row>
+    <row r="38" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>1000037</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="E38" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G38" s="4">
+      <c r="I38" s="4">
         <v>1</v>
       </c>
-      <c r="I38" s="3"/>
       <c r="J38" s="3"/>
-      <c r="K38" s="3" t="s">
+      <c r="K38" s="3"/>
+      <c r="L38" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="L38" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="O38" s="3"/>
-    </row>
-    <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M38" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="P38" s="3"/>
+    </row>
+    <row r="39" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>1000038</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E39" s="4" t="s">
+      <c r="C39" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G39" s="4">
-        <v>2</v>
-      </c>
-      <c r="I39" s="4"/>
+      <c r="I39" s="4">
+        <v>2</v>
+      </c>
       <c r="J39" s="4"/>
-      <c r="K39" s="4" t="s">
+      <c r="K39" s="4"/>
+      <c r="L39" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="L39" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M39" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
-        <v>1000039</v>
+        <v>1000017</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I40" s="4">
         <v>3</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E40" s="4" t="s">
+      <c r="J40" s="4">
+        <v>3</v>
+      </c>
+      <c r="K40" s="4">
+        <v>3</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>1000012</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G40" s="4">
-        <v>4</v>
-      </c>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
-        <v>1000040</v>
-      </c>
-      <c r="B41" s="3" t="s">
+      <c r="G41" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I41" s="4">
         <v>3</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G41" s="4">
-        <v>2</v>
-      </c>
-      <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="4" t="s">
-        <v>97</v>
-      </c>
+      <c r="K41" s="4"/>
       <c r="L41" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>1000041</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G42" s="4">
+      <c r="I42" s="4">
         <v>3</v>
       </c>
-      <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="4" t="s">
+      <c r="K42" s="4"/>
+      <c r="L42" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="L42" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M42" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
-        <v>1000042</v>
-      </c>
-      <c r="B43" s="3" t="s">
+        <v>1000003</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H43" s="9"/>
+      <c r="I43" s="11">
+        <v>3</v>
+      </c>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="12"/>
+    </row>
+    <row r="44" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>1000048</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I44" s="4">
+        <v>3</v>
+      </c>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>1000001</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="E43" s="4" t="s">
+      <c r="E45" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="G45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I45" s="4">
+        <v>4</v>
+      </c>
+      <c r="J45" s="4">
+        <v>0</v>
+      </c>
+      <c r="K45" s="4">
+        <v>0</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>1000020</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I46" s="4">
+        <v>4</v>
+      </c>
+      <c r="J46" s="4">
+        <v>3</v>
+      </c>
+      <c r="K46" s="4">
+        <v>3</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>1000044</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I47" s="4">
+        <v>4</v>
+      </c>
+      <c r="J47" s="4">
+        <v>3</v>
+      </c>
+      <c r="K47" s="4">
+        <v>3</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>1000039</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="G43" s="4">
-        <v>4</v>
-      </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9">
-        <v>1000043</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G44" s="4">
-        <v>1</v>
-      </c>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9">
-        <v>1000044</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G45" s="4">
-        <v>4</v>
-      </c>
-      <c r="I45" s="4">
-        <v>3</v>
-      </c>
-      <c r="J45" s="4">
-        <v>3</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
-        <v>1000045</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G46" s="4">
-        <v>5</v>
-      </c>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
-        <v>1000046</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G47" s="4">
-        <v>1</v>
-      </c>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="9">
-        <v>1000047</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G48" s="4">
-        <v>5</v>
       </c>
       <c r="I48" s="4">
         <v>4</v>
       </c>
-      <c r="J48" s="4">
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>1000042</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I49" s="4">
         <v>4</v>
       </c>
-      <c r="K48" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="L48" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
-        <v>1000048</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F49" s="2" t="s">
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G49" s="4">
-        <v>3</v>
-      </c>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="L49" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M49" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>1000049</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="G50" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G50" s="4">
-        <v>2</v>
-      </c>
       <c r="I50" s="4">
         <v>2</v>
       </c>
       <c r="J50" s="4">
         <v>2</v>
       </c>
-      <c r="K50" s="4" t="s">
-        <v>285</v>
+      <c r="K50" s="4">
+        <v>2</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
         <v>1000050</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="G51" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G51" s="4">
+      <c r="I51" s="4">
         <v>3</v>
       </c>
-      <c r="I51" s="4">
-        <v>2</v>
-      </c>
       <c r="J51" s="4">
         <v>2</v>
       </c>
-      <c r="K51" s="4" t="s">
-        <v>282</v>
+      <c r="K51" s="4">
+        <v>2</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <v>1000051</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="G52" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G52" s="4">
+      <c r="I52" s="4">
         <v>1</v>
       </c>
-      <c r="I52" s="4"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="4" t="s">
+      <c r="K52" s="4"/>
+      <c r="L52" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="L52" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M52" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <v>1000052</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>2</v>
+        <v>361</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>371</v>
+        <v>2</v>
       </c>
       <c r="E53" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G53" s="2">
-        <v>2</v>
-      </c>
       <c r="H53" s="2" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="I53" s="2">
         <v>2</v>
@@ -3699,32 +3925,35 @@
       <c r="J53" s="2">
         <v>2</v>
       </c>
-      <c r="K53" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="L53" s="2"/>
-    </row>
-    <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K53" s="2">
+        <v>2</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="M53" s="2"/>
+    </row>
+    <row r="54" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
         <v>1000053</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>185</v>
+        <v>2</v>
       </c>
       <c r="E54" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="G54" s="2">
-        <v>1</v>
       </c>
       <c r="I54" s="2">
         <v>1</v>
@@ -3732,410 +3961,449 @@
       <c r="J54" s="2">
         <v>1</v>
       </c>
-      <c r="K54" s="2" t="s">
-        <v>282</v>
+      <c r="K54" s="2">
+        <v>1</v>
       </c>
       <c r="L54" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="M54" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
         <v>1000054</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>186</v>
+        <v>2</v>
       </c>
       <c r="E55" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G55" s="2">
+      <c r="I55" s="2">
         <v>3</v>
       </c>
-      <c r="K55" s="2" t="s">
+      <c r="L55" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="L55" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M55" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>1000055</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>128</v>
+        <v>213</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E56" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F56" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="G56" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G56" s="6">
+      <c r="I56" s="6">
         <v>1</v>
       </c>
-      <c r="K56" s="6" t="s">
+      <c r="L56" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L56" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M56" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9">
         <v>1000056</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>216</v>
+        <v>2</v>
       </c>
       <c r="E57" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="G57" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G57" s="2">
+      <c r="I57" s="2">
         <v>1</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="L57" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="L57" s="2" t="s">
+      <c r="M57" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
         <v>1000057</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>111</v>
+        <v>215</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>217</v>
+        <v>2</v>
       </c>
       <c r="E58" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="G58" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G58" s="2">
+      <c r="I58" s="2">
         <v>4</v>
       </c>
-      <c r="K58" s="2" t="s">
+      <c r="L58" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="L58" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M58" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
         <v>1000058</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>2</v>
+        <v>112</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>112</v>
+        <v>216</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>218</v>
+        <v>2</v>
       </c>
       <c r="E59" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="G59" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G59" s="2">
-        <v>2</v>
-      </c>
       <c r="I59" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J59" s="2">
         <v>1</v>
       </c>
-      <c r="K59" s="2" t="s">
-        <v>282</v>
+      <c r="K59" s="2">
+        <v>1</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9">
         <v>1000059</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>113</v>
+        <v>217</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>219</v>
+        <v>2</v>
       </c>
       <c r="E60" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="G60" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G60" s="2">
+      <c r="I60" s="2">
         <v>3</v>
-      </c>
-      <c r="I60" s="2">
-        <v>4</v>
       </c>
       <c r="J60" s="2">
         <v>4</v>
       </c>
-      <c r="K60" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="L60" s="2"/>
-    </row>
-    <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K60" s="2">
+        <v>4</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="M60" s="2"/>
+    </row>
+    <row r="61" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
         <v>1000060</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>114</v>
+        <v>218</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>220</v>
+        <v>2</v>
       </c>
       <c r="E61" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="G61" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G61" s="2">
-        <v>2</v>
-      </c>
       <c r="I61" s="2">
         <v>2</v>
       </c>
       <c r="J61" s="2">
         <v>2</v>
       </c>
-      <c r="K61" s="2" t="s">
-        <v>286</v>
+      <c r="K61" s="2">
+        <v>2</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
         <v>1000061</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>115</v>
+        <v>219</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>221</v>
+        <v>2</v>
       </c>
       <c r="E62" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="G62" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G62" s="2">
+      <c r="I62" s="2">
         <v>4</v>
-      </c>
-      <c r="I62" s="2">
-        <v>3</v>
       </c>
       <c r="J62" s="2">
         <v>3</v>
       </c>
-      <c r="K62" s="2" t="s">
-        <v>282</v>
+      <c r="K62" s="2">
+        <v>3</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9">
         <v>1000062</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>123</v>
+        <v>220</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>222</v>
+        <v>2</v>
       </c>
       <c r="E63" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="G63" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G63" s="2">
-        <v>2</v>
-      </c>
-      <c r="K63" s="2" t="s">
+      <c r="I63" s="2">
+        <v>2</v>
+      </c>
+      <c r="L63" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="L63" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M63" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9">
         <v>1000063</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>403</v>
-      </c>
       <c r="E64" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="G64" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G64" s="2">
+      <c r="I64" s="2">
         <v>3</v>
       </c>
-      <c r="K64" s="2" t="s">
+      <c r="L64" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="L64" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M64" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9">
         <v>1000064</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="E65" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="G65" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G65" s="2">
+      <c r="I65" s="2">
         <v>3</v>
       </c>
-      <c r="K65" s="2" t="s">
+      <c r="L65" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="L65" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M65" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9">
         <v>1000065</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="E66" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="G66" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G66" s="2">
-        <v>2</v>
-      </c>
       <c r="I66" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" s="2">
         <v>1</v>
       </c>
-      <c r="K66" s="2" t="s">
-        <v>282</v>
+      <c r="K66" s="2">
+        <v>1</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9">
         <v>1000066</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="E67" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="G67" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="G67" s="2">
-        <v>4</v>
       </c>
       <c r="I67" s="2">
         <v>4</v>
@@ -4143,101 +4411,110 @@
       <c r="J67" s="2">
         <v>4</v>
       </c>
-      <c r="K67" s="2" t="s">
-        <v>282</v>
+      <c r="K67" s="2">
+        <v>4</v>
       </c>
       <c r="L67" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="M67" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9">
         <v>1000067</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="E68" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="G68" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G68" s="2">
+      <c r="H68" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="I68" s="2">
         <v>3</v>
       </c>
-      <c r="H68" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="I68" s="2">
-        <v>2</v>
-      </c>
       <c r="J68" s="2">
         <v>2</v>
       </c>
-      <c r="K68" s="2" t="s">
-        <v>282</v>
+      <c r="K68" s="2">
+        <v>2</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9">
         <v>1000068</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="E69" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="G69" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G69" s="2">
+      <c r="I69" s="2">
         <v>3</v>
       </c>
-      <c r="K69" s="2" t="s">
+      <c r="L69" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="L69" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M69" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9">
         <v>1000069</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>121</v>
+        <v>226</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>228</v>
+        <v>2</v>
       </c>
       <c r="E70" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="G70" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="G70" s="2">
-        <v>6</v>
       </c>
       <c r="I70" s="2">
         <v>6</v>
@@ -4245,34 +4522,37 @@
       <c r="J70" s="2">
         <v>6</v>
       </c>
-      <c r="K70" s="2" t="s">
-        <v>281</v>
+      <c r="K70" s="2">
+        <v>6</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9">
         <v>1000070</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>229</v>
+        <v>2</v>
       </c>
       <c r="E71" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="G71" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="G71" s="2">
-        <v>4</v>
       </c>
       <c r="I71" s="2">
         <v>4</v>
@@ -4280,136 +4560,148 @@
       <c r="J71" s="2">
         <v>4</v>
       </c>
-      <c r="K71" s="2" t="s">
-        <v>282</v>
+      <c r="K71" s="2">
+        <v>4</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9">
         <v>1000071</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="E72" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="G72" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G72" s="2">
+      <c r="I72" s="2">
         <v>4</v>
-      </c>
-      <c r="I72" s="2">
-        <v>3</v>
       </c>
       <c r="J72" s="2">
         <v>3</v>
       </c>
-      <c r="K72" s="2" t="s">
-        <v>286</v>
+      <c r="K72" s="2">
+        <v>3</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9">
         <v>1000072</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>125</v>
+        <v>229</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>231</v>
+        <v>2</v>
       </c>
       <c r="E73" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="G73" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G73" s="2">
+      <c r="H73" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="I73" s="2">
         <v>7</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I73" s="2">
-        <v>8</v>
       </c>
       <c r="J73" s="2">
         <v>8</v>
       </c>
-      <c r="K73" s="2" t="s">
-        <v>282</v>
+      <c r="K73" s="2">
+        <v>8</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9">
         <v>1000073</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>232</v>
+        <v>2</v>
       </c>
       <c r="E74" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="G74" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G74" s="2">
+      <c r="I74" s="2">
         <v>4</v>
       </c>
-      <c r="K74" s="2" t="s">
+      <c r="L74" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="L74" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M74" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9">
         <v>1000074</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="E75" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="G75" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="G75" s="2">
-        <v>6</v>
       </c>
       <c r="I75" s="2">
         <v>6</v>
@@ -4417,34 +4709,37 @@
       <c r="J75" s="2">
         <v>6</v>
       </c>
-      <c r="K75" s="2" t="s">
-        <v>282</v>
+      <c r="K75" s="2">
+        <v>6</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9">
         <v>1000075</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>2</v>
+        <v>143</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>145</v>
+        <v>232</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>234</v>
+        <v>2</v>
       </c>
       <c r="E76" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="G76" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="G76" s="2">
-        <v>1</v>
       </c>
       <c r="I76" s="2">
         <v>1</v>
@@ -4452,34 +4747,37 @@
       <c r="J76" s="2">
         <v>1</v>
       </c>
-      <c r="K76" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="L76" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K76" s="2">
+        <v>1</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="M76" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9">
         <v>1000076</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>147</v>
+        <v>233</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>235</v>
+        <v>2</v>
       </c>
       <c r="E77" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="G77" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="G77" s="2">
-        <v>1</v>
       </c>
       <c r="I77" s="2">
         <v>1</v>
@@ -4487,278 +4785,305 @@
       <c r="J77" s="2">
         <v>1</v>
       </c>
-      <c r="K77" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="L77" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K77" s="2">
+        <v>1</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="M77" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9">
         <v>1000077</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>2</v>
+        <v>146</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>148</v>
+        <v>234</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>236</v>
+        <v>2</v>
       </c>
       <c r="E78" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="G78" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G78" s="2">
+      <c r="I78" s="2">
         <v>1</v>
       </c>
-      <c r="K78" s="2" t="s">
+      <c r="L78" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="L78" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M78" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9">
         <v>1000078</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>150</v>
+        <v>235</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>237</v>
+        <v>2</v>
       </c>
       <c r="E79" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="G79" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G79" s="2">
-        <v>2</v>
-      </c>
       <c r="I79" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" s="2">
         <v>1</v>
       </c>
-      <c r="K79" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="L79" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K79" s="2">
+        <v>1</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="M79" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9">
         <v>1000079</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="E80" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="G80" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G80" s="2">
-        <v>2</v>
-      </c>
-      <c r="K80" s="2" t="s">
+      <c r="I80" s="2">
+        <v>2</v>
+      </c>
+      <c r="L80" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="L80" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M80" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9">
         <v>1000080</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>2</v>
+        <v>153</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>155</v>
+        <v>237</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>239</v>
+        <v>2</v>
       </c>
       <c r="E81" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="G81" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G81" s="2">
-        <v>2</v>
-      </c>
-      <c r="K81" s="2" t="s">
+      <c r="I81" s="2">
+        <v>2</v>
+      </c>
+      <c r="L81" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="L81" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M81" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9">
         <v>1000081</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="E82" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I82" s="2">
+        <v>2</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M82" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G82" s="2">
-        <v>2</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="L82" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9">
         <v>1000082</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>243</v>
-      </c>
       <c r="E83" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="G83" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G83" s="2">
+      <c r="I83" s="2">
         <v>6</v>
       </c>
-      <c r="K83" s="2" t="s">
+      <c r="L83" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="L83" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M83" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9">
         <v>1000083</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>2</v>
+        <v>160</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>162</v>
+        <v>239</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>241</v>
+        <v>2</v>
       </c>
       <c r="E84" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="G84" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G84" s="2">
-        <v>2</v>
-      </c>
-      <c r="K84" s="2" t="s">
+      <c r="I84" s="2">
+        <v>2</v>
+      </c>
+      <c r="L84" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="L84" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M84" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="9">
         <v>1000084</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="E85" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="G85" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G85" s="2">
+      <c r="I85" s="2">
         <v>8</v>
-      </c>
-      <c r="I85" s="2">
-        <v>4</v>
       </c>
       <c r="J85" s="2">
         <v>4</v>
       </c>
-      <c r="K85" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="L85" s="8" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K85" s="2">
+        <v>4</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="M85" s="8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="9">
         <v>1000085</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>242</v>
-      </c>
       <c r="E86" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="G86" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="G86" s="2">
-        <v>3</v>
       </c>
       <c r="I86" s="2">
         <v>3</v>
@@ -4766,313 +5091,343 @@
       <c r="J86" s="2">
         <v>3</v>
       </c>
-      <c r="K86" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="L86" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K86" s="2">
+        <v>3</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="M86" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="9">
         <v>1000086</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>2</v>
+        <v>165</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>244</v>
+        <v>2</v>
       </c>
       <c r="E87" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="G87" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G87" s="2">
+      <c r="I87" s="2">
         <v>3</v>
-      </c>
-      <c r="I87" s="2">
-        <v>4</v>
       </c>
       <c r="J87" s="2">
         <v>4</v>
       </c>
-      <c r="K87" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="L87" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K87" s="2">
+        <v>4</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="M87" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="9">
         <v>1000087</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="E88" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="G88" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G88" s="2">
+      <c r="I88" s="2">
         <v>7</v>
-      </c>
-      <c r="I88" s="2">
-        <v>3</v>
       </c>
       <c r="J88" s="2">
         <v>3</v>
       </c>
-      <c r="K88" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="L88" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K88" s="2">
+        <v>3</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="M88" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="9">
         <v>1000088</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>2</v>
+        <v>169</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>171</v>
+        <v>244</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>246</v>
+        <v>2</v>
       </c>
       <c r="E89" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="G89" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G89" s="2">
+      <c r="I89" s="2">
         <v>3</v>
       </c>
-      <c r="K89" s="2" t="s">
+      <c r="L89" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="L89" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M89" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="9">
         <v>1000089</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="E90" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="G90" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G90" s="2">
+      <c r="I90" s="2">
         <v>3</v>
       </c>
-      <c r="K90" s="2" t="s">
+      <c r="L90" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="L90" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M90" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="9">
         <v>1000090</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>2</v>
+        <v>173</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>175</v>
+        <v>246</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>248</v>
+        <v>2</v>
       </c>
       <c r="E91" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="G91" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G91" s="2">
+      <c r="I91" s="2">
         <v>4</v>
       </c>
-      <c r="K91" s="2" t="s">
+      <c r="L91" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="L91" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M91" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9">
         <v>1000091</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>250</v>
-      </c>
       <c r="E92" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="G92" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G92" s="2">
+      <c r="I92" s="2">
         <v>4</v>
       </c>
-      <c r="K92" s="2" t="s">
+      <c r="L92" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="L92" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M92" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9">
         <v>1000092</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>251</v>
-      </c>
       <c r="E93" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="G93" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G93" s="2">
+      <c r="I93" s="2">
         <v>5</v>
       </c>
-      <c r="K93" s="2" t="s">
+      <c r="L93" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="L93" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M93" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9">
         <v>1000093</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="E94" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="G94" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G94" s="2">
+      <c r="I94" s="2">
         <v>6</v>
       </c>
-      <c r="K94" s="2" t="s">
+      <c r="L94" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="L94" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M94" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9">
         <v>1000094</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="E95" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="G95" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G95" s="2">
+      <c r="I95" s="2">
         <v>5</v>
-      </c>
-      <c r="I95" s="2">
-        <v>3</v>
       </c>
       <c r="J95" s="2">
         <v>3</v>
       </c>
-      <c r="K95" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="L95" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K95" s="2">
+        <v>3</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="M95" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9">
         <v>1000095</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>2</v>
+        <v>185</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>187</v>
+        <v>268</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>270</v>
+        <v>2</v>
       </c>
       <c r="E96" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="G96" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="G96" s="2">
-        <v>1</v>
       </c>
       <c r="I96" s="2">
         <v>1</v>
@@ -5080,34 +5435,37 @@
       <c r="J96" s="2">
         <v>1</v>
       </c>
-      <c r="K96" s="2" t="s">
-        <v>282</v>
+      <c r="K96" s="2">
+        <v>1</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9">
         <v>1000096</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>2</v>
+        <v>188</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>190</v>
+        <v>269</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>271</v>
+        <v>2</v>
       </c>
       <c r="E97" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F97" s="2" t="s">
+      <c r="G97" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="G97" s="2">
-        <v>1</v>
       </c>
       <c r="I97" s="2">
         <v>1</v>
@@ -5115,34 +5473,37 @@
       <c r="J97" s="2">
         <v>1</v>
       </c>
-      <c r="K97" s="2" t="s">
-        <v>286</v>
+      <c r="K97" s="2">
+        <v>1</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9">
         <v>1000097</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="E98" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F98" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F98" s="2" t="s">
+      <c r="G98" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="G98" s="2">
-        <v>1</v>
       </c>
       <c r="I98" s="2">
         <v>1</v>
@@ -5150,474 +5511,519 @@
       <c r="J98" s="2">
         <v>1</v>
       </c>
-      <c r="K98" s="2" t="s">
-        <v>282</v>
+      <c r="K98" s="2">
+        <v>1</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9">
         <v>1000098</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>2</v>
+        <v>192</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>194</v>
+        <v>271</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>273</v>
+        <v>2</v>
       </c>
       <c r="E99" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F99" s="2" t="s">
+      <c r="G99" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G99" s="2">
+      <c r="I99" s="2">
         <v>4</v>
-      </c>
-      <c r="I99" s="2">
-        <v>1</v>
       </c>
       <c r="J99" s="2">
         <v>1</v>
       </c>
-      <c r="K99" s="2" t="s">
-        <v>285</v>
+      <c r="K99" s="2">
+        <v>1</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9">
         <v>1000099</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>2</v>
+        <v>193</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>195</v>
+        <v>272</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>274</v>
+        <v>2</v>
       </c>
       <c r="E100" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="G100" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G100" s="2">
+      <c r="I100" s="2">
         <v>1</v>
       </c>
-      <c r="K100" s="2" t="s">
+      <c r="L100" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="L100" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M100" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9">
         <v>1000100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>198</v>
+        <v>273</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>275</v>
+        <v>2</v>
       </c>
       <c r="E101" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="G101" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G101" s="2">
+      <c r="I101" s="2">
         <v>1</v>
       </c>
-      <c r="K101" s="2" t="s">
+      <c r="L101" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="L101" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M101" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9">
         <v>1000101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>197</v>
+        <v>274</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>276</v>
+        <v>2</v>
       </c>
       <c r="E102" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F102" s="2" t="s">
+      <c r="G102" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G102" s="2">
+      <c r="I102" s="2">
         <v>1</v>
       </c>
-      <c r="K102" s="2" t="s">
+      <c r="L102" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="L102" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M102" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="9">
         <v>1000102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>2</v>
+        <v>199</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>201</v>
+        <v>275</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>277</v>
+        <v>2</v>
       </c>
       <c r="E103" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F103" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F103" s="2" t="s">
+      <c r="G103" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G103" s="2">
+      <c r="I103" s="2">
         <v>1</v>
       </c>
-      <c r="K103" s="2" t="s">
+      <c r="L103" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="L103" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M103" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="9">
         <v>1000103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>2</v>
+        <v>201</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>203</v>
+        <v>276</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>278</v>
+        <v>2</v>
       </c>
       <c r="E104" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F104" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F104" s="2" t="s">
+      <c r="G104" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G104" s="2">
-        <v>2</v>
-      </c>
       <c r="I104" s="2">
         <v>2</v>
       </c>
       <c r="J104" s="2">
         <v>2</v>
       </c>
-      <c r="K104" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="L104" s="2"/>
-    </row>
-    <row r="105" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K104" s="2">
+        <v>2</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="M104" s="2"/>
+    </row>
+    <row r="105" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="9">
         <v>1000104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>2</v>
+        <v>202</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>204</v>
+        <v>277</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>279</v>
+        <v>2</v>
       </c>
       <c r="E105" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F105" s="2" t="s">
+      <c r="G105" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G105" s="2">
+      <c r="I105" s="2">
         <v>6</v>
-      </c>
-      <c r="I105" s="2">
-        <v>1</v>
       </c>
       <c r="J105" s="2">
         <v>1</v>
       </c>
-      <c r="K105" s="2" t="s">
-        <v>282</v>
+      <c r="K105" s="2">
+        <v>1</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="9">
         <v>1000105</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>280</v>
-      </c>
       <c r="E106" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F106" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F106" s="2" t="s">
+      <c r="G106" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G106" s="2">
-        <v>2</v>
-      </c>
       <c r="I106" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J106" s="2">
         <v>1</v>
       </c>
-      <c r="K106" s="2" t="s">
-        <v>282</v>
+      <c r="K106" s="2">
+        <v>1</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="M106" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="9">
         <v>1000106</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="E107" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F107" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F107" s="2" t="s">
+      <c r="G107" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G107" s="2">
-        <v>2</v>
-      </c>
       <c r="I107" s="2">
         <v>2</v>
       </c>
       <c r="J107" s="2">
         <v>2</v>
       </c>
-      <c r="K107" s="2" t="s">
-        <v>282</v>
+      <c r="K107" s="2">
+        <v>2</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="M107" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="9">
         <v>1000107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>211</v>
+        <v>293</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>295</v>
+        <v>2</v>
       </c>
       <c r="E108" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F108" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F108" s="2" t="s">
+      <c r="G108" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G108" s="2">
-        <v>2</v>
-      </c>
-      <c r="K108" s="2" t="s">
+      <c r="I108" s="2">
+        <v>2</v>
+      </c>
+      <c r="L108" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="L108" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M108" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="9">
         <v>1000108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>2</v>
+        <v>211</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>213</v>
+        <v>292</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>294</v>
+        <v>2</v>
       </c>
       <c r="E109" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F109" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F109" s="2" t="s">
+      <c r="G109" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G109" s="2">
-        <v>2</v>
-      </c>
-      <c r="K109" s="2" t="s">
+      <c r="I109" s="2">
+        <v>2</v>
+      </c>
+      <c r="L109" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="L109" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M109" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="9">
         <v>1000109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>2</v>
+        <v>252</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>292</v>
+        <v>2</v>
       </c>
       <c r="E110" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F110" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F110" s="2" t="s">
+      <c r="G110" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G110" s="2">
-        <v>2</v>
-      </c>
-      <c r="K110" s="2" t="s">
+      <c r="I110" s="2">
+        <v>2</v>
+      </c>
+      <c r="L110" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="L110" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M110" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="9">
         <v>1000110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>2</v>
+        <v>255</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="E111" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F111" s="2" t="s">
+      <c r="G111" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G111" s="2">
+      <c r="I111" s="2">
         <v>7</v>
       </c>
-      <c r="I111" s="2">
-        <v>2</v>
-      </c>
       <c r="J111" s="2">
         <v>2</v>
       </c>
-      <c r="K111" s="2" t="s">
-        <v>282</v>
+      <c r="K111" s="2">
+        <v>2</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="9">
         <v>1000111</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>301</v>
-      </c>
       <c r="E112" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F112" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F112" s="2" t="s">
+      <c r="G112" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G112" s="2">
+      <c r="I112" s="2">
         <v>5</v>
       </c>
-      <c r="K112" s="2" t="s">
+      <c r="L112" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="L112" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M112" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="9">
         <v>1000112</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>302</v>
-      </c>
       <c r="E113" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F113" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F113" s="2" t="s">
+      <c r="G113" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="G113" s="2">
-        <v>3</v>
       </c>
       <c r="I113" s="2">
         <v>3</v>
@@ -5625,564 +6031,626 @@
       <c r="J113" s="2">
         <v>3</v>
       </c>
-      <c r="K113" s="2" t="s">
-        <v>282</v>
+      <c r="K113" s="2">
+        <v>3</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="9">
         <v>1000113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>261</v>
+        <v>301</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>303</v>
+        <v>2</v>
       </c>
       <c r="E114" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F114" s="2" t="s">
+      <c r="G114" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G114" s="2">
+      <c r="I114" s="2">
         <v>4</v>
       </c>
-      <c r="I114" s="2">
-        <v>2</v>
-      </c>
       <c r="J114" s="2">
         <v>2</v>
       </c>
-      <c r="K114" s="2" t="s">
-        <v>282</v>
+      <c r="K114" s="2">
+        <v>2</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="9">
         <v>1000114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>2</v>
+        <v>261</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>304</v>
+        <v>2</v>
       </c>
       <c r="E115" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F115" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F115" s="2" t="s">
+      <c r="G115" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G115" s="2">
+      <c r="I115" s="2">
         <v>8</v>
       </c>
-      <c r="I115" s="2">
-        <v>2</v>
-      </c>
       <c r="J115" s="2">
         <v>2</v>
       </c>
-      <c r="K115" s="2" t="s">
-        <v>282</v>
+      <c r="K115" s="2">
+        <v>2</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="9">
         <v>1000115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>2</v>
+        <v>263</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>305</v>
+        <v>2</v>
       </c>
       <c r="E116" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F116" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F116" s="2" t="s">
+      <c r="G116" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G116" s="2">
+      <c r="I116" s="2">
         <v>5</v>
       </c>
-      <c r="K116" s="2" t="s">
+      <c r="L116" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="L116" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M116" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="9">
         <v>1000116</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>293</v>
-      </c>
       <c r="E117" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F117" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F117" s="2" t="s">
+      <c r="G117" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G117" s="2">
+      <c r="I117" s="2">
         <v>3</v>
       </c>
-      <c r="K117" s="2" t="s">
+      <c r="L117" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="L117" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M117" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="9">
         <v>1000117</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>306</v>
-      </c>
       <c r="E118" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F118" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F118" s="2" t="s">
+      <c r="G118" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G118" s="2">
+      <c r="I118" s="2">
         <v>6</v>
-      </c>
-      <c r="I118" s="2">
-        <v>3</v>
       </c>
       <c r="J118" s="2">
         <v>3</v>
       </c>
-      <c r="K118" s="2" t="s">
-        <v>285</v>
+      <c r="K118" s="2">
+        <v>3</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="9">
-        <v>1000118</v>
+        <v>1000127</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>2</v>
+        <v>344</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>308</v>
+        <v>81</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>309</v>
+        <v>1</v>
       </c>
       <c r="E119" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F119" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F119" s="2" t="s">
+      <c r="G119" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I119" s="2">
+        <v>4</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M119" s="8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A120" s="9">
+        <v>1000021</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C120" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G119" s="2">
+      <c r="I120" s="4">
+        <v>5</v>
+      </c>
+      <c r="J120" s="4">
+        <v>3</v>
+      </c>
+      <c r="K120" s="4">
+        <v>3</v>
+      </c>
+      <c r="L120" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="M120" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="P120" s="3"/>
+    </row>
+    <row r="121" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A121" s="9">
+        <v>1000024</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C121" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I121" s="4">
+        <v>5</v>
+      </c>
+      <c r="J121" s="4">
+        <v>4</v>
+      </c>
+      <c r="K121" s="4">
+        <v>4</v>
+      </c>
+      <c r="L121" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="M121" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="P121" s="3"/>
+    </row>
+    <row r="122" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="9">
+        <v>1000047</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I122" s="4">
+        <v>5</v>
+      </c>
+      <c r="J122" s="4">
+        <v>4</v>
+      </c>
+      <c r="K122" s="4">
+        <v>4</v>
+      </c>
+      <c r="L122" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="M122" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="P122" s="3"/>
+    </row>
+    <row r="123" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="9">
+        <v>1000045</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C123" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I123" s="4">
+        <v>5</v>
+      </c>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="M123" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="P123" s="3"/>
+    </row>
+    <row r="124" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="9">
+        <v>1000019</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C124" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I124" s="4">
+        <v>6</v>
+      </c>
+      <c r="J124" s="4">
+        <v>4</v>
+      </c>
+      <c r="K124" s="4">
+        <v>4</v>
+      </c>
+      <c r="L124" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="M124" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="P124" s="3"/>
+    </row>
+    <row r="125" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="9">
+        <v>1000027</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C125" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D125" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I119" s="2">
+      <c r="E125" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I125" s="4">
+        <v>6</v>
+      </c>
+      <c r="J125" s="4">
+        <v>6</v>
+      </c>
+      <c r="K125" s="4">
+        <v>6</v>
+      </c>
+      <c r="L125" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="M125" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="P125" s="3"/>
+    </row>
+    <row r="126" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="9">
+        <v>1000120</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J119" s="2">
+      <c r="E126" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I126" s="2">
+        <v>7</v>
+      </c>
+      <c r="J126" s="2">
+        <v>9</v>
+      </c>
+      <c r="K126" s="2">
+        <v>9</v>
+      </c>
+      <c r="L126" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="M126" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="9">
+        <v>1000121</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K119" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A120" s="9">
-        <v>1000119</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E120" s="2" t="s">
+      <c r="E127" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F127" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F120" s="2" t="s">
+      <c r="G127" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G120" s="2">
-        <v>1</v>
-      </c>
-      <c r="I120" s="2">
-        <v>1</v>
-      </c>
-      <c r="J120" s="2">
-        <v>1</v>
-      </c>
-      <c r="K120" s="2" t="s">
+      <c r="I127" s="2">
+        <v>7</v>
+      </c>
+      <c r="J127" s="2">
+        <v>7</v>
+      </c>
+      <c r="K127" s="2">
+        <v>7</v>
+      </c>
+      <c r="L127" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="L120" s="8" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A121" s="9">
-        <v>1000120</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E121" s="2" t="s">
+      <c r="M127" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="9">
+        <v>1000122</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F128" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F121" s="2" t="s">
+      <c r="G128" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G121" s="2">
-        <v>7</v>
-      </c>
-      <c r="I121" s="2">
-        <v>9</v>
-      </c>
-      <c r="J121" s="2">
-        <v>9</v>
-      </c>
-      <c r="K121" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="L121" s="8" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="9">
-        <v>1000121</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G122" s="2">
-        <v>7</v>
-      </c>
-      <c r="I122" s="2">
-        <v>7</v>
-      </c>
-      <c r="J122" s="2">
-        <v>7</v>
-      </c>
-      <c r="K122" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="L122" s="8" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="9">
-        <v>1000122</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G123" s="2">
+      <c r="I128" s="2">
         <v>8</v>
       </c>
-      <c r="I123" s="2">
+      <c r="J128" s="2">
         <v>6</v>
       </c>
-      <c r="J123" s="2">
+      <c r="K128" s="2">
         <v>6</v>
       </c>
-      <c r="K123" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="L123" s="8" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="9">
-        <v>1000123</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G124" s="2">
-        <v>1</v>
-      </c>
-      <c r="K124" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="L124" s="8" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="9">
-        <v>1000124</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G125" s="2">
-        <v>0</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="I125" s="2">
-        <v>1</v>
-      </c>
-      <c r="J125" s="2">
-        <v>1</v>
-      </c>
-      <c r="K125" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="L125" s="8" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="9">
-        <v>1000125</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G126" s="2">
-        <v>0</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="I126" s="2">
-        <v>2</v>
-      </c>
-      <c r="J126" s="2">
-        <v>2</v>
-      </c>
-      <c r="K126" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="9">
-        <v>1000126</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G127" s="2">
-        <v>0</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="I127" s="2">
-        <v>1</v>
-      </c>
-      <c r="J127" s="2">
-        <v>1</v>
-      </c>
-      <c r="K127" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="9">
-        <v>1000127</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G128" s="2">
-        <v>4</v>
-      </c>
-      <c r="K128" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="L128" s="8" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L128" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="M128" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9">
         <v>1000128</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>373</v>
-      </c>
       <c r="E129" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F129" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F129" s="2" t="s">
+      <c r="G129" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G129" s="2">
+      <c r="I129" s="2">
         <v>1</v>
       </c>
-      <c r="I129" s="2">
-        <v>2</v>
-      </c>
       <c r="J129" s="2">
         <v>2</v>
       </c>
-      <c r="K129" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K129" s="2">
+        <v>2</v>
+      </c>
+      <c r="L129" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9">
         <v>1000129</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>375</v>
-      </c>
       <c r="E130" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F130" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F130" s="2" t="s">
+      <c r="G130" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="G130" s="2">
-        <v>1</v>
       </c>
       <c r="I130" s="2">
         <v>1</v>
@@ -6190,145 +6658,157 @@
       <c r="J130" s="2">
         <v>1</v>
       </c>
-      <c r="K130" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="L130" s="8" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K130" s="2">
+        <v>1</v>
+      </c>
+      <c r="L130" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="M130" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="9">
         <v>1000130</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="E131" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H131" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D131" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G131" s="2">
+      <c r="I131" s="2">
         <v>8</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="I131" s="2">
-        <v>10</v>
       </c>
       <c r="J131" s="2">
         <v>10</v>
       </c>
-      <c r="K131" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="L131" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K131" s="2">
+        <v>10</v>
+      </c>
+      <c r="L131" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="M131" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9">
         <v>1000131</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>382</v>
-      </c>
       <c r="E132" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F132" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F132" s="2" t="s">
+      <c r="G132" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G132" s="2">
+      <c r="H132" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="I132" s="2">
         <v>7</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="I132" s="2">
-        <v>6</v>
       </c>
       <c r="J132" s="2">
         <v>6</v>
       </c>
-      <c r="K132" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="L132" s="8" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K132" s="2">
+        <v>6</v>
+      </c>
+      <c r="L132" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="M132" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9">
         <v>1000132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>2</v>
+        <v>375</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>385</v>
+        <v>2</v>
       </c>
       <c r="E133" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F133" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F133" s="2" t="s">
+      <c r="G133" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G133" s="2">
+      <c r="H133" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="I133" s="2">
         <v>0</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="I133" s="2">
-        <v>1</v>
       </c>
       <c r="J133" s="2">
         <v>1</v>
       </c>
-      <c r="K133" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K133" s="2">
+        <v>1</v>
+      </c>
+      <c r="L133" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9">
         <v>1000133</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>390</v>
-      </c>
       <c r="E134" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F134" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F134" s="2" t="s">
+      <c r="G134" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="G134" s="2">
-        <v>5</v>
       </c>
       <c r="I134" s="2">
         <v>5</v>
@@ -6336,143 +6816,155 @@
       <c r="J134" s="2">
         <v>5</v>
       </c>
-      <c r="K134" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="L134" s="8" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K134" s="2">
+        <v>5</v>
+      </c>
+      <c r="L134" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="M134" s="8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9">
         <v>1000134</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>396</v>
-      </c>
       <c r="E135" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F135" s="2" t="s">
+      <c r="G135" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G135" s="2">
+      <c r="I135" s="2">
         <v>5</v>
-      </c>
-      <c r="I135" s="2">
-        <v>4</v>
       </c>
       <c r="J135" s="2">
         <v>4</v>
       </c>
-      <c r="K135" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="L135" s="8" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K135" s="2">
+        <v>4</v>
+      </c>
+      <c r="L135" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="M135" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="9">
         <v>1000135</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>400</v>
-      </c>
       <c r="E136" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F136" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F136" s="2" t="s">
+      <c r="G136" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G136" s="2">
+      <c r="I136" s="2">
         <v>5</v>
       </c>
-      <c r="K136" s="2" t="s">
+      <c r="L136" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="L136" s="8" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M136" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="9">
         <v>1000136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>2</v>
+        <v>405</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>415</v>
+        <v>2</v>
       </c>
       <c r="E137" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F137" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F137" s="2" t="s">
+      <c r="G137" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G137" s="2">
+      <c r="H137" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="I137" s="2">
         <v>0</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="I137" s="2">
-        <v>1</v>
       </c>
       <c r="J137" s="2">
         <v>1</v>
       </c>
-      <c r="K137" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K137" s="2">
+        <v>1</v>
+      </c>
+      <c r="L137" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="9">
         <v>1000137</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="9">
         <v>1000138</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="9">
         <v>1000139</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="9">
         <v>1000140</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="9">
         <v>1000141</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="9">
         <v>1000142</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="9">
         <v>1000143</v>
       </c>
@@ -10758,9 +11250,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:K1000"/>
-  <sortState ref="A2:O1000">
-    <sortCondition ref="A1"/>
+  <autoFilter ref="A1:P1"/>
+  <sortState ref="A2:R128">
+    <sortCondition ref="I2:I1000"/>
+    <sortCondition ref="G2:G1000"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10771,8 +11264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10797,42 +11290,42 @@
         <v>95</v>
       </c>
       <c r="F1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B2" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="C2" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="D2" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="E2" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="F2" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -10841,6 +11334,638 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2000001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2000002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2000003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
+        <v>446</v>
+      </c>
+      <c r="D4" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2000004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" t="s">
+        <v>456</v>
+      </c>
+      <c r="D5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2000005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>457</v>
+      </c>
+      <c r="D6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2000006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
+        <v>452</v>
+      </c>
+      <c r="D7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2000007</v>
+      </c>
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" t="s">
+        <v>458</v>
+      </c>
+      <c r="D8" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2000008</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>461</v>
+      </c>
+      <c r="D9" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2000009</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
+        <v>464</v>
+      </c>
+      <c r="D10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2000010</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" t="s">
+        <v>467</v>
+      </c>
+      <c r="D11" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2000011</v>
+      </c>
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" t="s">
+        <v>470</v>
+      </c>
+      <c r="D12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2000012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2000013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2000014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2000015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2000016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2000017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2000018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2000019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2000020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2000021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2000022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2000023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2000024</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2000025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2000026</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2000027</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2000028</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2000029</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2000030</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2000031</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2000032</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2000033</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2000034</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2000035</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2000036</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2000037</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2000038</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2000039</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2000040</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2000041</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2000042</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2000043</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2000044</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2000045</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2000046</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2000047</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2000048</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2000049</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2000050</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2000051</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2000052</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2000053</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2000054</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2000055</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2000056</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2000057</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2000058</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2000059</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2000060</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2000061</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2000062</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2000063</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2000064</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2000065</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2000066</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2000067</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2000068</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2000069</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2000070</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2000071</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2000072</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2000073</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2000074</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2000075</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2000076</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2000077</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2000078</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2000079</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2000080</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2000081</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2000082</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2000083</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2000084</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2000085</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2000086</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2000087</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2000088</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2000089</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2000090</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2000091</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2000092</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2000093</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>2000094</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>2000095</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2000096</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2000097</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2000098</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2000099</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2000100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
@@ -10855,13 +11980,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10891,23 +12016,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <f>COUNTIFS(Card!$G:$G,"="&amp;$A2,Card!$E:$E,"="&amp;B$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A2,Card!$F:$F,"="&amp;B$1)</f>
         <v>8</v>
       </c>
       <c r="C2" s="5">
-        <f>COUNTIFS(Card!$G:$G,"="&amp;$A2,Card!$E:$E,"="&amp;C$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A2,Card!$F:$F,"="&amp;C$1)</f>
         <v>8</v>
       </c>
       <c r="D2" s="5">
-        <f>COUNTIFS(Card!$G:$G,"="&amp;$A2,Card!$E:$E,"="&amp;D$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A2,Card!$F:$F,"="&amp;D$1)</f>
         <v>7</v>
       </c>
       <c r="E2" s="5">
-        <f>COUNTIFS(Card!$G:$G,"="&amp;$A2,Card!$E:$E,"="&amp;E$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A2,Card!$F:$F,"="&amp;E$1)</f>
         <v>8</v>
       </c>
       <c r="F2" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -10915,23 +12040,23 @@
         <v>2</v>
       </c>
       <c r="B3" s="5">
-        <f>COUNTIFS(Card!$G:$G,"="&amp;$A3,Card!$E:$E,"="&amp;B$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A3,Card!$F:$F,"="&amp;B$1)</f>
         <v>7</v>
       </c>
       <c r="C3" s="5">
-        <f>COUNTIFS(Card!$G:$G,"="&amp;$A3,Card!$E:$E,"="&amp;C$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A3,Card!$F:$F,"="&amp;C$1)</f>
         <v>6</v>
       </c>
       <c r="D3" s="5">
-        <f>COUNTIFS(Card!$G:$G,"="&amp;$A3,Card!$E:$E,"="&amp;D$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A3,Card!$F:$F,"="&amp;D$1)</f>
         <v>9</v>
       </c>
       <c r="E3" s="5">
-        <f>COUNTIFS(Card!$G:$G,"="&amp;$A3,Card!$E:$E,"="&amp;E$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A3,Card!$F:$F,"="&amp;E$1)</f>
         <v>7</v>
       </c>
       <c r="F3" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -10939,23 +12064,23 @@
         <v>3</v>
       </c>
       <c r="B4" s="5">
-        <f>COUNTIFS(Card!$G:$G,"="&amp;$A4,Card!$E:$E,"="&amp;B$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A4,Card!$F:$F,"="&amp;B$1)</f>
         <v>6</v>
       </c>
       <c r="C4" s="5">
-        <f>COUNTIFS(Card!$G:$G,"="&amp;$A4,Card!$E:$E,"="&amp;C$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A4,Card!$F:$F,"="&amp;C$1)</f>
         <v>7</v>
       </c>
       <c r="D4" s="5">
-        <f>COUNTIFS(Card!$G:$G,"="&amp;$A4,Card!$E:$E,"="&amp;D$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A4,Card!$F:$F,"="&amp;D$1)</f>
         <v>7</v>
       </c>
       <c r="E4" s="5">
-        <f>COUNTIFS(Card!$G:$G,"="&amp;$A4,Card!$E:$E,"="&amp;E$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A4,Card!$F:$F,"="&amp;E$1)</f>
         <v>3</v>
       </c>
       <c r="F4" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -10963,23 +12088,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="5">
-        <f>COUNTIFS(Card!$G:$G,"="&amp;$A5,Card!$E:$E,"="&amp;B$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A5,Card!$F:$F,"="&amp;B$1)</f>
         <v>6</v>
       </c>
       <c r="C5" s="5">
-        <f>COUNTIFS(Card!$G:$G,"="&amp;$A5,Card!$E:$E,"="&amp;C$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A5,Card!$F:$F,"="&amp;C$1)</f>
         <v>6</v>
       </c>
       <c r="D5" s="5">
-        <f>COUNTIFS(Card!$G:$G,"="&amp;$A5,Card!$E:$E,"="&amp;D$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A5,Card!$F:$F,"="&amp;D$1)</f>
         <v>3</v>
       </c>
       <c r="E5" s="5">
-        <f>COUNTIFS(Card!$G:$G,"="&amp;$A5,Card!$E:$E,"="&amp;E$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A5,Card!$F:$F,"="&amp;E$1)</f>
         <v>2</v>
       </c>
       <c r="F5" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -10987,23 +12112,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="5">
-        <f>COUNTIFS(Card!$G:$G,"="&amp;$A6,Card!$E:$E,"="&amp;B$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A6,Card!$F:$F,"="&amp;B$1)</f>
         <v>4</v>
       </c>
       <c r="C6" s="5">
-        <f>COUNTIFS(Card!$G:$G,"="&amp;$A6,Card!$E:$E,"="&amp;C$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A6,Card!$F:$F,"="&amp;C$1)</f>
         <v>4</v>
       </c>
       <c r="D6" s="5">
-        <f>COUNTIFS(Card!$G:$G,"="&amp;$A6,Card!$E:$E,"="&amp;D$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A6,Card!$F:$F,"="&amp;D$1)</f>
         <v>3</v>
       </c>
       <c r="E6" s="5">
-        <f>COUNTIFS(Card!$G:$G,"="&amp;$A6,Card!$E:$E,"="&amp;E$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A6,Card!$F:$F,"="&amp;E$1)</f>
         <v>2</v>
       </c>
       <c r="F6" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -11011,19 +12136,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="5">
-        <f>COUNTIFS(Card!$G:$G,"="&amp;$A7,Card!$E:$E,"="&amp;B$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A7,Card!$F:$F,"="&amp;B$1)</f>
         <v>2</v>
       </c>
       <c r="C7" s="5">
-        <f>COUNTIFS(Card!$G:$G,"="&amp;$A7,Card!$E:$E,"="&amp;C$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A7,Card!$F:$F,"="&amp;C$1)</f>
         <v>2</v>
       </c>
       <c r="D7" s="5">
-        <f>COUNTIFS(Card!$G:$G,"="&amp;$A7,Card!$E:$E,"="&amp;D$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A7,Card!$F:$F,"="&amp;D$1)</f>
         <v>2</v>
       </c>
       <c r="E7" s="5">
-        <f>COUNTIFS(Card!$G:$G,"="&amp;$A7,Card!$E:$E,"="&amp;E$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A7,Card!$F:$F,"="&amp;E$1)</f>
         <v>2</v>
       </c>
       <c r="F7" s="5">
@@ -11035,23 +12160,23 @@
         <v>7</v>
       </c>
       <c r="B8" s="5">
-        <f>COUNTIFS(Card!$G:$G,"="&amp;$A8,Card!$E:$E,"="&amp;B$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A8,Card!$F:$F,"="&amp;B$1)</f>
         <v>2</v>
       </c>
       <c r="C8" s="5">
-        <f>COUNTIFS(Card!$G:$G,"="&amp;$A8,Card!$E:$E,"="&amp;C$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A8,Card!$F:$F,"="&amp;C$1)</f>
         <v>2</v>
       </c>
       <c r="D8" s="5">
-        <f>COUNTIFS(Card!$G:$G,"="&amp;$A8,Card!$E:$E,"="&amp;D$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A8,Card!$F:$F,"="&amp;D$1)</f>
         <v>1</v>
       </c>
       <c r="E8" s="5">
-        <f>COUNTIFS(Card!$G:$G,"="&amp;$A8,Card!$E:$E,"="&amp;E$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A8,Card!$F:$F,"="&amp;E$1)</f>
         <v>1</v>
       </c>
       <c r="F8" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -11059,19 +12184,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="5">
-        <f>COUNTIFS(Card!$G:$G,"="&amp;$A9,Card!$E:$E,"="&amp;B$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A9,Card!$F:$F,"="&amp;B$1)</f>
         <v>1</v>
       </c>
       <c r="C9" s="5">
-        <f>COUNTIFS(Card!$G:$G,"="&amp;$A9,Card!$E:$E,"="&amp;C$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A9,Card!$F:$F,"="&amp;C$1)</f>
         <v>1</v>
       </c>
       <c r="D9" s="5">
-        <f>COUNTIFS(Card!$G:$G,"="&amp;$A9,Card!$E:$E,"="&amp;D$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A9,Card!$F:$F,"="&amp;D$1)</f>
         <v>1</v>
       </c>
       <c r="E9" s="5">
-        <f>COUNTIFS(Card!$G:$G,"="&amp;$A9,Card!$E:$E,"="&amp;E$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A9,Card!$F:$F,"="&amp;E$1)</f>
         <v>1</v>
       </c>
       <c r="F9" s="5">
@@ -11097,7 +12222,7 @@
       </c>
       <c r="F10" s="5">
         <f>SUM(F2:F9)</f>
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/design/conflux.xlsx
+++ b/design/conflux.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ProjectConflux\design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shlsun\Documents\Projects\ProjectConflux\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="494">
   <si>
     <t>Cost</t>
   </si>
@@ -164,9 +164,6 @@
     <t>炼狱小鬼</t>
   </si>
   <si>
-    <t>纵火者瑞斯卡</t>
-  </si>
-  <si>
     <t>火链</t>
   </si>
   <si>
@@ -338,30 +335,15 @@
     <t>S</t>
   </si>
   <si>
-    <t>* 死亡时, 对指定生物造成1点伤害</t>
-  </si>
-  <si>
-    <t>* 嘲讽 * 位于绿色卡槽中时, 获得+1/+1</t>
-  </si>
-  <si>
-    <t>* 其它所有的黑曜石力量+1.</t>
-  </si>
-  <si>
     <t>林精</t>
   </si>
   <si>
-    <t>* 所在卡槽被视为绿色</t>
-  </si>
-  <si>
     <t>丛林之雨</t>
   </si>
   <si>
     <t>绿化</t>
   </si>
   <si>
-    <t>* 目标生物所在卡槽被视为绿色, 直到回合结束</t>
-  </si>
-  <si>
     <t>哨卫</t>
   </si>
   <si>
@@ -407,9 +389,6 @@
     <t>半人马酋长</t>
   </si>
   <si>
-    <t>* 嘲讽: 攻击中的生物必须指定任一防御者作为目标</t>
-  </si>
-  <si>
     <t>巨人增长</t>
   </si>
   <si>
@@ -431,54 +410,27 @@
     <t>热浪巨兽</t>
   </si>
   <si>
-    <t>* 对目标元素师或者生物造成2点伤害.</t>
-  </si>
-  <si>
-    <t>* 对1个元素师或者生物造成1点伤害, 然后重新指定1个元素师或者生物造成1点伤害, 可以重复指定.</t>
-  </si>
-  <si>
-    <t>* 对目标生物和其拥有者造成2点伤害.</t>
-  </si>
-  <si>
     <t>* 在回合开始阶段，对附魔生物的拥有者造成1点伤害.</t>
   </si>
   <si>
     <t>* 上场时, 对目标生物造成1点伤害.</t>
   </si>
   <si>
-    <t>* 每当你打出一张红色卡牌, 纵火者瑞斯卡对目标生物造成1点伤害.</t>
-  </si>
-  <si>
     <t>* 冻结目标生物, 并对其造成1点伤害.</t>
   </si>
   <si>
     <t>烈焰使者</t>
   </si>
   <si>
-    <t>* 死亡时, 目标生物获得+1/+0, 直到回合结束</t>
-  </si>
-  <si>
     <t>火妖</t>
   </si>
   <si>
-    <t>献祭之火</t>
-  </si>
-  <si>
-    <t>* 牺牲一个你的红色生物, 对目标生物造成3点伤害</t>
-  </si>
-  <si>
     <t>熔火暴徒</t>
   </si>
   <si>
     <t>* 进攻时, 目标生物受到1点伤害 * 不稳定</t>
   </si>
   <si>
-    <t>* 本回合中, 你的每一个死亡的红色生物会为熔火暴徒+1/+0 * 不稳定</t>
-  </si>
-  <si>
-    <t>* 不稳定</t>
-  </si>
-  <si>
     <t>焚毁</t>
   </si>
   <si>
@@ -494,21 +446,12 @@
     <t>* 牺牲一个你的红色生物, 召唤2个2/1的灰烬之灵或者1个4/2的灰烬精华进入战场, 灰烬之灵和灰烬精华所在卡槽被视为红色并且具有不稳定效果.</t>
   </si>
   <si>
-    <t>* 对目标元素师的指定颜色的卡槽内所有生物造成2点伤害</t>
-  </si>
-  <si>
     <t>火元素操控</t>
   </si>
   <si>
-    <t>* 对目标生物或者元素师造成2点伤害, 你所操控的每一个红色生物对你的目标造成1点伤害</t>
-  </si>
-  <si>
     <t>闪电打击</t>
   </si>
   <si>
-    <t>* 对目标生物造成3点伤害, 如果目标因此而死亡, 你增加1个符文</t>
-  </si>
-  <si>
     <t>炎魔领主</t>
   </si>
   <si>
@@ -527,9 +470,6 @@
     <t>幼年红龙</t>
   </si>
   <si>
-    <t>* 火焰吐息F: 对目标生物造成1点伤害</t>
-  </si>
-  <si>
     <t>爆炎冲击波</t>
   </si>
   <si>
@@ -545,9 +485,6 @@
     <t>流星火雨</t>
   </si>
   <si>
-    <t>* 对战场上所有生物和元素师造成1点伤害</t>
-  </si>
-  <si>
     <t>毁灭</t>
   </si>
   <si>
@@ -557,21 +494,12 @@
     <t>焦灼血脉</t>
   </si>
   <si>
-    <t>* 对目标生物造成5点伤害, 如果目标生物因此而死亡, 对其拥有者造成5点伤害.</t>
-  </si>
-  <si>
     <t>纵火</t>
   </si>
   <si>
-    <t>* 对目标生物造成4点伤害, 在同一回合, 你每有一个生物进入墓地, 纵火的符文消耗减少1点.</t>
-  </si>
-  <si>
     <t>灰烬暴君</t>
   </si>
   <si>
-    <t>* 死亡时若前方没有阻挡生物, 对目标元素师造成等同于灰烬暴君力量的伤害.</t>
-  </si>
-  <si>
     <t>Wood Fairy</t>
   </si>
   <si>
@@ -584,15 +512,9 @@
     <t>Aether Crucible</t>
   </si>
   <si>
-    <t>* 如果空气元素所在卡槽颜色不是白色, 将空气元素置于墓地并对目标生物或者元素师造成1点伤害.</t>
-  </si>
-  <si>
     <t>位面之兽</t>
   </si>
   <si>
-    <t>* 冻结自身: 迁移到另外一个你的卡槽, 如果目标卡槽有生物, 位面之兽与目标卡槽的生物交换位置.</t>
-  </si>
-  <si>
     <t>虚幻刺客</t>
   </si>
   <si>
@@ -617,9 +539,6 @@
     <t>* 目标生物获得-1/-0, 直到回合结束</t>
   </si>
   <si>
-    <t>* 附魔的生物无法被防御, 也无法防御任何生物 * 附魔的生物成为法术的目标时, 附魔的生物受到1点伤害, 然后气化被置于墓地</t>
-  </si>
-  <si>
     <t>以太行者</t>
   </si>
   <si>
@@ -638,9 +557,6 @@
     <t>天空之墙</t>
   </si>
   <si>
-    <t>* 防御者 * 战斗时, 进攻的生物获得-3/-0</t>
-  </si>
-  <si>
     <t>气元素暗杀者</t>
   </si>
   <si>
@@ -782,9 +698,6 @@
     <t>佯攻</t>
   </si>
   <si>
-    <t>* 目标生物获得[先攻], 直到回合结束</t>
-  </si>
-  <si>
     <t>* 先攻: 进攻时, 你首先对敌人造成伤害并结算, 然后敌人对你造成伤害并结算</t>
   </si>
   <si>
@@ -1067,9 +980,6 @@
     <t>* 攻击时，立即杀死一个被冻结的目标生物</t>
   </si>
   <si>
-    <t>* 当可食用藤蔓进入墓地时，你恢复生命值，数量等于可食用藤蔓的力量</t>
-  </si>
-  <si>
     <t>* 嘲讽：攻击中的生物必须指定任一嘲讽者作为目标 * 防御者：进攻时，力量结算-1，防御时，力量结算+2</t>
   </si>
   <si>
@@ -1094,9 +1004,6 @@
     <t>Spirit of the Woods</t>
   </si>
   <si>
-    <t>* 进场时，目标生物+1，直到回合结束</t>
-  </si>
-  <si>
     <t>远古绿龙</t>
   </si>
   <si>
@@ -1106,18 +1013,12 @@
     <t>* 每回合恢复所有生命值</t>
   </si>
   <si>
-    <t>* 牺牲时可以不消耗任何符文，从手牌中选取一张生物卡，置于远古树精的卡槽</t>
-  </si>
-  <si>
     <t>精灵德鲁伊</t>
   </si>
   <si>
     <t>Elf Druid</t>
   </si>
   <si>
-    <t>* 消耗2：召唤一个P1的树人进入战场，可以放置于任何卡槽</t>
-  </si>
-  <si>
     <t>树人</t>
   </si>
   <si>
@@ -1139,21 +1040,9 @@
     <t>Raged Yeti</t>
   </si>
   <si>
-    <t>* 每次战斗后获得+1</t>
-  </si>
-  <si>
     <t>* 附魔的生物+1</t>
   </si>
   <si>
-    <t>* 嘲讽：伤害结算时，优先计算嘲讽者</t>
-  </si>
-  <si>
-    <t>沼泽九头蛇</t>
-  </si>
-  <si>
-    <t>* 不死：进入墓地时，以力量-1的状态立即回到原卡槽，力量为1时，无法触发不死效果</t>
-  </si>
-  <si>
     <t>Wyvern</t>
   </si>
   <si>
@@ -1184,24 +1073,6 @@
     <t>* 暗杀：进攻时，首先对一个与之战斗的敌军目标造成伤害，战斗时，其力量值不参与攻击结算</t>
   </si>
   <si>
-    <t>* 冻结自身：目标生物获得+1，直到回合结束</t>
-  </si>
-  <si>
-    <t>* 你的所有其它绿色生物获得+1</t>
-  </si>
-  <si>
-    <t>* 你的所有绿色卡槽的生物获得+1，直到回合结束</t>
-  </si>
-  <si>
-    <t>* 使一个你的单位立即攻击一次，如果对面卡槽没有单位，攻击对方玩家</t>
-  </si>
-  <si>
-    <t>* 目标生物获得嘲讽，力量+3</t>
-  </si>
-  <si>
-    <t>* 生长：在你的回合开始阶段，如果该生物被元素增强，获得+1</t>
-  </si>
-  <si>
     <t>* 你的所有绿色卡槽的生物获得+1</t>
   </si>
   <si>
@@ -1223,15 +1094,9 @@
     <t>* 在任何卡槽均可获得元素增强效果 * 战斗时，对方的嘲讽失效</t>
   </si>
   <si>
-    <t>* 冻结自身，消耗2：为一个单位+2或者治疗玩家2点生命值</t>
-  </si>
-  <si>
     <t>* 目标生物获得+3和碾压，直到回合结束.</t>
   </si>
   <si>
-    <t>* 牺牲一个红色生物, 为炎魔领主+1/+1</t>
-  </si>
-  <si>
     <t>* 进入战场时，所有卡槽最多只会造成1点伤害，直到敌方玩家的回合结束</t>
   </si>
   <si>
@@ -1512,6 +1377,138 @@
   </si>
   <si>
     <t>卡槽内的生物力量-X</t>
+  </si>
+  <si>
+    <t>* 目标生物所在卡槽被视为绿色</t>
+  </si>
+  <si>
+    <t>* 进入墓地时，你恢复生命值，数量等于可食用藤蔓的防御</t>
+  </si>
+  <si>
+    <t>* 置于绿色卡槽时，+1/0</t>
+  </si>
+  <si>
+    <t>* 进场时，目标生物+1/1，直到回合结束</t>
+  </si>
+  <si>
+    <t>* 冻结自身：目标生物+1/1，直到回合结束</t>
+  </si>
+  <si>
+    <t>* 你的所有其它绿色生物+1/1</t>
+  </si>
+  <si>
+    <t>* 使一个你的单位立即和对位卡槽的生物一次，如果对位卡槽没有单位，攻击对方玩家</t>
+  </si>
+  <si>
+    <t>* 你的所有绿色卡槽的生物+2/2，直到回合结束</t>
+  </si>
+  <si>
+    <t>* 生长：在你的回合开始阶段，如果你的绿色卡槽有生物，获得+1/1</t>
+  </si>
+  <si>
+    <t>* 目标生物获得嘲讽，+1/3</t>
+  </si>
+  <si>
+    <t>* 冻结自身，消耗2：为一个生物+2/2或者治疗玩家3点生命值</t>
+  </si>
+  <si>
+    <t>* 每次战斗后获得+1/0</t>
+  </si>
+  <si>
+    <t>沼泽多头蛇</t>
+  </si>
+  <si>
+    <t>* 进入墓地时将手牌中的任一张生物卡置于远古树精的卡槽</t>
+  </si>
+  <si>
+    <t>* 不死：进入墓地时，立即回到原卡槽并获得永久标记-1/-1，力量为1时，无法触发不死效果</t>
+  </si>
+  <si>
+    <t>* 消耗1：召唤一个3/3的树人进入战场，可以放置于任何卡槽</t>
+  </si>
+  <si>
+    <t>* 死亡时，对指定生物造成1点伤害</t>
+  </si>
+  <si>
+    <t>* 死亡时，目标生物获得+1/+0，直到回合结束</t>
+  </si>
+  <si>
+    <t>* 对目标元素师或者生物造成2点伤害</t>
+  </si>
+  <si>
+    <t>* 对1个元素师或者生物造成1点伤害，然后重新指定1个元素师或者生物造成1点伤害，可以重复指定</t>
+  </si>
+  <si>
+    <t>* 不稳定 * 迅捷</t>
+  </si>
+  <si>
+    <t>* 对目标元素师的所有生物造成2点伤害</t>
+  </si>
+  <si>
+    <t>* 本回合中，你的每一个死亡的红色生物会为熔火暴徒+1/+0</t>
+  </si>
+  <si>
+    <t>* 对目标生物造成3点伤害，如果目标因此而死亡，你增加1个符文</t>
+  </si>
+  <si>
+    <t>纵火者</t>
+  </si>
+  <si>
+    <t>* 牺牲一个你的红色生物，对目标生物或者玩家造成牺牲掉生物的力量+3点伤害</t>
+  </si>
+  <si>
+    <t>献祭</t>
+  </si>
+  <si>
+    <t>* 对目标生物造成5点伤害.</t>
+  </si>
+  <si>
+    <t>* 将墓地中的红色生物置于手牌，生物的总消耗不大于4</t>
+  </si>
+  <si>
+    <t>* 每当你打出一张红色卡牌，纵火者对目标生物造成1点伤害</t>
+  </si>
+  <si>
+    <t>* 消耗X：获得+X/0</t>
+  </si>
+  <si>
+    <t>* 对战场上所有生物和元素师造成3点伤害</t>
+  </si>
+  <si>
+    <t>* 己方的红色卡槽内生物获得法术免疫</t>
+  </si>
+  <si>
+    <t>* 死亡时若前方没有阻挡生物，对目标元素师造成等同于灰烬暴君力量的伤害</t>
+  </si>
+  <si>
+    <t>* 对目标生物或者玩家造成4点伤害，你所操控的每一个红色生物对你的目标造成1点伤害 * 法术大师：法术置于墓地时，回到手牌</t>
+  </si>
+  <si>
+    <t>* 对目标玩家造成5点伤害，在同一回合，你每有一个红色生物进入墓地，纵火的符文消耗减少1点，伤害+1</t>
+  </si>
+  <si>
+    <t>* 火焰吐息F：对目标生物造成2点伤害</t>
+  </si>
+  <si>
+    <t>* 牺牲一个红色生物, 为炎魔领主+2/+1</t>
+  </si>
+  <si>
+    <t>* 附魔的生物无法被防御，也无法防御任何生物 * 附魔的生物成为法术的目标时，附魔的生物受到1点伤害，然后气化被置于墓地</t>
+  </si>
+  <si>
+    <t>* 冻结自身：迁移到另外一个你的卡槽，如果目标卡槽有生物，位面之兽与目标卡槽的生物交换位置</t>
+  </si>
+  <si>
+    <t>* 如果空气元素所在卡槽颜色不是白色，将空气元素置于墓地并对目标生物或者元素师造成1点伤害</t>
+  </si>
+  <si>
+    <t>* 防御者 * 战斗时，进攻的生物获得-3/-0</t>
+  </si>
+  <si>
+    <t>* 目标生物获得先攻，直到回合结束</t>
+  </si>
+  <si>
+    <t>* 进场时，立即对对位生物造成1点伤害，如果对位卡槽没有生物，对目标玩家造成1点伤害</t>
   </si>
 </sst>
 </file>
@@ -1963,10 +1960,10 @@
   <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K46" sqref="K46"/>
+      <selection pane="bottomRight" activeCell="M99" sqref="M99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1992,52 +1989,52 @@
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>402</v>
+        <v>357</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>404</v>
+        <v>359</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>403</v>
+        <v>358</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>455</v>
+        <v>410</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>406</v>
+        <v>361</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>407</v>
+        <v>362</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>409</v>
+        <v>364</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>408</v>
+        <v>363</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>410</v>
+        <v>365</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>411</v>
+        <v>366</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>412</v>
+        <v>367</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>413</v>
+        <v>368</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>414</v>
+        <v>369</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>415</v>
+        <v>370</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>416</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -2045,25 +2042,25 @@
         <v>1000124</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
@@ -2075,10 +2072,10 @@
         <v>1</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>427</v>
+        <v>382</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2089,22 +2086,22 @@
         <v>1000125</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
@@ -2116,7 +2113,7 @@
         <v>2</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -2124,25 +2121,25 @@
         <v>1000126</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
@@ -2154,108 +2151,106 @@
         <v>1</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>1000002</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="3" t="s">
+        <v>1000132</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="K5" s="2">
+        <v>3</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>1000136</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I5" s="4">
+      <c r="G6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
         <v>1</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K6" s="2">
         <v>1</v>
       </c>
-      <c r="K5" s="4">
-        <v>1</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="P5" s="3"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>1000023</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <v>3</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="P6" s="3"/>
+      <c r="L6" s="2" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <v>1000006</v>
+        <v>1000002</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>456</v>
+        <v>412</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I7" s="4">
         <v>1</v>
@@ -2267,49 +2262,49 @@
         <v>1</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>1000007</v>
+        <v>1000023</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>277</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>456</v>
+        <v>411</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I8" s="4">
         <v>1</v>
       </c>
       <c r="J8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>98</v>
+        <v>249</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="P8" s="3"/>
     </row>
@@ -2321,19 +2316,19 @@
         <v>11</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>456</v>
+        <v>411</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I9" s="4">
         <v>1</v>
@@ -2345,75 +2340,71 @@
         <v>1</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>103</v>
+        <v>466</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>1000009</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+        <v>1000118</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>94</v>
+        <v>412</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I10" s="4">
-        <v>2</v>
-      </c>
-      <c r="J10" s="4">
+        <v>95</v>
+      </c>
+      <c r="I10" s="2">
         <v>1</v>
       </c>
-      <c r="K10" s="4">
+      <c r="J10" s="2">
         <v>1</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="P10" s="3"/>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
-        <v>1000118</v>
+        <v>1000119</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
@@ -2425,115 +2416,127 @@
         <v>1</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
-        <v>1000119</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>307</v>
+        <v>1000006</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F12" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I12" s="2">
+        <v>95</v>
+      </c>
+      <c r="I12" s="4">
         <v>1</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="4">
         <v>1</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="4">
         <v>1</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L12" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
-        <v>1000028</v>
+        <v>1000014</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>456</v>
+        <v>412</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I13" s="4">
         <v>1</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3" t="s">
-        <v>97</v>
+      <c r="J13" s="4">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="P13" s="4"/>
+    </row>
+    <row r="14" spans="1:16" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
-        <v>1000123</v>
+        <v>1000053</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>321</v>
+        <v>102</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>322</v>
+        <v>157</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>456</v>
+        <v>411</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>92</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2">
         <v>1</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2</v>
+      </c>
       <c r="L14" s="2" t="s">
-        <v>97</v>
+        <v>249</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2541,283 +2544,282 @@
     </row>
     <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
-        <v>1000014</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>2</v>
+        <v>1000128</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>93</v>
+        <v>412</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I15" s="4">
+        <v>95</v>
+      </c>
+      <c r="I15" s="2">
         <v>1</v>
       </c>
-      <c r="J15" s="4">
-        <v>1</v>
-      </c>
-      <c r="K15" s="4">
-        <v>1</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="P15" s="4"/>
+      <c r="J15" s="2">
+        <v>2</v>
+      </c>
+      <c r="K15" s="2">
+        <v>2</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
-        <v>1000015</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="3" t="s">
+        <v>1000129</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" s="2">
         <v>1</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F16" s="4" t="s">
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>1000075</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>1000076</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>2</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>1000095</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I16" s="4">
-        <v>2</v>
-      </c>
-      <c r="J16" s="4">
-        <v>2</v>
-      </c>
-      <c r="K16" s="4">
-        <v>2</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>1000011</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I17" s="4">
-        <v>2</v>
-      </c>
-      <c r="J17" s="4">
-        <v>2</v>
-      </c>
-      <c r="K17" s="4">
+      <c r="G19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" s="2">
         <v>1</v>
       </c>
-      <c r="L17" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>1000030</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I18" s="4">
-        <v>2</v>
-      </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>1000018</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="J19" s="2">
         <v>1</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I19" s="4">
-        <v>3</v>
-      </c>
-      <c r="J19" s="4">
+      <c r="K19" s="2">
         <v>1</v>
       </c>
-      <c r="K19" s="4">
-        <v>1</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="M19" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="P19" s="3"/>
+      <c r="L19" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
-        <v>1000043</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="3" t="s">
+        <v>1000096</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>92</v>
+        <v>411</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I20" s="4">
-        <v>2</v>
-      </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>1000004</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>1000097</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9">
-        <v>2</v>
-      </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>464</v>
-      </c>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="10"/>
+        <v>412</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
-        <v>1000029</v>
+        <v>1000007</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>92</v>
@@ -2826,1177 +2828,1160 @@
         <v>97</v>
       </c>
       <c r="I22" s="4">
-        <v>2</v>
-      </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="4">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4">
+        <v>1</v>
+      </c>
+      <c r="L22" s="4" t="s">
         <v>97</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
-        <v>1000022</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="3" t="s">
+        <v>1000101</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F23" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>94</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I23" s="4">
-        <v>4</v>
-      </c>
-      <c r="J23" s="4">
-        <v>4</v>
-      </c>
-      <c r="K23" s="4">
-        <v>4</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="M23" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
-        <v>1000040</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="3" t="s">
+        <v>1000102</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>92</v>
+        <v>412</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="I24" s="4">
-        <v>3</v>
-      </c>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4" t="s">
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="M24" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M24" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
-        <v>1000010</v>
+        <v>1000028</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>456</v>
+        <v>411</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>96</v>
       </c>
       <c r="I25" s="4">
-        <v>3</v>
-      </c>
-      <c r="J25" s="4">
-        <v>3</v>
-      </c>
-      <c r="K25" s="4">
-        <v>3</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>281</v>
+        <v>1</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>461</v>
+        <v>395</v>
       </c>
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
-        <v>1000025</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="3" t="s">
+        <v>1000123</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>93</v>
+        <v>411</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I26" s="4">
-        <v>5</v>
-      </c>
-      <c r="J26" s="4">
-        <v>5</v>
-      </c>
-      <c r="K26" s="4">
-        <v>5</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="P26" s="3"/>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
-        <v>1000026</v>
+        <v>1000032</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>456</v>
+        <v>411</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>303</v>
-      </c>
       <c r="I27" s="4">
-        <v>5</v>
-      </c>
-      <c r="J27" s="4">
-        <v>5</v>
-      </c>
-      <c r="K27" s="4">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
       <c r="L27" s="4" t="s">
-        <v>278</v>
+        <v>96</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="P27" s="3"/>
+        <v>468</v>
+      </c>
+      <c r="P27" s="4"/>
     </row>
     <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
-        <v>1000016</v>
+        <v>1000033</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>3</v>
+        <v>76</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>96</v>
       </c>
       <c r="I28" s="4">
-        <v>3</v>
-      </c>
-      <c r="J28" s="4">
-        <v>2</v>
-      </c>
-      <c r="K28" s="4">
-        <v>2</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>277</v>
+        <v>1</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
-        <v>1000017</v>
+        <v>1000037</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>19</v>
+        <v>307</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>1</v>
+        <v>308</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>96</v>
       </c>
       <c r="I29" s="4">
-        <v>3</v>
-      </c>
-      <c r="J29" s="4">
-        <v>3</v>
-      </c>
-      <c r="K29" s="4">
-        <v>3</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>277</v>
+        <v>1</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>330</v>
+        <v>254</v>
       </c>
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
-        <v>1000012</v>
+        <v>1000051</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>329</v>
+        <v>129</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="3"/>
     </row>
     <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
-        <v>1000003</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>3</v>
+      <c r="A31" s="8">
+        <v>1000055</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="F31" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="9">
-        <v>3</v>
-      </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="M31" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="10"/>
+      <c r="G31" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6">
+        <v>1</v>
+      </c>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
     </row>
     <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
-        <v>1000031</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="4" t="s">
+        <v>1000056</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I32" s="2">
         <v>1</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I32" s="4">
-        <v>2</v>
-      </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="M32" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="P32" s="3"/>
+      <c r="L32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
-        <v>1000032</v>
+        <v>1000009</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>456</v>
+        <v>412</v>
       </c>
       <c r="F33" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I33" s="4">
+        <v>2</v>
+      </c>
+      <c r="J33" s="4">
+        <v>1</v>
+      </c>
+      <c r="K33" s="4">
+        <v>1</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>1000099</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I33" s="4">
+      <c r="G34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I34" s="2">
         <v>1</v>
       </c>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="M33" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="P33" s="4"/>
-    </row>
-    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
-        <v>1000033</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I34" s="4">
-        <v>1</v>
-      </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="M34" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="P34" s="3"/>
+      <c r="L34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
-        <v>1000034</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="3" t="s">
+        <v>1000100</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F35" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>94</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I35" s="4">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="M35" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="P35" s="3"/>
+        <v>96</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
-        <v>1000035</v>
+        <v>1000046</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>456</v>
+        <v>412</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I36" s="4">
-        <v>2</v>
-      </c>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3" t="s">
-        <v>98</v>
+        <v>1</v>
+      </c>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>137</v>
+        <v>394</v>
       </c>
       <c r="P36" s="3"/>
     </row>
     <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
-        <v>1000036</v>
+        <v>1000015</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>102</v>
+        <v>60</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>456</v>
+        <v>412</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I37" s="4">
-        <v>3</v>
-      </c>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3" t="s">
-        <v>98</v>
+        <v>2</v>
+      </c>
+      <c r="J37" s="4">
+        <v>2</v>
+      </c>
+      <c r="K37" s="4">
+        <v>2</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>284</v>
+        <v>133</v>
       </c>
       <c r="P37" s="3"/>
     </row>
     <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
-        <v>1000037</v>
+        <v>1000049</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>336</v>
+        <v>44</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="D38" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>456</v>
+        <v>412</v>
       </c>
       <c r="F38" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="I38" s="4">
-        <v>1</v>
-      </c>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3" t="s">
-        <v>97</v>
+        <v>2</v>
+      </c>
+      <c r="J38" s="4">
+        <v>2</v>
+      </c>
+      <c r="K38" s="4">
+        <v>2</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>252</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>283</v>
+        <v>128</v>
       </c>
       <c r="P38" s="3"/>
     </row>
     <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
-        <v>1000038</v>
+        <v>1000011</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>184</v>
+        <v>56</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>456</v>
+        <v>411</v>
       </c>
       <c r="F39" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="I39" s="4">
         <v>2</v>
       </c>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
+      <c r="J39" s="4">
+        <v>2</v>
+      </c>
+      <c r="K39" s="4">
+        <v>1</v>
+      </c>
       <c r="L39" s="4" t="s">
-        <v>97</v>
+        <v>249</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>206</v>
+        <v>417</v>
       </c>
       <c r="P39" s="3"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
-        <v>1000048</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" s="3" t="s">
+        <v>1000078</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F40" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I40" s="2">
+        <v>2</v>
+      </c>
+      <c r="J40" s="2">
+        <v>2</v>
+      </c>
+      <c r="K40" s="2">
+        <v>2</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>1000052</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I40" s="4">
-        <v>3</v>
-      </c>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="M40" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
-        <v>1000001</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="G41" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I41" s="4">
-        <v>4</v>
-      </c>
-      <c r="J41" s="4">
-        <v>0</v>
-      </c>
-      <c r="K41" s="4">
-        <v>0</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="M41" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="P41" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="I41" s="2">
+        <v>2</v>
+      </c>
+      <c r="J41" s="2">
+        <v>2</v>
+      </c>
+      <c r="K41" s="2">
+        <v>2</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
-        <v>1000041</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" s="3" t="s">
+        <v>1000058</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="I42" s="2">
+        <v>2</v>
+      </c>
+      <c r="J42" s="2">
         <v>1</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F42" s="4" t="s">
+      <c r="K42" s="2">
+        <v>1</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>1000060</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I42" s="4">
-        <v>3</v>
-      </c>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="M42" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="P42" s="3"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
-        <v>1000020</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I43" s="4">
-        <v>4</v>
-      </c>
-      <c r="J43" s="4">
-        <v>2</v>
-      </c>
-      <c r="K43" s="4">
-        <v>6</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="M43" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="P43" s="3"/>
+      <c r="I43" s="2">
+        <v>2</v>
+      </c>
+      <c r="J43" s="2">
+        <v>1</v>
+      </c>
+      <c r="K43" s="2">
+        <v>2</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
-        <v>1000044</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D44" s="3" t="s">
+        <v>1000065</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I44" s="2">
+        <v>2</v>
+      </c>
+      <c r="J44" s="2">
         <v>1</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I44" s="4">
-        <v>4</v>
-      </c>
-      <c r="J44" s="4">
-        <v>3</v>
-      </c>
-      <c r="K44" s="4">
-        <v>3</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="M44" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="P44" s="3"/>
+      <c r="K44" s="2">
+        <v>1</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
-        <v>1000039</v>
+        <v>1000035</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>3</v>
+        <v>78</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>97</v>
       </c>
       <c r="I45" s="4">
-        <v>4</v>
-      </c>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3" t="s">
         <v>97</v>
       </c>
       <c r="M45" s="12" t="s">
-        <v>344</v>
+        <v>127</v>
       </c>
       <c r="P45" s="3"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
-        <v>1000042</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="D46" s="3" t="s">
+        <v>1000103</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>92</v>
+        <v>411</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I46" s="4">
-        <v>4</v>
-      </c>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="M46" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="P46" s="3"/>
-    </row>
-    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="I46" s="2">
+        <v>2</v>
+      </c>
+      <c r="J46" s="2">
+        <v>2</v>
+      </c>
+      <c r="K46" s="2">
+        <v>2</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
-        <v>1000127</v>
+        <v>1000105</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>335</v>
+        <v>175</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>81</v>
+        <v>247</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I47" s="2">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
+        <v>3</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>97</v>
+        <v>249</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>338</v>
+        <v>491</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
-        <v>1000047</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="D48" s="3" t="s">
+        <v>1000106</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>92</v>
+        <v>411</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I48" s="4">
-        <v>5</v>
-      </c>
-      <c r="J48" s="4">
-        <v>3</v>
-      </c>
-      <c r="K48" s="4">
-        <v>6</v>
-      </c>
-      <c r="L48" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="M48" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="P48" s="3"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="I48" s="2">
+        <v>2</v>
+      </c>
+      <c r="J48" s="2">
+        <v>2</v>
+      </c>
+      <c r="K48" s="2">
+        <v>2</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
-        <v>1000045</v>
+        <v>1000005</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>456</v>
+        <v>412</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I49" s="4">
-        <v>5</v>
-      </c>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="J49" s="4">
+        <v>2</v>
+      </c>
+      <c r="K49" s="4">
+        <v>2</v>
+      </c>
       <c r="L49" s="4" t="s">
-        <v>97</v>
+        <v>249</v>
       </c>
       <c r="M49" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="P49" s="3"/>
+        <v>403</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
-        <v>1000049</v>
+        <v>1000013</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>456</v>
+        <v>412</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I50" s="4">
         <v>2</v>
       </c>
       <c r="J50" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K50" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="M50" s="12" t="s">
-        <v>138</v>
+        <v>407</v>
       </c>
       <c r="P50" s="3"/>
     </row>
     <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
-        <v>1000050</v>
+        <v>1000030</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>456</v>
+        <v>411</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I51" s="4">
-        <v>3</v>
-      </c>
-      <c r="J51" s="4">
-        <v>2</v>
-      </c>
-      <c r="K51" s="4">
-        <v>2</v>
-      </c>
-      <c r="L51" s="4" t="s">
-        <v>278</v>
+        <v>2</v>
+      </c>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="M51" s="12" t="s">
-        <v>139</v>
+        <v>295</v>
       </c>
       <c r="P51" s="3"/>
     </row>
     <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
-        <v>1000051</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
+        <v>1000080</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>94</v>
+        <v>412</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="I52" s="4">
-        <v>1</v>
-      </c>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4" t="s">
+      <c r="I52" s="2">
+        <v>2</v>
+      </c>
+      <c r="L52" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="M52" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="P52" s="3"/>
+      <c r="M52" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
-        <v>1000052</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>350</v>
+        <v>1000031</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>93</v>
+        <v>411</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="I53" s="2">
-        <v>2</v>
-      </c>
-      <c r="J53" s="2">
-        <v>2</v>
-      </c>
-      <c r="K53" s="2">
-        <v>2</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>280</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="I53" s="4">
+        <v>2</v>
+      </c>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M53" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="P53" s="3"/>
     </row>
     <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
-        <v>1000053</v>
+        <v>1000079</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D54" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>456</v>
+        <v>412</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>93</v>
@@ -4005,167 +3990,178 @@
         <v>96</v>
       </c>
       <c r="I54" s="2">
-        <v>1</v>
-      </c>
-      <c r="J54" s="2">
-        <v>1</v>
-      </c>
-      <c r="K54" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>278</v>
+        <v>96</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
-        <v>1000054</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D55" s="2" t="s">
+        <v>1000043</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>93</v>
+        <v>411</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I55" s="2">
-        <v>3</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>387</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="I55" s="4">
+        <v>2</v>
+      </c>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="M55" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="P55" s="3"/>
     </row>
     <row r="56" spans="1:16" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
-        <v>1000055</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D56" s="6" t="s">
+        <v>1000004</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="I56" s="6">
-        <v>1</v>
-      </c>
-      <c r="L56" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="M56" s="6" t="s">
-        <v>292</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H56" s="8"/>
+      <c r="I56" s="9">
+        <v>2</v>
+      </c>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M56" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="10"/>
     </row>
     <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
-        <v>1000056</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>2</v>
+        <v>1000029</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>93</v>
+        <v>412</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I57" s="2">
-        <v>1</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
+      </c>
+      <c r="I57" s="4">
+        <v>2</v>
+      </c>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M57" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
-        <v>1000057</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>213</v>
+        <v>1000038</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>93</v>
+        <v>412</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I58" s="2">
-        <v>4</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>389</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="I58" s="4">
+        <v>2</v>
+      </c>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="M58" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="P58" s="3"/>
     </row>
     <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
-        <v>1000058</v>
+        <v>1000062</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>456</v>
+        <v>411</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>96</v>
@@ -4173,34 +4169,28 @@
       <c r="I59" s="2">
         <v>2</v>
       </c>
-      <c r="J59" s="2">
-        <v>1</v>
-      </c>
-      <c r="K59" s="2">
-        <v>1</v>
-      </c>
       <c r="L59" s="2" t="s">
-        <v>278</v>
+        <v>96</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>384</v>
+        <v>456</v>
       </c>
     </row>
     <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
-        <v>1000059</v>
+        <v>1000081</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D60" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>456</v>
+        <v>411</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>93</v>
@@ -4209,33 +4199,30 @@
         <v>96</v>
       </c>
       <c r="I60" s="2">
-        <v>3</v>
-      </c>
-      <c r="J60" s="2">
-        <v>4</v>
-      </c>
-      <c r="K60" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>280</v>
+        <v>96</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
-        <v>1000060</v>
+        <v>1000083</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D61" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>456</v>
+        <v>411</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>93</v>
@@ -4246,889 +4233,891 @@
       <c r="I61" s="2">
         <v>2</v>
       </c>
-      <c r="J61" s="2">
-        <v>2</v>
-      </c>
-      <c r="K61" s="2">
-        <v>2</v>
-      </c>
       <c r="L61" s="2" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>385</v>
+        <v>473</v>
       </c>
     </row>
     <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
-        <v>1000061</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D62" s="2" t="s">
+        <v>1000050</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F62" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>93</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I62" s="2">
-        <v>4</v>
-      </c>
-      <c r="J62" s="2">
+        <v>95</v>
+      </c>
+      <c r="I62" s="4">
         <v>3</v>
       </c>
-      <c r="K62" s="2">
+      <c r="J62" s="4">
         <v>3</v>
       </c>
-      <c r="L62" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>294</v>
-      </c>
+      <c r="K62" s="4">
+        <v>3</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="M62" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="P62" s="3"/>
     </row>
     <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
-        <v>1000062</v>
+        <v>1000107</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>218</v>
+        <v>262</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>456</v>
+        <v>412</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I63" s="2">
         <v>2</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>388</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
-        <v>1000063</v>
+        <v>1000108</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>381</v>
+        <v>181</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>382</v>
+        <v>261</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I64" s="2">
+        <v>2</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="7">
+        <v>1000109</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I65" s="2">
+        <v>2</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="7">
+        <v>1000010</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I66" s="4">
         <v>3</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I64" s="2">
+      <c r="J66" s="4">
         <v>3</v>
       </c>
-      <c r="L64" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="7">
-        <v>1000064</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D65" s="2" t="s">
+      <c r="K66" s="4">
         <v>3</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I65" s="2">
+      <c r="L66" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="M66" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="7">
+        <v>1000016</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L65" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="M65" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="7">
-        <v>1000065</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D66" s="2" t="s">
+      <c r="E67" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I67" s="4">
         <v>3</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I66" s="2">
-        <v>2</v>
-      </c>
-      <c r="J66" s="2">
+      <c r="J67" s="4">
+        <v>2</v>
+      </c>
+      <c r="K67" s="4">
+        <v>2</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="M67" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="7">
+        <v>1000017</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K66" s="2">
-        <v>1</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="7">
-        <v>1000066</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D67" s="2" t="s">
+      <c r="E68" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I68" s="4">
         <v>3</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I67" s="2">
-        <v>4</v>
-      </c>
-      <c r="J67" s="2">
-        <v>4</v>
-      </c>
-      <c r="K67" s="2">
-        <v>4</v>
-      </c>
-      <c r="L67" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="M67" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="7">
-        <v>1000067</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D68" s="2" t="s">
+      <c r="J68" s="4">
         <v>3</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="I68" s="2">
+      <c r="K68" s="4">
         <v>3</v>
       </c>
-      <c r="J68" s="2">
-        <v>2</v>
-      </c>
-      <c r="K68" s="2">
-        <v>2</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L68" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="M68" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
-        <v>1000068</v>
+        <v>1000085</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>3</v>
+        <v>210</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>456</v>
+        <v>412</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I69" s="2">
         <v>3</v>
       </c>
+      <c r="J69" s="2">
+        <v>3</v>
+      </c>
+      <c r="K69" s="2">
+        <v>3</v>
+      </c>
       <c r="L69" s="2" t="s">
-        <v>97</v>
+        <v>249</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
-        <v>1000069</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>224</v>
+        <v>1000018</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>93</v>
+        <v>411</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I70" s="2">
-        <v>6</v>
-      </c>
-      <c r="J70" s="2">
-        <v>6</v>
-      </c>
-      <c r="K70" s="2">
-        <v>6</v>
-      </c>
-      <c r="L70" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="I70" s="4">
+        <v>3</v>
+      </c>
+      <c r="J70" s="4">
+        <v>2</v>
+      </c>
+      <c r="K70" s="4">
+        <v>1</v>
+      </c>
+      <c r="L70" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="M70" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
-        <v>1000070</v>
+        <v>1000059</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>456</v>
+        <v>411</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="I71" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J71" s="2">
         <v>4</v>
       </c>
       <c r="K71" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="M71" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
-        <v>1000071</v>
+        <v>1000067</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>456</v>
+        <v>412</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="I72" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J72" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K72" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
-        <v>1000072</v>
+        <v>1000086</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D73" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>456</v>
+        <v>412</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>348</v>
+        <v>95</v>
       </c>
       <c r="I73" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J73" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K73" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
-        <v>1000073</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D74" s="2" t="s">
+        <v>1000036</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F74" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F74" s="4" t="s">
         <v>93</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="I74" s="2">
-        <v>4</v>
-      </c>
-      <c r="L74" s="2" t="s">
+      <c r="I74" s="4">
+        <v>3</v>
+      </c>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="M74" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M74" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
-        <v>1000074</v>
+        <v>1000112</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>373</v>
+        <v>226</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I75" s="2">
         <v>3</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F75" s="2" t="s">
+      <c r="J75" s="2">
+        <v>3</v>
+      </c>
+      <c r="K75" s="2">
+        <v>3</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="7">
+        <v>1000012</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I76" s="4">
+        <v>3</v>
+      </c>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="M76" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="7">
+        <v>1000077</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I75" s="2">
-        <v>6</v>
-      </c>
-      <c r="J75" s="2">
-        <v>6</v>
-      </c>
-      <c r="K75" s="2">
-        <v>6</v>
-      </c>
-      <c r="L75" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="M75" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="7">
-        <v>1000075</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I76" s="2">
-        <v>1</v>
-      </c>
-      <c r="J76" s="2">
-        <v>1</v>
-      </c>
-      <c r="K76" s="2">
-        <v>1</v>
-      </c>
-      <c r="L76" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="M76" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="7">
-        <v>1000076</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>96</v>
       </c>
       <c r="I77" s="2">
-        <v>1</v>
-      </c>
-      <c r="J77" s="2">
-        <v>1</v>
-      </c>
-      <c r="K77" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>278</v>
+        <v>96</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
-        <v>1000077</v>
+        <v>1000063</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>144</v>
+        <v>344</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>232</v>
+        <v>345</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>456</v>
+        <v>412</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>97</v>
       </c>
       <c r="I78" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>97</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
-        <v>1000078</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D79" s="2" t="s">
+        <v>1000040</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>94</v>
+        <v>411</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I79" s="2">
-        <v>2</v>
-      </c>
-      <c r="J79" s="2">
-        <v>1</v>
-      </c>
-      <c r="K79" s="2">
-        <v>1</v>
-      </c>
-      <c r="L79" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="M79" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I79" s="4">
+        <v>3</v>
+      </c>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="M79" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="P79" s="3"/>
+    </row>
+    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
-        <v>1000079</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D80" s="2" t="s">
+        <v>1000003</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D80" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F80" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H80" s="7"/>
+      <c r="I80" s="9">
+        <v>3</v>
+      </c>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M80" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="10"/>
+    </row>
+    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="7">
+        <v>1000034</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I81" s="4">
+        <v>3</v>
+      </c>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M81" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="7">
+        <v>1000048</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I82" s="4">
+        <v>3</v>
+      </c>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="M82" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83" s="7">
+        <v>1000041</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F83" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I80" s="2">
-        <v>2</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="7">
-        <v>1000080</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I81" s="2">
-        <v>2</v>
-      </c>
-      <c r="L81" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M81" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="7">
-        <v>1000081</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D82" s="2" t="s">
+      <c r="G83" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I83" s="4">
         <v>3</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I82" s="2">
-        <v>2</v>
-      </c>
-      <c r="L82" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="M82" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="7">
-        <v>1000082</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I83" s="2">
-        <v>6</v>
-      </c>
-      <c r="L83" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="M83" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="M83" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
-        <v>1000083</v>
+        <v>1000054</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="D84" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>456</v>
+        <v>411</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I84" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
-        <v>1000084</v>
+        <v>1000064</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>245</v>
+        <v>191</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>456</v>
+        <v>412</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>96</v>
       </c>
       <c r="I85" s="2">
-        <v>8</v>
-      </c>
-      <c r="J85" s="2">
-        <v>4</v>
-      </c>
-      <c r="K85" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>278</v>
+        <v>96</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
-        <v>1000085</v>
+        <v>1000068</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>456</v>
+        <v>412</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>96</v>
@@ -5136,37 +5125,31 @@
       <c r="I86" s="2">
         <v>3</v>
       </c>
-      <c r="J86" s="2">
-        <v>3</v>
-      </c>
-      <c r="K86" s="2">
-        <v>3</v>
-      </c>
       <c r="L86" s="2" t="s">
-        <v>278</v>
+        <v>96</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
-        <v>1000086</v>
+        <v>1000088</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D87" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D87" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>456</v>
+        <v>412</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>96</v>
@@ -5174,387 +5157,402 @@
       <c r="I87" s="2">
         <v>3</v>
       </c>
-      <c r="J87" s="2">
-        <v>4</v>
-      </c>
-      <c r="K87" s="2">
-        <v>4</v>
-      </c>
       <c r="L87" s="2" t="s">
-        <v>278</v>
+        <v>96</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
-        <v>1000087</v>
+        <v>1000089</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>3</v>
+        <v>215</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>96</v>
       </c>
       <c r="I88" s="2">
-        <v>7</v>
-      </c>
-      <c r="J88" s="2">
         <v>3</v>
       </c>
-      <c r="K88" s="2">
-        <v>3</v>
-      </c>
       <c r="L88" s="2" t="s">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
-        <v>1000088</v>
+        <v>1000116</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>167</v>
+        <v>234</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>94</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I89" s="2">
         <v>3</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
-        <v>1000089</v>
+        <v>1000092</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>3</v>
+        <v>219</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I90" s="2">
         <v>3</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
-        <v>1000090</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D91" s="2" t="s">
+        <v>1000001</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>94</v>
+        <v>411</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I91" s="2">
+        <v>95</v>
+      </c>
+      <c r="I91" s="4">
         <v>4</v>
       </c>
-      <c r="L91" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="M91" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J91" s="4">
+        <v>0</v>
+      </c>
+      <c r="K91" s="4">
+        <v>0</v>
+      </c>
+      <c r="L91" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="M91" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
-        <v>1000091</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D92" s="2" t="s">
+        <v>1000020</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I92" s="4">
+        <v>4</v>
+      </c>
+      <c r="J92" s="4">
+        <v>2</v>
+      </c>
+      <c r="K92" s="4">
+        <v>6</v>
+      </c>
+      <c r="L92" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="M92" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="7">
+        <v>1000044</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D93" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E92" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I92" s="2">
+      <c r="E93" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I93" s="4">
         <v>4</v>
       </c>
-      <c r="L92" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="M92" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="7">
-        <v>1000092</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D93" s="2" t="s">
+      <c r="J93" s="4">
         <v>3</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I93" s="2">
-        <v>5</v>
-      </c>
-      <c r="L93" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="M93" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K93" s="4">
+        <v>3</v>
+      </c>
+      <c r="L93" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="M93" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
-        <v>1000093</v>
+        <v>1000061</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>248</v>
+        <v>189</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I94" s="2">
+        <v>4</v>
+      </c>
+      <c r="J94" s="2">
         <v>3</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I94" s="2">
-        <v>6</v>
+      <c r="K94" s="2">
+        <v>3</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>97</v>
+        <v>249</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
-        <v>1000094</v>
+        <v>1000066</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>179</v>
+        <v>112</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I95" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J95" s="2">
         <v>3</v>
       </c>
       <c r="K95" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
-        <v>1000095</v>
+        <v>1000070</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>183</v>
+        <v>116</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>266</v>
+        <v>197</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="F96" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G96" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="I96" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J96" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K96" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
-        <v>1000096</v>
+        <v>1000071</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="F97" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G97" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="I97" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J97" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K97" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
-        <v>1000097</v>
+        <v>1000098</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="F98" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G98" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="I98" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J98" s="2">
         <v>1</v>
@@ -5563,1118 +5561,1118 @@
         <v>1</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
-        <v>1000098</v>
+        <v>1000113</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="F99" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="I99" s="2">
         <v>4</v>
       </c>
       <c r="J99" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K99" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
-        <v>1000099</v>
+        <v>1000057</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>191</v>
+        <v>105</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>270</v>
+        <v>185</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>97</v>
       </c>
       <c r="I100" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L100" s="2" t="s">
         <v>97</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
-        <v>1000100</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>2</v>
+        <v>1000039</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>95</v>
+        <v>412</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I101" s="2">
+        <v>96</v>
+      </c>
+      <c r="I101" s="4">
+        <v>4</v>
+      </c>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="M101" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="7">
+        <v>1000042</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I102" s="4">
+        <v>4</v>
+      </c>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="M102" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="P102" s="3"/>
+    </row>
+    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="7">
+        <v>1000127</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L101" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="M101" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="7">
-        <v>1000101</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I102" s="2">
-        <v>1</v>
-      </c>
-      <c r="L102" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M102" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="7">
-        <v>1000102</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="E103" s="2" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I103" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7">
-        <v>1000103</v>
+        <v>1000073</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>274</v>
+        <v>200</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>96</v>
       </c>
       <c r="I104" s="2">
-        <v>2</v>
-      </c>
-      <c r="J104" s="2">
-        <v>2</v>
-      </c>
-      <c r="K104" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
-        <v>1000104</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D105" s="2" t="s">
+        <v>1000022</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D105" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="F105" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G105" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I105" s="2">
-        <v>6</v>
-      </c>
-      <c r="J105" s="2">
-        <v>1</v>
-      </c>
-      <c r="K105" s="2">
-        <v>1</v>
-      </c>
-      <c r="L105" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="M105" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I105" s="4">
+        <v>4</v>
+      </c>
+      <c r="J105" s="4">
+        <v>2</v>
+      </c>
+      <c r="K105" s="4">
+        <v>4</v>
+      </c>
+      <c r="L105" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="M105" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="P105" s="3"/>
+    </row>
+    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7">
-        <v>1000105</v>
+        <v>1000090</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>3</v>
+        <v>216</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>96</v>
       </c>
       <c r="I106" s="2">
-        <v>2</v>
-      </c>
-      <c r="J106" s="2">
-        <v>1</v>
-      </c>
-      <c r="K106" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>278</v>
+        <v>96</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
-        <v>1000106</v>
+        <v>1000091</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>204</v>
+        <v>152</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>3</v>
+        <v>218</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>96</v>
       </c>
       <c r="I107" s="2">
-        <v>2</v>
-      </c>
-      <c r="J107" s="2">
-        <v>2</v>
-      </c>
-      <c r="K107" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>278</v>
+        <v>96</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7">
-        <v>1000107</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D108" s="2" t="s">
+        <v>1000047</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="D108" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="F108" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G108" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I108" s="2">
-        <v>2</v>
-      </c>
-      <c r="L108" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="M108" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I108" s="4">
+        <v>5</v>
+      </c>
+      <c r="J108" s="4">
+        <v>3</v>
+      </c>
+      <c r="K108" s="4">
+        <v>6</v>
+      </c>
+      <c r="L108" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="M108" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="P108" s="3"/>
+    </row>
+    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
-        <v>1000108</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D109" s="2" t="s">
+        <v>1000026</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D109" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="F109" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G109" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I109" s="2">
-        <v>2</v>
-      </c>
-      <c r="L109" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="M109" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H109" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="I109" s="4">
+        <v>5</v>
+      </c>
+      <c r="J109" s="4">
+        <v>5</v>
+      </c>
+      <c r="K109" s="4">
+        <v>5</v>
+      </c>
+      <c r="L109" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="M109" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="P109" s="3"/>
+    </row>
+    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
-        <v>1000109</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>2</v>
+        <v>1000021</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="F110" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G110" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I110" s="2">
-        <v>2</v>
-      </c>
-      <c r="L110" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="M110" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I110" s="4">
+        <v>5</v>
+      </c>
+      <c r="J110" s="4">
+        <v>3</v>
+      </c>
+      <c r="K110" s="4">
+        <v>3</v>
+      </c>
+      <c r="L110" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="M110" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="P110" s="3"/>
+    </row>
+    <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
-        <v>1000110</v>
-      </c>
-      <c r="B111" s="2" t="s">
+        <v>1000024</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I111" s="4">
+        <v>5</v>
+      </c>
+      <c r="J111" s="4">
+        <v>4</v>
+      </c>
+      <c r="K111" s="4">
+        <v>4</v>
+      </c>
+      <c r="L111" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="M111" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="P111" s="3"/>
+    </row>
+    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="7">
+        <v>1000025</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I112" s="4">
+        <v>5</v>
+      </c>
+      <c r="J112" s="4">
+        <v>5</v>
+      </c>
+      <c r="K112" s="4">
+        <v>5</v>
+      </c>
+      <c r="L112" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I111" s="2">
-        <v>7</v>
-      </c>
-      <c r="J111" s="2">
-        <v>2</v>
-      </c>
-      <c r="K111" s="2">
-        <v>2</v>
-      </c>
-      <c r="L111" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="M111" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="7">
-        <v>1000111</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I112" s="2">
-        <v>5</v>
-      </c>
-      <c r="L112" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="M112" s="2" t="s">
-        <v>285</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="P112" s="3"/>
     </row>
     <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
-        <v>1000112</v>
+        <v>1000133</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>255</v>
+        <v>335</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="F113" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G113" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="I113" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J113" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K113" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>256</v>
+        <v>461</v>
       </c>
     </row>
     <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
-        <v>1000113</v>
+        <v>1000134</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>257</v>
+        <v>339</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="F114" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G114" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="I114" s="2">
+        <v>5</v>
+      </c>
+      <c r="J114" s="2">
         <v>4</v>
       </c>
-      <c r="J114" s="2">
-        <v>2</v>
-      </c>
       <c r="K114" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
-        <v>1000114</v>
+        <v>1000111</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I115" s="2">
-        <v>8</v>
-      </c>
-      <c r="J115" s="2">
-        <v>2</v>
-      </c>
-      <c r="K115" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>278</v>
+        <v>97</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
         <v>1000115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I116" s="2">
         <v>5</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
     </row>
     <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
-        <v>1000116</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>1</v>
+        <v>1000045</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>95</v>
+        <v>411</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I117" s="2">
-        <v>3</v>
-      </c>
-      <c r="L117" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="M117" s="2" t="s">
-        <v>286</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="I117" s="4">
+        <v>5</v>
+      </c>
+      <c r="J117" s="4"/>
+      <c r="K117" s="4"/>
+      <c r="L117" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="M117" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="P117" s="3"/>
     </row>
     <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7">
-        <v>1000117</v>
+        <v>1000082</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>264</v>
+        <v>139</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>3</v>
+        <v>211</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>96</v>
       </c>
       <c r="I118" s="2">
-        <v>6</v>
-      </c>
-      <c r="J118" s="2">
-        <v>3</v>
-      </c>
-      <c r="K118" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>281</v>
+        <v>96</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
-        <v>1000019</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C119" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>2</v>
+        <v>1000135</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F119" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F119" s="2" t="s">
         <v>92</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I119" s="4">
-        <v>6</v>
-      </c>
-      <c r="J119" s="4">
-        <v>6</v>
-      </c>
-      <c r="K119" s="4">
+      <c r="I119" s="2">
         <v>5</v>
       </c>
-      <c r="L119" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="M119" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="P119" s="3"/>
+      <c r="L119" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="7">
+        <v>1000104</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I120" s="2">
+        <v>6</v>
+      </c>
+      <c r="J120" s="2">
+        <v>1</v>
+      </c>
+      <c r="K120" s="2">
+        <v>1</v>
+      </c>
+      <c r="L120" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M120" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A121" s="7">
+        <v>1000117</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I121" s="2">
+        <v>6</v>
+      </c>
+      <c r="J121" s="2">
+        <v>3</v>
+      </c>
+      <c r="K121" s="2">
+        <v>3</v>
+      </c>
+      <c r="L121" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="M121" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="7">
+        <v>1000019</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I122" s="4">
+        <v>6</v>
+      </c>
+      <c r="J122" s="4">
+        <v>6</v>
+      </c>
+      <c r="K122" s="4">
+        <v>5</v>
+      </c>
+      <c r="L122" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="M122" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="P122" s="3"/>
+    </row>
+    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="7">
         <v>1000027</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B123" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C120" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I120" s="4">
+      <c r="C123" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I123" s="4">
         <v>6</v>
       </c>
-      <c r="J120" s="4">
+      <c r="J123" s="4">
         <v>6</v>
       </c>
-      <c r="K120" s="4">
+      <c r="K123" s="4">
         <v>6</v>
       </c>
-      <c r="L120" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="M120" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="P120" s="3"/>
-    </row>
-    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="7">
-        <v>1000120</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I121" s="2">
-        <v>7</v>
-      </c>
-      <c r="J121" s="2">
-        <v>9</v>
-      </c>
-      <c r="K121" s="2">
-        <v>9</v>
-      </c>
-      <c r="L121" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="M121" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A122" s="7">
-        <v>1000121</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I122" s="2">
-        <v>7</v>
-      </c>
-      <c r="J122" s="2">
-        <v>7</v>
-      </c>
-      <c r="K122" s="2">
-        <v>7</v>
-      </c>
-      <c r="L122" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="M122" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A123" s="7">
-        <v>1000122</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I123" s="2">
-        <v>8</v>
-      </c>
-      <c r="J123" s="2">
-        <v>4</v>
-      </c>
-      <c r="K123" s="2">
-        <v>12</v>
-      </c>
-      <c r="L123" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="M123" s="2" t="s">
-        <v>472</v>
-      </c>
+      <c r="L123" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="M123" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="P123" s="3"/>
     </row>
     <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7">
-        <v>1000021</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C124" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>3</v>
+        <v>1000069</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="F124" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="F124" s="2" t="s">
         <v>92</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I124" s="4">
-        <v>5</v>
-      </c>
-      <c r="J124" s="4">
-        <v>3</v>
-      </c>
-      <c r="K124" s="4">
-        <v>3</v>
-      </c>
-      <c r="L124" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="M124" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="P124" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="I124" s="2">
+        <v>6</v>
+      </c>
+      <c r="J124" s="2">
+        <v>6</v>
+      </c>
+      <c r="K124" s="2">
+        <v>6</v>
+      </c>
+      <c r="L124" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="M124" s="2" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="7">
-        <v>1000024</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C125" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>102</v>
+        <v>1000074</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="F125" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="F125" s="2" t="s">
         <v>92</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I125" s="4">
+        <v>95</v>
+      </c>
+      <c r="I125" s="2">
+        <v>6</v>
+      </c>
+      <c r="J125" s="2">
         <v>5</v>
       </c>
-      <c r="J125" s="4">
-        <v>4</v>
-      </c>
-      <c r="K125" s="4">
-        <v>4</v>
-      </c>
-      <c r="L125" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="M125" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="P125" s="3"/>
+      <c r="K125" s="2">
+        <v>5</v>
+      </c>
+      <c r="L125" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M125" s="2" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="7">
-        <v>1000005</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C126" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>1</v>
+        <v>1000094</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>92</v>
+        <v>411</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I126" s="4">
-        <v>2</v>
-      </c>
-      <c r="J126" s="4">
-        <v>2</v>
-      </c>
-      <c r="K126" s="4">
-        <v>2</v>
-      </c>
-      <c r="L126" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="M126" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="P126" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
+      </c>
+      <c r="I126" s="2">
+        <v>6</v>
+      </c>
+      <c r="J126" s="2">
+        <v>7</v>
+      </c>
+      <c r="K126" s="2">
+        <v>4</v>
+      </c>
+      <c r="L126" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M126" s="2" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="7">
-        <v>1000013</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C127" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>1</v>
+        <v>1000093</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>92</v>
+        <v>411</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I127" s="4">
-        <v>2</v>
-      </c>
-      <c r="J127" s="4">
-        <v>1</v>
-      </c>
-      <c r="K127" s="4">
-        <v>1</v>
-      </c>
-      <c r="L127" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="M127" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="P127" s="3"/>
+      <c r="I127" s="2">
+        <v>6</v>
+      </c>
+      <c r="L127" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M127" s="2" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="7">
-        <v>1000046</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C128" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>3</v>
+        <v>1000087</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>92</v>
+        <v>411</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I128" s="4">
-        <v>1</v>
-      </c>
-      <c r="J128" s="4"/>
-      <c r="K128" s="4"/>
-      <c r="L128" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="M128" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="P128" s="3"/>
-    </row>
-    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="I128" s="2">
+        <v>7</v>
+      </c>
+      <c r="J128" s="2">
+        <v>7</v>
+      </c>
+      <c r="K128" s="2">
+        <v>7</v>
+      </c>
+      <c r="L128" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="M128" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
-        <v>1000128</v>
+        <v>1000110</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>351</v>
+        <v>224</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>352</v>
+        <v>267</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I129" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J129" s="2">
         <v>2</v>
@@ -6683,311 +6681,323 @@
         <v>2</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>280</v>
+        <v>249</v>
+      </c>
+      <c r="M129" s="2" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7">
-        <v>1000129</v>
+        <v>1000120</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>353</v>
+        <v>286</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>354</v>
+        <v>287</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I130" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J130" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K130" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
     </row>
     <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="7">
-        <v>1000130</v>
+        <v>1000121</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>356</v>
+        <v>288</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>357</v>
+        <v>289</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>365</v>
+        <v>95</v>
       </c>
       <c r="I131" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J131" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K131" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>358</v>
+        <v>426</v>
       </c>
     </row>
     <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="7">
-        <v>1000131</v>
+        <v>1000072</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>360</v>
+        <v>119</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>361</v>
+        <v>199</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="I132" s="2">
         <v>7</v>
       </c>
       <c r="J132" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K132" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>362</v>
+        <v>334</v>
       </c>
     </row>
     <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7">
-        <v>1000132</v>
+        <v>1000131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>364</v>
+        <v>329</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I133" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J133" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K133" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>280</v>
+        <v>253</v>
+      </c>
+      <c r="M133" s="2" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="7">
-        <v>1000133</v>
+        <v>1000084</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>368</v>
+        <v>141</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>3</v>
+        <v>217</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I134" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J134" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K134" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="7">
-        <v>1000134</v>
+        <v>1000114</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>376</v>
+        <v>230</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>375</v>
+        <v>271</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I135" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J135" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K135" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>377</v>
+        <v>231</v>
       </c>
     </row>
     <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7">
-        <v>1000135</v>
+        <v>1000122</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>378</v>
+        <v>290</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>379</v>
+        <v>291</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I136" s="2">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="J136" s="2">
+        <v>4</v>
+      </c>
+      <c r="K136" s="2">
+        <v>12</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>97</v>
+        <v>249</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>396</v>
+        <v>427</v>
       </c>
     </row>
     <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="7">
-        <v>1000136</v>
+        <v>1000130</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>393</v>
+        <v>325</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>394</v>
+        <v>326</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>332</v>
       </c>
       <c r="I137" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J137" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K137" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>280</v>
+        <v>249</v>
+      </c>
+      <c r="M137" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -11314,11 +11324,12 @@
     </filterColumn>
     <filterColumn colId="5">
       <filters>
-        <filter val="Blue"/>
+        <filter val="White"/>
       </filters>
     </filterColumn>
-    <sortState ref="A4:P125">
-      <sortCondition ref="E1:E1000"/>
+    <sortState ref="A19:P135">
+      <sortCondition ref="I2:I1000"/>
+      <sortCondition ref="G2:G1000"/>
     </sortState>
   </autoFilter>
   <sortState ref="A2:R128">
@@ -11348,54 +11359,54 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
         <v>92</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>93</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>94</v>
       </c>
-      <c r="E1" t="s">
-        <v>95</v>
-      </c>
       <c r="F1" t="s">
-        <v>417</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>418</v>
+        <v>373</v>
       </c>
       <c r="B2" t="s">
-        <v>422</v>
+        <v>377</v>
       </c>
       <c r="C2" t="s">
-        <v>424</v>
+        <v>379</v>
       </c>
       <c r="D2" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="E2" t="s">
-        <v>426</v>
+        <v>381</v>
       </c>
       <c r="F2" t="s">
-        <v>423</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>419</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>420</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>421</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -11420,16 +11431,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>402</v>
+        <v>357</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>406</v>
+        <v>361</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>404</v>
+        <v>359</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>413</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -11437,13 +11448,13 @@
         <v>2000001</v>
       </c>
       <c r="B2" t="s">
-        <v>417</v>
+        <v>372</v>
       </c>
       <c r="C2" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="D2" t="s">
-        <v>430</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -11451,13 +11462,13 @@
         <v>2000002</v>
       </c>
       <c r="B3" t="s">
-        <v>417</v>
+        <v>372</v>
       </c>
       <c r="C3" t="s">
-        <v>432</v>
+        <v>387</v>
       </c>
       <c r="D3" t="s">
-        <v>433</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -11465,13 +11476,13 @@
         <v>2000003</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>434</v>
+        <v>389</v>
       </c>
       <c r="D4" t="s">
-        <v>435</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -11479,13 +11490,13 @@
         <v>2000004</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="D5" t="s">
-        <v>473</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -11493,13 +11504,13 @@
         <v>2000005</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="D6" t="s">
-        <v>474</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -11507,13 +11518,13 @@
         <v>2000006</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>438</v>
+        <v>393</v>
       </c>
       <c r="D7" t="s">
-        <v>437</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -11521,13 +11532,13 @@
         <v>2000007</v>
       </c>
       <c r="B8" t="s">
-        <v>417</v>
+        <v>372</v>
       </c>
       <c r="C8" t="s">
-        <v>444</v>
+        <v>399</v>
       </c>
       <c r="D8" t="s">
-        <v>445</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -11535,13 +11546,13 @@
         <v>2000008</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>447</v>
+        <v>402</v>
       </c>
       <c r="D9" t="s">
-        <v>475</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -11549,13 +11560,13 @@
         <v>2000009</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>449</v>
+        <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>450</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -11563,13 +11574,13 @@
         <v>2000010</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>451</v>
+        <v>406</v>
       </c>
       <c r="D11" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -11577,13 +11588,13 @@
         <v>2000011</v>
       </c>
       <c r="B12" t="s">
-        <v>417</v>
+        <v>372</v>
       </c>
       <c r="C12" t="s">
-        <v>453</v>
+        <v>408</v>
       </c>
       <c r="D12" t="s">
-        <v>454</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -11591,13 +11602,13 @@
         <v>2000012</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="D13" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -11605,13 +11616,13 @@
         <v>2000013</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>479</v>
+        <v>434</v>
       </c>
       <c r="D14" t="s">
-        <v>480</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -11619,13 +11630,13 @@
         <v>2000014</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>481</v>
+        <v>436</v>
       </c>
       <c r="D15" t="s">
-        <v>482</v>
+        <v>437</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -11633,13 +11644,13 @@
         <v>2000015</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>483</v>
+        <v>438</v>
       </c>
       <c r="D16" t="s">
-        <v>484</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -11647,13 +11658,13 @@
         <v>2000016</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>485</v>
+        <v>440</v>
       </c>
       <c r="D17" t="s">
-        <v>486</v>
+        <v>441</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -11661,13 +11672,13 @@
         <v>2000017</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>487</v>
+        <v>442</v>
       </c>
       <c r="D18" t="s">
-        <v>488</v>
+        <v>443</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -11675,13 +11686,13 @@
         <v>2000018</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>489</v>
+        <v>444</v>
       </c>
       <c r="D19" t="s">
-        <v>490</v>
+        <v>445</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -11689,13 +11700,13 @@
         <v>2000019</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>491</v>
+        <v>446</v>
       </c>
       <c r="D20" t="s">
-        <v>492</v>
+        <v>447</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -11703,13 +11714,13 @@
         <v>2000020</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
-        <v>493</v>
+        <v>448</v>
       </c>
       <c r="D21" t="s">
-        <v>494</v>
+        <v>449</v>
       </c>
     </row>
     <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -12145,7 +12156,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12159,22 +12170,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>95</v>
-      </c>
       <c r="F1" s="15" t="s">
-        <v>458</v>
+        <v>413</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>456</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -12186,16 +12197,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="5">
-        <f>COUNTIFS(Card!$I:$I,"="&amp;$A2,Card!$F:$F,"="&amp;C$1)</f>
-        <v>8</v>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A2,Card!$F:$F,"="&amp;C$1,Card!$E:$E,"="&amp;$H$1)</f>
+        <v>4</v>
       </c>
       <c r="D2" s="5">
-        <f>COUNTIFS(Card!$I:$I,"="&amp;$A2,Card!$F:$F,"="&amp;D$1)</f>
-        <v>7</v>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A2,Card!$F:$F,"="&amp;D$1,Card!$E:$E,"="&amp;$H$1)</f>
+        <v>4</v>
       </c>
       <c r="E2" s="5">
-        <f>COUNTIFS(Card!$I:$I,"="&amp;$A2,Card!$F:$F,"="&amp;E$1)</f>
-        <v>8</v>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A2,Card!$F:$F,"="&amp;E$1,Card!$E:$E,"="&amp;$H$1)</f>
+        <v>4</v>
       </c>
       <c r="F2" s="5">
         <v>4</v>
@@ -12210,16 +12221,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="5">
-        <f>COUNTIFS(Card!$I:$I,"="&amp;$A3,Card!$F:$F,"="&amp;C$1)</f>
-        <v>6</v>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A3,Card!$F:$F,"="&amp;C$1,Card!$E:$E,"="&amp;$H$1)</f>
+        <v>4</v>
       </c>
       <c r="D3" s="5">
-        <f>COUNTIFS(Card!$I:$I,"="&amp;$A3,Card!$F:$F,"="&amp;D$1)</f>
-        <v>9</v>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A3,Card!$F:$F,"="&amp;D$1,Card!$E:$E,"="&amp;$H$1)</f>
+        <v>4</v>
       </c>
       <c r="E3" s="5">
-        <f>COUNTIFS(Card!$I:$I,"="&amp;$A3,Card!$F:$F,"="&amp;E$1)</f>
-        <v>7</v>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A3,Card!$F:$F,"="&amp;E$1,Card!$E:$E,"="&amp;$H$1)</f>
+        <v>4</v>
       </c>
       <c r="F3" s="5">
         <v>4</v>
@@ -12234,15 +12245,15 @@
         <v>3</v>
       </c>
       <c r="C4" s="5">
-        <f>COUNTIFS(Card!$I:$I,"="&amp;$A4,Card!$F:$F,"="&amp;C$1)</f>
-        <v>7</v>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A4,Card!$F:$F,"="&amp;C$1,Card!$E:$E,"="&amp;$H$1)</f>
+        <v>3</v>
       </c>
       <c r="D4" s="5">
-        <f>COUNTIFS(Card!$I:$I,"="&amp;$A4,Card!$F:$F,"="&amp;D$1)</f>
-        <v>7</v>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A4,Card!$F:$F,"="&amp;D$1,Card!$E:$E,"="&amp;$H$1)</f>
+        <v>3</v>
       </c>
       <c r="E4" s="5">
-        <f>COUNTIFS(Card!$I:$I,"="&amp;$A4,Card!$F:$F,"="&amp;E$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A4,Card!$F:$F,"="&amp;E$1,Card!$E:$E,"="&amp;$H$1)</f>
         <v>3</v>
       </c>
       <c r="F4" s="5">
@@ -12258,15 +12269,15 @@
         <v>3</v>
       </c>
       <c r="C5" s="5">
-        <f>COUNTIFS(Card!$I:$I,"="&amp;$A5,Card!$F:$F,"="&amp;C$1)</f>
-        <v>6</v>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A5,Card!$F:$F,"="&amp;C$1,Card!$E:$E,"="&amp;$H$1)</f>
+        <v>3</v>
       </c>
       <c r="D5" s="5">
-        <f>COUNTIFS(Card!$I:$I,"="&amp;$A5,Card!$F:$F,"="&amp;D$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A5,Card!$F:$F,"="&amp;D$1,Card!$E:$E,"="&amp;$H$1)</f>
         <v>3</v>
       </c>
       <c r="E5" s="5">
-        <f>COUNTIFS(Card!$I:$I,"="&amp;$A5,Card!$F:$F,"="&amp;E$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A5,Card!$F:$F,"="&amp;E$1,Card!$E:$E,"="&amp;$H$1)</f>
         <v>2</v>
       </c>
       <c r="F5" s="5">
@@ -12282,15 +12293,15 @@
         <v>2</v>
       </c>
       <c r="C6" s="5">
-        <f>COUNTIFS(Card!$I:$I,"="&amp;$A6,Card!$F:$F,"="&amp;C$1)</f>
-        <v>4</v>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A6,Card!$F:$F,"="&amp;C$1,Card!$E:$E,"="&amp;$H$1)</f>
+        <v>2</v>
       </c>
       <c r="D6" s="5">
-        <f>COUNTIFS(Card!$I:$I,"="&amp;$A6,Card!$F:$F,"="&amp;D$1)</f>
-        <v>3</v>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A6,Card!$F:$F,"="&amp;D$1,Card!$E:$E,"="&amp;$H$1)</f>
+        <v>2</v>
       </c>
       <c r="E6" s="5">
-        <f>COUNTIFS(Card!$I:$I,"="&amp;$A6,Card!$F:$F,"="&amp;E$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A6,Card!$F:$F,"="&amp;E$1,Card!$E:$E,"="&amp;$H$1)</f>
         <v>2</v>
       </c>
       <c r="F6" s="5">
@@ -12306,15 +12317,15 @@
         <v>2</v>
       </c>
       <c r="C7" s="5">
-        <f>COUNTIFS(Card!$I:$I,"="&amp;$A7,Card!$F:$F,"="&amp;C$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A7,Card!$F:$F,"="&amp;C$1,Card!$E:$E,"="&amp;$H$1)</f>
         <v>2</v>
       </c>
       <c r="D7" s="5">
-        <f>COUNTIFS(Card!$I:$I,"="&amp;$A7,Card!$F:$F,"="&amp;D$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A7,Card!$F:$F,"="&amp;D$1,Card!$E:$E,"="&amp;$H$1)</f>
         <v>2</v>
       </c>
       <c r="E7" s="5">
-        <f>COUNTIFS(Card!$I:$I,"="&amp;$A7,Card!$F:$F,"="&amp;E$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A7,Card!$F:$F,"="&amp;E$1,Card!$E:$E,"="&amp;$H$1)</f>
         <v>2</v>
       </c>
       <c r="F7" s="5">
@@ -12330,15 +12341,15 @@
         <v>1</v>
       </c>
       <c r="C8" s="5">
-        <f>COUNTIFS(Card!$I:$I,"="&amp;$A8,Card!$F:$F,"="&amp;C$1)</f>
-        <v>2</v>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A8,Card!$F:$F,"="&amp;C$1,Card!$E:$E,"="&amp;$H$1)</f>
+        <v>1</v>
       </c>
       <c r="D8" s="5">
-        <f>COUNTIFS(Card!$I:$I,"="&amp;$A8,Card!$F:$F,"="&amp;D$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A8,Card!$F:$F,"="&amp;D$1,Card!$E:$E,"="&amp;$H$1)</f>
         <v>1</v>
       </c>
       <c r="E8" s="5">
-        <f>COUNTIFS(Card!$I:$I,"="&amp;$A8,Card!$F:$F,"="&amp;E$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A8,Card!$F:$F,"="&amp;E$1,Card!$E:$E,"="&amp;$H$1)</f>
         <v>1</v>
       </c>
       <c r="F8" s="5">
@@ -12354,15 +12365,15 @@
         <v>1</v>
       </c>
       <c r="C9" s="5">
-        <f>COUNTIFS(Card!$I:$I,"="&amp;$A9,Card!$F:$F,"="&amp;C$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A9,Card!$F:$F,"="&amp;C$1,Card!$E:$E,"="&amp;$H$1)</f>
         <v>1</v>
       </c>
       <c r="D9" s="5">
-        <f>COUNTIFS(Card!$I:$I,"="&amp;$A9,Card!$F:$F,"="&amp;D$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A9,Card!$F:$F,"="&amp;D$1,Card!$E:$E,"="&amp;$H$1)</f>
         <v>1</v>
       </c>
       <c r="E9" s="5">
-        <f>COUNTIFS(Card!$I:$I,"="&amp;$A9,Card!$F:$F,"="&amp;E$1)</f>
+        <f>COUNTIFS(Card!$I:$I,"="&amp;$A9,Card!$F:$F,"="&amp;E$1,Card!$E:$E,"="&amp;$H$1)</f>
         <v>1</v>
       </c>
       <c r="F9" s="5">
@@ -12371,7 +12382,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>459</v>
+        <v>414</v>
       </c>
       <c r="B10" s="15">
         <f>SUM(B2:B9)</f>
@@ -12379,15 +12390,15 @@
       </c>
       <c r="C10" s="15">
         <f>SUM(C2:C9)</f>
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D10" s="15">
         <f>SUM(D2:D9)</f>
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E10" s="15">
         <f>SUM(E2:E9)</f>
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F10" s="15">
         <f>SUM(F2:F9)</f>

--- a/design/conflux.xlsx
+++ b/design/conflux.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shlsun\Documents\Projects\ProjectConflux\design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ProjectConflux\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="498">
   <si>
     <t>Cost</t>
   </si>
@@ -116,9 +116,6 @@
     <t>占卜</t>
   </si>
   <si>
-    <t>神秘幻象</t>
-  </si>
-  <si>
     <t>无尽之泉</t>
   </si>
   <si>
@@ -551,9 +548,6 @@
     <t>虚幻武士</t>
   </si>
   <si>
-    <t>* 虚幻武士位于白色卡槽时, 无法被防御</t>
-  </si>
-  <si>
     <t>天空之墙</t>
   </si>
   <si>
@@ -698,9 +692,6 @@
     <t>佯攻</t>
   </si>
   <si>
-    <t>* 先攻: 进攻时, 你首先对敌人造成伤害并结算, 然后敌人对你造成伤害并结算</t>
-  </si>
-  <si>
     <t>空气之刃</t>
   </si>
   <si>
@@ -710,9 +701,6 @@
     <t>气旋舞者</t>
   </si>
   <si>
-    <t>* 进入白色卡槽时, 获得+0/+1, 被冻结 * 进入非白色卡槽时, 对目标元素师造成1点伤害, 然后获得-0/-1</t>
-  </si>
-  <si>
     <t>虚幻斩杀者</t>
   </si>
   <si>
@@ -722,24 +710,15 @@
     <t>多重阴影</t>
   </si>
   <si>
-    <t>* 战斗时, 对战斗目标的拥有者造成1次攻击伤害</t>
-  </si>
-  <si>
     <t>漂浮</t>
   </si>
   <si>
-    <t>* 附魔的生物死亡时, 对目标元素师造成一次攻击伤害, 然后回到手牌</t>
-  </si>
-  <si>
     <t>发现弱点</t>
   </si>
   <si>
     <t>快银战士</t>
   </si>
   <si>
-    <t>* 进入战场时, 立即对目标元素师或者生物造成一次攻击伤害</t>
-  </si>
-  <si>
     <t>Elemental Air</t>
   </si>
   <si>
@@ -797,9 +776,6 @@
     <t>* 附魔生物攻击时, 对自己的和目标元素师的所有生物造成2点伤害 * 附魔生物死亡时, 对所有生物造成1点伤害</t>
   </si>
   <si>
-    <t>* 如果附魔的生物因战斗而死亡, 对与之发生战斗的生物之拥有者造成伤害, 其值为与附魔之生物发生战斗的生物之力量值, 妄想之境重新附魔到你的另外一个生物</t>
-  </si>
-  <si>
     <t>* 目标生物战斗时, 会额外造成一次攻击伤害, 直到回合结束</t>
   </si>
   <si>
@@ -971,9 +947,6 @@
     <t>* 冻结目标玩家的所有生物，跳过目标玩家的下一回合</t>
   </si>
   <si>
-    <t>* 目标生物无法成为法术的目标</t>
-  </si>
-  <si>
     <t>* 从你的牌库抽取两张牌，再从任意牌库抽取一张牌</t>
   </si>
   <si>
@@ -1097,9 +1070,6 @@
     <t>* 目标生物获得+3和碾压，直到回合结束.</t>
   </si>
   <si>
-    <t>* 进入战场时，所有卡槽最多只会造成1点伤害，直到敌方玩家的回合结束</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -1496,9 +1466,6 @@
     <t>* 附魔的生物无法被防御，也无法防御任何生物 * 附魔的生物成为法术的目标时，附魔的生物受到1点伤害，然后气化被置于墓地</t>
   </si>
   <si>
-    <t>* 冻结自身：迁移到另外一个你的卡槽，如果目标卡槽有生物，位面之兽与目标卡槽的生物交换位置</t>
-  </si>
-  <si>
     <t>* 如果空气元素所在卡槽颜色不是白色，将空气元素置于墓地并对目标生物或者元素师造成1点伤害</t>
   </si>
   <si>
@@ -1509,6 +1476,51 @@
   </si>
   <si>
     <t>* 进场时，立即对对位生物造成1点伤害，如果对位卡槽没有生物，对目标玩家造成1点伤害</t>
+  </si>
+  <si>
+    <t>* 战斗开始前可以迁移到另外一个你的卡槽，如果目标卡槽有生物，位面之兽与目标卡槽的生物交换位置</t>
+  </si>
+  <si>
+    <t>* 进入白色卡槽时，获得+0/+1，被冻结 * 进入非白色卡槽时，对目标元素师造成2点伤害</t>
+  </si>
+  <si>
+    <t>空气之盾</t>
+  </si>
+  <si>
+    <t>* 生物受到伤害时，该伤害效果失效，空气之盾被置于墓地</t>
+  </si>
+  <si>
+    <t>神灯</t>
+  </si>
+  <si>
+    <t>* 战场上的每个你的白色生物会使神灯的耗费-1 * 场上有至少3个你的白色生物时，如果神灯在墓地中，将神灯洗入牌库</t>
+  </si>
+  <si>
+    <t>高塔法师</t>
+  </si>
+  <si>
+    <t>* 进入战场时，所有敌方生物下回合无法攻击</t>
+  </si>
+  <si>
+    <t>* 附魔的生物死亡时，对目标元素师造成一次攻击伤害，然后回到手牌</t>
+  </si>
+  <si>
+    <t>* 如果附魔的生物因战斗而死亡，对目标造成伤害，其值为敌对生物的力量值，妄想之境重新附魔到你的另外一个生物</t>
+  </si>
+  <si>
+    <t>* 可以攻击两次</t>
+  </si>
+  <si>
+    <t>Elemental</t>
+  </si>
+  <si>
+    <t>* 先攻：进攻时，你首先对敌人造成伤害并结算，然后敌人对你造成伤害并结算</t>
+  </si>
+  <si>
+    <t>* 虚幻武士位于白色卡槽进攻时，你选择一个元素生物对虚幻武士的目标攻击一次</t>
+  </si>
+  <si>
+    <t>* 战斗时，对战斗目标的拥有者造成1次攻击伤害</t>
   </si>
 </sst>
 </file>
@@ -1960,10 +1972,10 @@
   <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M99" sqref="M99"/>
+      <selection pane="bottomRight" activeCell="H129" sqref="H129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1980,7 +1992,7 @@
     <col min="10" max="10" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="141.85546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="88.5703125" style="2" customWidth="1"/>
     <col min="14" max="14" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="70.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -1989,52 +2001,52 @@
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -2042,25 +2054,25 @@
         <v>1000124</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
@@ -2072,10 +2084,10 @@
         <v>1</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2086,22 +2098,22 @@
         <v>1000125</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
@@ -2113,7 +2125,7 @@
         <v>2</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -2121,25 +2133,25 @@
         <v>1000126</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
@@ -2151,7 +2163,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -2159,25 +2171,25 @@
         <v>1000132</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
@@ -2189,7 +2201,7 @@
         <v>3</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -2197,25 +2209,25 @@
         <v>1000136</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
@@ -2227,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -2238,19 +2250,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I7" s="4">
         <v>1</v>
@@ -2262,10 +2274,10 @@
         <v>1</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="P7" s="3"/>
     </row>
@@ -2274,22 +2286,22 @@
         <v>1000023</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I8" s="4">
         <v>1</v>
@@ -2301,10 +2313,10 @@
         <v>3</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="P8" s="3"/>
     </row>
@@ -2316,19 +2328,19 @@
         <v>11</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I9" s="4">
         <v>1</v>
@@ -2340,13 +2352,13 @@
         <v>1</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -2354,22 +2366,22 @@
         <v>1000118</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
@@ -2381,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -2389,22 +2401,22 @@
         <v>1000119</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
@@ -2416,10 +2428,10 @@
         <v>1</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -2430,19 +2442,19 @@
         <v>9</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I12" s="4">
         <v>1</v>
@@ -2454,10 +2466,10 @@
         <v>1</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="P12" s="3"/>
     </row>
@@ -2469,19 +2481,19 @@
         <v>17</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I13" s="4">
         <v>1</v>
@@ -2493,10 +2505,10 @@
         <v>1</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="P13" s="4"/>
     </row>
@@ -2505,22 +2517,22 @@
         <v>1000053</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2">
@@ -2533,10 +2545,10 @@
         <v>2</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2547,22 +2559,22 @@
         <v>1000128</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
@@ -2574,7 +2586,7 @@
         <v>2</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -2582,22 +2594,22 @@
         <v>1000129</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
@@ -2609,10 +2621,10 @@
         <v>1</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -2620,22 +2632,22 @@
         <v>1000075</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
@@ -2647,10 +2659,10 @@
         <v>1</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -2658,22 +2670,22 @@
         <v>1000076</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
@@ -2685,10 +2697,10 @@
         <v>1</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -2696,22 +2708,25 @@
         <v>1000095</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>95</v>
+      <c r="H19" s="2" t="s">
+        <v>494</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
@@ -2723,10 +2738,10 @@
         <v>1</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -2734,22 +2749,22 @@
         <v>1000096</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
@@ -2761,10 +2776,10 @@
         <v>1</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -2772,22 +2787,22 @@
         <v>1000097</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
@@ -2799,10 +2814,10 @@
         <v>1</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -2813,19 +2828,19 @@
         <v>10</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I22" s="4">
         <v>1</v>
@@ -2837,10 +2852,10 @@
         <v>1</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="P22" s="3"/>
     </row>
@@ -2849,31 +2864,31 @@
         <v>1000101</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
     </row>
     <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -2881,31 +2896,31 @@
         <v>1000102</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -2916,19 +2931,19 @@
         <v>27</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I25" s="4">
         <v>1</v>
@@ -2936,10 +2951,10 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="P25" s="3"/>
     </row>
@@ -2948,31 +2963,31 @@
         <v>1000123</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -2980,22 +2995,22 @@
         <v>1000032</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I27" s="4">
         <v>1</v>
@@ -3003,10 +3018,10 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="P27" s="4"/>
     </row>
@@ -3015,22 +3030,22 @@
         <v>1000033</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I28" s="4">
         <v>1</v>
@@ -3038,10 +3053,10 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="P28" s="3"/>
     </row>
@@ -3050,22 +3065,22 @@
         <v>1000037</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I29" s="4">
         <v>1</v>
@@ -3073,10 +3088,10 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="P29" s="3"/>
     </row>
@@ -3085,22 +3100,22 @@
         <v>1000051</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="4">
@@ -3109,10 +3124,10 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -3123,22 +3138,22 @@
         <v>1000055</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6">
@@ -3147,10 +3162,10 @@
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
@@ -3161,31 +3176,31 @@
         <v>1000056</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I32" s="2">
         <v>1</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
     </row>
     <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -3196,19 +3211,19 @@
         <v>12</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I33" s="4">
         <v>2</v>
@@ -3220,10 +3235,10 @@
         <v>1</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="M33" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P33" s="3"/>
     </row>
@@ -3232,31 +3247,31 @@
         <v>1000099</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I34" s="2">
         <v>1</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -3264,31 +3279,31 @@
         <v>1000100</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I35" s="2">
         <v>1</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -3296,22 +3311,22 @@
         <v>1000046</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I36" s="4">
         <v>1</v>
@@ -3319,10 +3334,10 @@
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="P36" s="3"/>
     </row>
@@ -3331,22 +3346,22 @@
         <v>1000015</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I37" s="4">
         <v>2</v>
@@ -3358,10 +3373,10 @@
         <v>2</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P37" s="3"/>
     </row>
@@ -3370,22 +3385,22 @@
         <v>1000049</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I38" s="4">
         <v>2</v>
@@ -3397,10 +3412,10 @@
         <v>2</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P38" s="3"/>
     </row>
@@ -3412,19 +3427,19 @@
         <v>14</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I39" s="4">
         <v>2</v>
@@ -3436,10 +3451,10 @@
         <v>1</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="P39" s="3"/>
     </row>
@@ -3448,22 +3463,22 @@
         <v>1000078</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I40" s="2">
         <v>2</v>
@@ -3475,10 +3490,10 @@
         <v>2</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -3486,25 +3501,25 @@
         <v>1000052</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="I41" s="2">
         <v>2</v>
@@ -3516,7 +3531,7 @@
         <v>2</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -3524,25 +3539,25 @@
         <v>1000058</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="I42" s="2">
         <v>2</v>
@@ -3554,10 +3569,10 @@
         <v>1</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -3565,22 +3580,22 @@
         <v>1000060</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I43" s="2">
         <v>2</v>
@@ -3592,10 +3607,10 @@
         <v>2</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
     </row>
     <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -3603,22 +3618,22 @@
         <v>1000065</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I44" s="2">
         <v>2</v>
@@ -3630,10 +3645,10 @@
         <v>1</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -3641,22 +3656,22 @@
         <v>1000035</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I45" s="4">
         <v>2</v>
@@ -3664,10 +3679,10 @@
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M45" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P45" s="3"/>
     </row>
@@ -3676,37 +3691,40 @@
         <v>1000103</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="I46" s="2">
+        <v>2</v>
+      </c>
+      <c r="J46" s="2">
+        <v>2</v>
+      </c>
+      <c r="K46" s="2">
+        <v>2</v>
+      </c>
+      <c r="L46" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I46" s="2">
-        <v>2</v>
-      </c>
-      <c r="J46" s="2">
-        <v>2</v>
-      </c>
-      <c r="K46" s="2">
-        <v>2</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="M46" s="2" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
@@ -3714,22 +3732,22 @@
         <v>1000105</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F47" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="I47" s="2">
         <v>2</v>
@@ -3741,10 +3759,10 @@
         <v>3</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -3752,22 +3770,25 @@
         <v>1000106</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F48" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>95</v>
+      <c r="H48" s="2" t="s">
+        <v>494</v>
       </c>
       <c r="I48" s="2">
         <v>2</v>
@@ -3779,10 +3800,10 @@
         <v>2</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -3793,19 +3814,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I49" s="4">
         <v>2</v>
@@ -3817,13 +3838,13 @@
         <v>2</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M49" s="12" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -3834,19 +3855,19 @@
         <v>16</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I50" s="4">
         <v>2</v>
@@ -3858,10 +3879,10 @@
         <v>1</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="M50" s="12" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="P50" s="3"/>
     </row>
@@ -3870,22 +3891,22 @@
         <v>1000030</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I51" s="4">
         <v>2</v>
@@ -3893,10 +3914,10 @@
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M51" s="12" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="P51" s="3"/>
     </row>
@@ -3905,31 +3926,31 @@
         <v>1000080</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I52" s="2">
+        <v>2</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M52" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I52" s="2">
-        <v>2</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -3937,22 +3958,22 @@
         <v>1000031</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I53" s="4">
         <v>2</v>
@@ -3960,10 +3981,10 @@
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M53" s="12" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="P53" s="3"/>
     </row>
@@ -3972,31 +3993,31 @@
         <v>1000079</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I54" s="2">
         <v>2</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -4004,22 +4025,22 @@
         <v>1000043</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I55" s="4">
         <v>2</v>
@@ -4027,10 +4048,10 @@
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M55" s="12" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="P55" s="3"/>
     </row>
@@ -4042,19 +4063,19 @@
         <v>7</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H56" s="8"/>
       <c r="I56" s="9">
@@ -4063,10 +4084,10 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c r="L56" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M56" s="13" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="N56" s="8"/>
       <c r="O56" s="8"/>
@@ -4080,19 +4101,19 @@
         <v>28</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I57" s="4">
         <v>2</v>
@@ -4100,13 +4121,13 @@
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M57" s="12" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -4114,22 +4135,22 @@
         <v>1000038</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I58" s="4">
         <v>2</v>
@@ -4137,10 +4158,10 @@
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M58" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P58" s="3"/>
     </row>
@@ -4149,31 +4170,31 @@
         <v>1000062</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I59" s="2">
         <v>2</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -4181,31 +4202,31 @@
         <v>1000081</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I60" s="2">
         <v>2</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -4213,31 +4234,31 @@
         <v>1000083</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I61" s="2">
         <v>2</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -4245,22 +4266,22 @@
         <v>1000050</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I62" s="4">
         <v>3</v>
@@ -4272,10 +4293,10 @@
         <v>3</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M62" s="12" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="P62" s="3"/>
     </row>
@@ -4284,31 +4305,31 @@
         <v>1000107</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I63" s="2">
         <v>2</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -4316,31 +4337,31 @@
         <v>1000108</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I64" s="2">
         <v>2</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
@@ -4348,31 +4369,31 @@
         <v>1000109</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I65" s="2">
         <v>2</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
     </row>
     <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -4383,19 +4404,19 @@
         <v>13</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I66" s="4">
         <v>3</v>
@@ -4407,10 +4428,10 @@
         <v>3</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="M66" s="12" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="P66" s="3"/>
     </row>
@@ -4422,19 +4443,19 @@
         <v>18</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I67" s="4">
         <v>3</v>
@@ -4446,10 +4467,10 @@
         <v>2</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="M67" s="12" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="P67" s="3"/>
     </row>
@@ -4461,19 +4482,19 @@
         <v>19</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I68" s="4">
         <v>3</v>
@@ -4485,10 +4506,10 @@
         <v>3</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="M68" s="12" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="P68" s="3"/>
     </row>
@@ -4497,22 +4518,22 @@
         <v>1000085</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I69" s="2">
         <v>3</v>
@@ -4524,10 +4545,10 @@
         <v>3</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -4538,19 +4559,19 @@
         <v>20</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I70" s="4">
         <v>3</v>
@@ -4562,10 +4583,10 @@
         <v>1</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M70" s="12" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="P70" s="3"/>
     </row>
@@ -4574,25 +4595,25 @@
         <v>1000059</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="I71" s="2">
         <v>3</v>
@@ -4604,7 +4625,7 @@
         <v>3</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -4612,25 +4633,25 @@
         <v>1000067</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="I72" s="2">
         <v>3</v>
@@ -4642,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -4653,22 +4674,22 @@
         <v>1000086</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I73" s="2">
         <v>3</v>
@@ -4680,10 +4701,10 @@
         <v>4</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -4691,22 +4712,22 @@
         <v>1000036</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I74" s="4">
         <v>3</v>
@@ -4714,10 +4735,10 @@
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M74" s="12" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="P74" s="3"/>
     </row>
@@ -4726,22 +4747,25 @@
         <v>1000112</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F75" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G75" s="2" t="s">
-        <v>95</v>
+      <c r="H75" s="2" t="s">
+        <v>494</v>
       </c>
       <c r="I75" s="2">
         <v>3</v>
@@ -4753,10 +4777,10 @@
         <v>3</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>227</v>
+        <v>484</v>
       </c>
     </row>
     <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -4767,19 +4791,19 @@
         <v>15</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I76" s="4">
         <v>3</v>
@@ -4787,10 +4811,10 @@
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
       <c r="L76" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M76" s="12" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="P76" s="3"/>
     </row>
@@ -4799,31 +4823,31 @@
         <v>1000077</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I77" s="2">
         <v>3</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -4831,31 +4855,31 @@
         <v>1000063</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I78" s="2">
         <v>3</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -4863,22 +4887,22 @@
         <v>1000040</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I79" s="4">
         <v>3</v>
@@ -4886,10 +4910,10 @@
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
       <c r="L79" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M79" s="12" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="P79" s="3"/>
     </row>
@@ -4901,19 +4925,19 @@
         <v>6</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H80" s="7"/>
       <c r="I80" s="9">
@@ -4922,10 +4946,10 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c r="L80" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M80" s="13" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="N80" s="7"/>
       <c r="O80" s="7"/>
@@ -4936,22 +4960,22 @@
         <v>1000034</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I81" s="4">
         <v>3</v>
@@ -4959,10 +4983,10 @@
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M81" s="12" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="P81" s="3"/>
     </row>
@@ -4971,22 +4995,22 @@
         <v>1000048</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I82" s="4">
         <v>3</v>
@@ -4994,78 +5018,78 @@
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
       <c r="L82" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M82" s="12" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="P82" s="3"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
-        <v>1000041</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>83</v>
+        <v>1000137</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>487</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="F83" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G83" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I83" s="4">
+      <c r="I83" s="2">
         <v>3</v>
       </c>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="M83" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="P83" s="3"/>
+      <c r="J83" s="2">
+        <v>3</v>
+      </c>
+      <c r="K83" s="2">
+        <v>2</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>1000054</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I84" s="2">
         <v>3</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -5073,31 +5097,31 @@
         <v>1000064</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I85" s="2">
         <v>3</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -5105,31 +5129,31 @@
         <v>1000068</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I86" s="2">
         <v>3</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -5137,31 +5161,31 @@
         <v>1000088</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I87" s="2">
         <v>3</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -5169,63 +5193,63 @@
         <v>1000089</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I88" s="2">
         <v>3</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>1000116</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I89" s="2">
         <v>3</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -5233,31 +5257,31 @@
         <v>1000092</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I90" s="2">
         <v>3</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -5268,19 +5292,19 @@
         <v>4</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I91" s="4">
         <v>4</v>
@@ -5292,10 +5316,10 @@
         <v>0</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M91" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P91" s="3"/>
     </row>
@@ -5304,22 +5328,22 @@
         <v>1000020</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I92" s="4">
         <v>4</v>
@@ -5331,10 +5355,10 @@
         <v>6</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="M92" s="12" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="P92" s="3"/>
     </row>
@@ -5343,22 +5367,22 @@
         <v>1000044</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I93" s="4">
         <v>4</v>
@@ -5370,10 +5394,10 @@
         <v>3</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M93" s="12" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="P93" s="3"/>
     </row>
@@ -5382,22 +5406,22 @@
         <v>1000061</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I94" s="2">
         <v>4</v>
@@ -5409,10 +5433,10 @@
         <v>3</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -5420,22 +5444,22 @@
         <v>1000066</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I95" s="2">
         <v>4</v>
@@ -5447,10 +5471,10 @@
         <v>5</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -5458,22 +5482,22 @@
         <v>1000070</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I96" s="2">
         <v>4</v>
@@ -5485,10 +5509,10 @@
         <v>4</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -5496,22 +5520,22 @@
         <v>1000071</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I97" s="2">
         <v>4</v>
@@ -5523,86 +5547,86 @@
         <v>5</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
-        <v>1000098</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>240</v>
+        <v>1000041</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>94</v>
+        <v>401</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I98" s="2">
-        <v>4</v>
-      </c>
-      <c r="J98" s="2">
-        <v>1</v>
-      </c>
-      <c r="K98" s="2">
-        <v>1</v>
-      </c>
-      <c r="L98" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="M98" s="2" t="s">
-        <v>356</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="I98" s="4">
+        <v>3</v>
+      </c>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="M98" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="P98" s="3"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
-        <v>1000113</v>
+        <v>1000098</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>228</v>
+        <v>163</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F99" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G99" s="2" t="s">
-        <v>95</v>
+      <c r="H99" s="2" t="s">
+        <v>494</v>
       </c>
       <c r="I99" s="2">
         <v>4</v>
       </c>
       <c r="J99" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K99" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>229</v>
+        <v>490</v>
       </c>
     </row>
     <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -5610,31 +5634,31 @@
         <v>1000057</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I100" s="2">
         <v>4</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
     </row>
     <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -5642,22 +5666,22 @@
         <v>1000039</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I101" s="4">
         <v>4</v>
@@ -5665,10 +5689,10 @@
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
       <c r="L101" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M101" s="12" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="P101" s="3"/>
     </row>
@@ -5677,22 +5701,22 @@
         <v>1000042</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I102" s="4">
         <v>4</v>
@@ -5700,10 +5724,10 @@
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
       <c r="L102" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M102" s="12" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="P102" s="3"/>
     </row>
@@ -5712,31 +5736,31 @@
         <v>1000127</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I103" s="2">
         <v>4</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -5744,31 +5768,31 @@
         <v>1000073</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I104" s="2">
         <v>4</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -5779,19 +5803,19 @@
         <v>22</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I105" s="4">
         <v>4</v>
@@ -5803,10 +5827,10 @@
         <v>4</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M105" s="12" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="P105" s="3"/>
     </row>
@@ -5815,31 +5839,31 @@
         <v>1000090</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I106" s="2">
         <v>4</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
     </row>
     <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -5847,31 +5871,31 @@
         <v>1000091</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I107" s="2">
         <v>4</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -5879,22 +5903,22 @@
         <v>1000047</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I108" s="4">
         <v>5</v>
@@ -5906,10 +5930,10 @@
         <v>6</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="M108" s="12" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="P108" s="3"/>
     </row>
@@ -5921,22 +5945,22 @@
         <v>25</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="I109" s="4">
         <v>5</v>
@@ -5948,10 +5972,10 @@
         <v>5</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M109" s="12" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="P109" s="3"/>
     </row>
@@ -5963,19 +5987,19 @@
         <v>21</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I110" s="4">
         <v>5</v>
@@ -5987,10 +6011,10 @@
         <v>3</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="M110" s="12" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="P110" s="3"/>
     </row>
@@ -6002,19 +6026,19 @@
         <v>23</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I111" s="4">
         <v>5</v>
@@ -6026,10 +6050,10 @@
         <v>4</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M111" s="12" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="P111" s="3"/>
     </row>
@@ -6041,19 +6065,19 @@
         <v>24</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I112" s="4">
         <v>5</v>
@@ -6065,10 +6089,10 @@
         <v>5</v>
       </c>
       <c r="L112" s="4" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="P112" s="3"/>
     </row>
@@ -6077,22 +6101,22 @@
         <v>1000133</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I113" s="2">
         <v>5</v>
@@ -6104,10 +6128,10 @@
         <v>6</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
     </row>
     <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -6115,22 +6139,22 @@
         <v>1000134</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I114" s="2">
         <v>5</v>
@@ -6142,42 +6166,45 @@
         <v>4</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
-        <v>1000111</v>
+        <v>1000138</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>268</v>
+        <v>489</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F115" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G115" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="I115" s="2">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="J115" s="2">
+        <v>4</v>
+      </c>
+      <c r="K115" s="2">
+        <v>3</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>97</v>
+        <v>246</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>256</v>
+        <v>165</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
@@ -6185,31 +6212,31 @@
         <v>1000115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I116" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>233</v>
+        <v>491</v>
       </c>
     </row>
     <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -6217,22 +6244,22 @@
         <v>1000045</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I117" s="4">
         <v>5</v>
@@ -6240,10 +6267,10 @@
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
       <c r="L117" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M117" s="12" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="P117" s="3"/>
     </row>
@@ -6252,31 +6279,31 @@
         <v>1000082</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I118" s="2">
         <v>5</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -6284,107 +6311,101 @@
         <v>1000135</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I119" s="2">
         <v>5</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="7">
-        <v>1000104</v>
+        <v>1000113</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>173</v>
+        <v>224</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F120" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G120" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="I120" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J120" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K120" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>174</v>
+        <v>225</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
-        <v>1000117</v>
+        <v>1000111</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I121" s="2">
-        <v>6</v>
-      </c>
-      <c r="J121" s="2">
-        <v>3</v>
-      </c>
-      <c r="K121" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>252</v>
+        <v>96</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>236</v>
+        <v>492</v>
       </c>
     </row>
     <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -6392,22 +6413,22 @@
         <v>1000019</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I122" s="4">
         <v>6</v>
@@ -6419,10 +6440,10 @@
         <v>5</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="M122" s="12" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="P122" s="3"/>
     </row>
@@ -6434,19 +6455,19 @@
         <v>26</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I123" s="4">
         <v>6</v>
@@ -6458,10 +6479,10 @@
         <v>6</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="M123" s="12" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="P123" s="3"/>
     </row>
@@ -6470,22 +6491,22 @@
         <v>1000069</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I124" s="2">
         <v>6</v>
@@ -6497,10 +6518,10 @@
         <v>6</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
     </row>
     <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -6508,22 +6529,22 @@
         <v>1000074</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I125" s="2">
         <v>6</v>
@@ -6535,10 +6556,10 @@
         <v>5</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
     </row>
     <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -6546,22 +6567,22 @@
         <v>1000094</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I126" s="2">
         <v>6</v>
@@ -6573,10 +6594,10 @@
         <v>4</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
     </row>
     <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -6584,31 +6605,31 @@
         <v>1000093</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I127" s="2">
         <v>6</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
     </row>
     <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -6616,22 +6637,22 @@
         <v>1000087</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I128" s="2">
         <v>7</v>
@@ -6643,48 +6664,48 @@
         <v>7</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
-        <v>1000110</v>
+        <v>1000104</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>224</v>
+        <v>172</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F129" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G129" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="I129" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J129" s="2">
         <v>2</v>
       </c>
       <c r="K129" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>223</v>
+        <v>496</v>
       </c>
     </row>
     <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -6692,22 +6713,22 @@
         <v>1000120</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I130" s="2">
         <v>7</v>
@@ -6719,10 +6740,10 @@
         <v>9</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -6730,22 +6751,22 @@
         <v>1000121</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I131" s="2">
         <v>7</v>
@@ -6757,10 +6778,10 @@
         <v>7</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
     </row>
     <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -6768,25 +6789,25 @@
         <v>1000072</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="I132" s="2">
         <v>7</v>
@@ -6798,10 +6819,10 @@
         <v>8</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -6809,25 +6830,25 @@
         <v>1000131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="I133" s="2">
         <v>7</v>
@@ -6839,10 +6860,10 @@
         <v>6</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
     </row>
     <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -6850,22 +6871,22 @@
         <v>1000084</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I134" s="2">
         <v>8</v>
@@ -6877,48 +6898,48 @@
         <v>8</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="7">
-        <v>1000114</v>
+        <v>1000117</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F135" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G135" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="I135" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J135" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K135" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>231</v>
+        <v>493</v>
       </c>
     </row>
     <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -6926,22 +6947,22 @@
         <v>1000122</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I136" s="2">
         <v>8</v>
@@ -6953,10 +6974,10 @@
         <v>12</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -6964,25 +6985,25 @@
         <v>1000130</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="I137" s="2">
         <v>8</v>
@@ -6994,20 +7015,89 @@
         <v>10</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="7">
-        <v>1000137</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>1000110</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="I138" s="2">
+        <v>7</v>
+      </c>
+      <c r="J138" s="2">
+        <v>5</v>
+      </c>
+      <c r="K138" s="2">
+        <v>5</v>
+      </c>
+      <c r="L138" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="M138" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="7">
-        <v>1000138</v>
+        <v>1000114</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I139" s="2">
+        <v>8</v>
+      </c>
+      <c r="J139" s="2">
+        <v>5</v>
+      </c>
+      <c r="K139" s="2">
+        <v>9</v>
+      </c>
+      <c r="L139" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="M139" s="2" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
@@ -11323,11 +11413,11 @@
       </filters>
     </filterColumn>
     <filterColumn colId="5">
-      <filters>
+      <filters blank="1">
         <filter val="White"/>
       </filters>
     </filterColumn>
-    <sortState ref="A19:P135">
+    <sortState ref="A19:P139">
       <sortCondition ref="I2:I1000"/>
       <sortCondition ref="G2:G1000"/>
     </sortState>
@@ -11359,54 +11449,54 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
         <v>91</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>92</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>93</v>
       </c>
-      <c r="E1" t="s">
-        <v>94</v>
-      </c>
       <c r="F1" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="B2" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C2" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="D2" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="E2" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="F2" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -11431,16 +11521,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -11448,13 +11538,13 @@
         <v>2000001</v>
       </c>
       <c r="B2" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C2" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="D2" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -11462,13 +11552,13 @@
         <v>2000002</v>
       </c>
       <c r="B3" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C3" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="D3" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -11476,13 +11566,13 @@
         <v>2000003</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="D4" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -11490,13 +11580,13 @@
         <v>2000004</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="D5" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -11504,13 +11594,13 @@
         <v>2000005</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="D6" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -11518,13 +11608,13 @@
         <v>2000006</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="D7" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -11532,13 +11622,13 @@
         <v>2000007</v>
       </c>
       <c r="B8" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C8" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="D8" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -11546,13 +11636,13 @@
         <v>2000008</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="D9" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -11560,13 +11650,13 @@
         <v>2000009</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="D10" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -11574,13 +11664,13 @@
         <v>2000010</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="D11" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -11588,13 +11678,13 @@
         <v>2000011</v>
       </c>
       <c r="B12" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C12" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="D12" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -11602,13 +11692,13 @@
         <v>2000012</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="D13" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -11616,13 +11706,13 @@
         <v>2000013</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="D14" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -11630,13 +11720,13 @@
         <v>2000014</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="D15" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -11644,13 +11734,13 @@
         <v>2000015</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="D16" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -11658,13 +11748,13 @@
         <v>2000016</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="D17" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -11672,13 +11762,13 @@
         <v>2000017</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="D18" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -11686,13 +11776,13 @@
         <v>2000018</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D19" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -11700,13 +11790,13 @@
         <v>2000019</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="D20" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -11714,13 +11804,13 @@
         <v>2000020</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="D21" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
     <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -12170,22 +12260,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>94</v>
-      </c>
       <c r="F1" s="15" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -12278,7 +12368,7 @@
       </c>
       <c r="E5" s="5">
         <f>COUNTIFS(Card!$I:$I,"="&amp;$A5,Card!$F:$F,"="&amp;E$1,Card!$E:$E,"="&amp;$H$1)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" s="5">
         <v>3</v>
@@ -12382,7 +12472,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="B10" s="15">
         <f>SUM(B2:B9)</f>
@@ -12398,7 +12488,7 @@
       </c>
       <c r="E10" s="15">
         <f>SUM(E2:E9)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" s="15">
         <f>SUM(F2:F9)</f>

--- a/design/conflux.xlsx
+++ b/design/conflux.xlsx
@@ -1975,7 +1975,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H129" sqref="H129"/>
+      <selection pane="bottomRight" activeCell="J1002" sqref="J1002"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>1000008</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>1000076</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>1000095</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>1000096</v>
       </c>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="P22" s="3"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>1000101</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>1000032</v>
       </c>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="P27" s="4"/>
     </row>
-    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>1000033</v>
       </c>
@@ -3242,7 +3242,7 @@
       </c>
       <c r="P33" s="3"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>1000099</v>
       </c>
@@ -3458,7 +3458,7 @@
       </c>
       <c r="P39" s="3"/>
     </row>
-    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>1000078</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>1000035</v>
       </c>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="P45" s="3"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>1000103</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>1000105</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>1000106</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>1000081</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>1000083</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>1000050</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>1000109</v>
       </c>
@@ -4742,7 +4742,7 @@
       </c>
       <c r="P74" s="3"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>1000112</v>
       </c>
@@ -4818,7 +4818,7 @@
       </c>
       <c r="P76" s="3"/>
     </row>
-    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>1000077</v>
       </c>
@@ -5025,7 +5025,7 @@
       </c>
       <c r="P82" s="3"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <v>1000137</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <v>1000092</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>1000041</v>
       </c>
@@ -5588,7 +5588,7 @@
       </c>
       <c r="P98" s="3"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>1000098</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
         <v>1000022</v>
       </c>
@@ -5834,7 +5834,7 @@
       </c>
       <c r="P105" s="3"/>
     </row>
-    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="7">
         <v>1000090</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
         <v>1000091</v>
       </c>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="P108" s="3"/>
     </row>
-    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
         <v>1000026</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <v>1000138</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
         <v>1000115</v>
       </c>
@@ -6274,7 +6274,7 @@
       </c>
       <c r="P117" s="3"/>
     </row>
-    <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="7">
         <v>1000082</v>
       </c>
@@ -6338,7 +6338,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7">
         <v>1000113</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
         <v>1000111</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="7">
         <v>1000094</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="7">
         <v>1000093</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="7">
         <v>1000087</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
         <v>1000104</v>
       </c>
@@ -6866,7 +6866,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="7">
         <v>1000084</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="7">
         <v>1000117</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="7">
         <v>1000110</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="7">
         <v>1000114</v>
       </c>
@@ -11413,8 +11413,8 @@
       </filters>
     </filterColumn>
     <filterColumn colId="5">
-      <filters blank="1">
-        <filter val="White"/>
+      <filters>
+        <filter val="Red"/>
       </filters>
     </filterColumn>
     <sortState ref="A19:P139">

--- a/design/conflux.xlsx
+++ b/design/conflux.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Card" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Ability!$A$1:$D$101</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Card!$A$1:$P$1000</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Card!$A$1:$Q$1000</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="564">
   <si>
     <t>Cost</t>
   </si>
@@ -944,9 +944,6 @@
     <t>* 死亡时，召唤9个P1的海卓蛇头进入战场，可以以放置于任意卡槽</t>
   </si>
   <si>
-    <t>* 冻结目标玩家的所有生物，跳过目标玩家的下一回合</t>
-  </si>
-  <si>
     <t>* 从你的牌库抽取两张牌，再从任意牌库抽取一张牌</t>
   </si>
   <si>
@@ -1151,376 +1148,577 @@
     <t>* 防御者：无法攻击</t>
   </si>
   <si>
+    <t>* 死亡召唤：死亡之后召唤一个1/1的水之魂回到原卡槽。水之魂具有不稳定：回合结束时，置于墓地</t>
+  </si>
+  <si>
+    <t>防御者</t>
+  </si>
+  <si>
+    <t>无法攻击</t>
+  </si>
+  <si>
+    <t>Combat</t>
+  </si>
+  <si>
+    <t>目标卡牌回到其拥有者手牌</t>
+  </si>
+  <si>
+    <t>退回</t>
+  </si>
+  <si>
+    <t>* 回收：将一个你控制的蓝色生物置于墓地并获得2个符文</t>
+  </si>
+  <si>
+    <t>* 学识：你抽1张牌</t>
+  </si>
+  <si>
+    <t>* 衰弱：战斗时，敌方生物力量-1</t>
+  </si>
+  <si>
+    <t>衰弱</t>
+  </si>
+  <si>
+    <t>学识</t>
+  </si>
+  <si>
+    <t>* 流放：目标生物将不参与战斗，直到施法者的回合结束</t>
+  </si>
+  <si>
+    <t>流放</t>
+  </si>
+  <si>
+    <t>* 嘲讽：对位生物每回合必须进攻</t>
+  </si>
+  <si>
+    <t>幽灵</t>
+  </si>
+  <si>
+    <t>* 吸血：进攻时，获得1点生命</t>
+  </si>
+  <si>
+    <t>package</t>
+  </si>
+  <si>
+    <t>Aether</t>
+  </si>
+  <si>
+    <t>Boundary</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>* 移除目标生物身上所有附魔效果，然后你可以对目标生物造成2点伤害，每个移除的附魔效果令伤害+1</t>
+  </si>
+  <si>
+    <t>* 寒冰山猫上场时，冻结对位卡槽和与其所在卡槽颜色相同的敌方生物，直到该玩家的回合结束阶段</t>
+  </si>
+  <si>
+    <t>* 幽灵：无法被攻击，无法被防御</t>
+  </si>
+  <si>
+    <t>* 退回：目标卡牌回到其拥有者手牌 * 学识：你抽1张牌</t>
+  </si>
+  <si>
+    <t>* 衰弱：目标生物力量为0，直到回合结束</t>
+  </si>
+  <si>
+    <t>* 将一个你控制的生物以及所有位于与其卡槽颜色相同的生物退回各自拥有者手牌，所影响的卡槽被锁定，无法召唤生物，直到你的回合开始阶段</t>
+  </si>
+  <si>
+    <t>* 攻击时，将敌方力量或者防御不大于冰行者防御的生物退回，被退回的生物直接对其所有者攻击一次</t>
+  </si>
+  <si>
+    <t>* 上场时，催眠与其所在卡槽颜色相同的生物，在目标生物的战斗回合，直接对其所有者攻击一次 * 催眠师进入墓地时，此效果消失</t>
+  </si>
+  <si>
+    <t>* 回合结束时，若本回合没有参与战斗，额外抽一张卡 * 攻击时，流放任一个敌方目标</t>
+  </si>
+  <si>
+    <t>* 死亡时，成为附魔效果，目标生物力量-6</t>
+  </si>
+  <si>
+    <t>* 上场时，指定一个敌方卡槽，在敌方玩家的每个开始回合力量-2 * 海龙死亡后该效果消失</t>
+  </si>
+  <si>
+    <t>* 上场时和每回合开始时，对位卡槽中的生物对其所有者攻击一次</t>
+  </si>
+  <si>
+    <t>无法被攻击，无法被防御</t>
+  </si>
+  <si>
+    <t>* 目标生物所在卡槽被视为绿色</t>
+  </si>
+  <si>
+    <t>* 进入墓地时，你恢复生命值，数量等于可食用藤蔓的防御</t>
+  </si>
+  <si>
+    <t>* 置于绿色卡槽时，+1/0</t>
+  </si>
+  <si>
+    <t>* 进场时，目标生物+1/1，直到回合结束</t>
+  </si>
+  <si>
+    <t>* 冻结自身：目标生物+1/1，直到回合结束</t>
+  </si>
+  <si>
+    <t>* 你的所有其它绿色生物+1/1</t>
+  </si>
+  <si>
+    <t>* 使一个你的单位立即和对位卡槽的生物一次，如果对位卡槽没有单位，攻击对方玩家</t>
+  </si>
+  <si>
+    <t>* 你的所有绿色卡槽的生物+2/2，直到回合结束</t>
+  </si>
+  <si>
+    <t>* 生长：在你的回合开始阶段，如果你的绿色卡槽有生物，获得+1/1</t>
+  </si>
+  <si>
+    <t>* 目标生物获得嘲讽，+1/3</t>
+  </si>
+  <si>
+    <t>* 冻结自身，消耗2：为一个生物+2/2或者治疗玩家3点生命值</t>
+  </si>
+  <si>
+    <t>* 每次战斗后获得+1/0</t>
+  </si>
+  <si>
+    <t>沼泽多头蛇</t>
+  </si>
+  <si>
+    <t>* 进入墓地时将手牌中的任一张生物卡置于远古树精的卡槽</t>
+  </si>
+  <si>
+    <t>* 不死：进入墓地时，立即回到原卡槽并获得永久标记-1/-1，力量为1时，无法触发不死效果</t>
+  </si>
+  <si>
+    <t>* 消耗1：召唤一个3/3的树人进入战场，可以放置于任何卡槽</t>
+  </si>
+  <si>
+    <t>* 死亡时，对指定生物造成1点伤害</t>
+  </si>
+  <si>
+    <t>* 死亡时，目标生物获得+1/+0，直到回合结束</t>
+  </si>
+  <si>
+    <t>* 对目标元素师或者生物造成2点伤害</t>
+  </si>
+  <si>
+    <t>* 对1个元素师或者生物造成1点伤害，然后重新指定1个元素师或者生物造成1点伤害，可以重复指定</t>
+  </si>
+  <si>
+    <t>* 不稳定 * 迅捷</t>
+  </si>
+  <si>
+    <t>* 对目标元素师的所有生物造成2点伤害</t>
+  </si>
+  <si>
+    <t>* 本回合中，你的每一个死亡的红色生物会为熔火暴徒+1/+0</t>
+  </si>
+  <si>
+    <t>* 对目标生物造成3点伤害，如果目标因此而死亡，你增加1个符文</t>
+  </si>
+  <si>
+    <t>纵火者</t>
+  </si>
+  <si>
+    <t>* 牺牲一个你的红色生物，对目标生物或者玩家造成牺牲掉生物的力量+3点伤害</t>
+  </si>
+  <si>
+    <t>献祭</t>
+  </si>
+  <si>
+    <t>* 对目标生物造成5点伤害.</t>
+  </si>
+  <si>
+    <t>* 将墓地中的红色生物置于手牌，生物的总消耗不大于4</t>
+  </si>
+  <si>
+    <t>* 每当你打出一张红色卡牌，纵火者对目标生物造成1点伤害</t>
+  </si>
+  <si>
+    <t>* 消耗X：获得+X/0</t>
+  </si>
+  <si>
+    <t>* 对战场上所有生物和元素师造成3点伤害</t>
+  </si>
+  <si>
+    <t>* 己方的红色卡槽内生物获得法术免疫</t>
+  </si>
+  <si>
+    <t>* 死亡时若前方没有阻挡生物，对目标元素师造成等同于灰烬暴君力量的伤害</t>
+  </si>
+  <si>
+    <t>* 对目标生物或者玩家造成4点伤害，你所操控的每一个红色生物对你的目标造成1点伤害 * 法术大师：法术置于墓地时，回到手牌</t>
+  </si>
+  <si>
+    <t>* 对目标玩家造成5点伤害，在同一回合，你每有一个红色生物进入墓地，纵火的符文消耗减少1点，伤害+1</t>
+  </si>
+  <si>
+    <t>* 火焰吐息F：对目标生物造成2点伤害</t>
+  </si>
+  <si>
+    <t>* 牺牲一个红色生物, 为炎魔领主+2/+1</t>
+  </si>
+  <si>
+    <t>* 附魔的生物无法被防御，也无法防御任何生物 * 附魔的生物成为法术的目标时，附魔的生物受到1点伤害，然后气化被置于墓地</t>
+  </si>
+  <si>
+    <t>* 如果空气元素所在卡槽颜色不是白色，将空气元素置于墓地并对目标生物或者元素师造成1点伤害</t>
+  </si>
+  <si>
+    <t>* 防御者 * 战斗时，进攻的生物获得-3/-0</t>
+  </si>
+  <si>
+    <t>* 目标生物获得先攻，直到回合结束</t>
+  </si>
+  <si>
+    <t>* 进场时，立即对对位生物造成1点伤害，如果对位卡槽没有生物，对目标玩家造成1点伤害</t>
+  </si>
+  <si>
+    <t>* 战斗开始前可以迁移到另外一个你的卡槽，如果目标卡槽有生物，位面之兽与目标卡槽的生物交换位置</t>
+  </si>
+  <si>
+    <t>* 进入白色卡槽时，获得+0/+1，被冻结 * 进入非白色卡槽时，对目标元素师造成2点伤害</t>
+  </si>
+  <si>
+    <t>空气之盾</t>
+  </si>
+  <si>
+    <t>* 生物受到伤害时，该伤害效果失效，空气之盾被置于墓地</t>
+  </si>
+  <si>
+    <t>神灯</t>
+  </si>
+  <si>
+    <t>* 战场上的每个你的白色生物会使神灯的耗费-1 * 场上有至少3个你的白色生物时，如果神灯在墓地中，将神灯洗入牌库</t>
+  </si>
+  <si>
+    <t>高塔法师</t>
+  </si>
+  <si>
+    <t>* 进入战场时，所有敌方生物下回合无法攻击</t>
+  </si>
+  <si>
+    <t>* 附魔的生物死亡时，对目标元素师造成一次攻击伤害，然后回到手牌</t>
+  </si>
+  <si>
+    <t>* 如果附魔的生物因战斗而死亡，对目标造成伤害，其值为敌对生物的力量值，妄想之境重新附魔到你的另外一个生物</t>
+  </si>
+  <si>
+    <t>* 可以攻击两次</t>
+  </si>
+  <si>
+    <t>Elemental</t>
+  </si>
+  <si>
+    <t>* 先攻：进攻时，你首先对敌人造成伤害并结算，然后敌人对你造成伤害并结算</t>
+  </si>
+  <si>
+    <t>* 虚幻武士位于白色卡槽进攻时，你选择一个元素生物对虚幻武士的目标攻击一次</t>
+  </si>
+  <si>
+    <t>* 战斗时，对战斗目标的拥有者造成1次攻击伤害</t>
+  </si>
+  <si>
+    <t>abilities</t>
+  </si>
+  <si>
+    <t>战斗时，敌方生物力量-1</t>
+  </si>
+  <si>
+    <t>你抽1张牌</t>
+  </si>
+  <si>
+    <t>生物将不参与战斗，直到施法者的回合结束</t>
+  </si>
+  <si>
+    <t>目标生物成为法术的目标时，法术失效，然后将法术反制置于墓地</t>
+  </si>
+  <si>
+    <t>目标生物力量降为0，直到回合结束</t>
+  </si>
+  <si>
+    <t>寒冰山猫上场时，冻结对位卡槽和与其所在卡槽颜色相同的敌方生物，直到该玩家的回合结束阶段</t>
+  </si>
+  <si>
+    <t>移除目标生物身上所有附魔效果，然后你可以对目标生物造成2点伤害，每个移除的附魔效果令伤害+1</t>
+  </si>
+  <si>
+    <t>2000007;2000003</t>
+  </si>
+  <si>
+    <t>* 目标生物对其拥有者造成一次攻击</t>
+  </si>
+  <si>
+    <t>目标生物对其拥有者造成一次攻击</t>
+  </si>
+  <si>
+    <t>冷凝虚影以目标生物的复制品进入战场</t>
+  </si>
+  <si>
+    <t>攻击时，将敌方力量或者防御不大于冰行者防御的生物退回，被退回的生物直接对其所有者攻击一次</t>
+  </si>
+  <si>
+    <t>将一个你控制的生物以及所有位于与其卡槽颜色相同的生物退回各自拥有者手牌，所影响的卡槽被锁定，无法召唤生物，直到你的回合开始阶段</t>
+  </si>
+  <si>
+    <t>上场时，催眠与其所在卡槽颜色相同的生物，在目标生物的战斗回合，直接对其所有者攻击一次。催眠师进入墓地时，此效果消失</t>
+  </si>
+  <si>
+    <t>* 冻结目标玩家的所有生物</t>
+  </si>
+  <si>
+    <t>冻结目标玩家的所有生物</t>
+  </si>
+  <si>
+    <t>回合结束时，若本回合没有参与战斗，额外抽一张卡</t>
+  </si>
+  <si>
+    <t>攻击时，流放任一个敌方目标</t>
+  </si>
+  <si>
+    <t>2000017;2000018</t>
+  </si>
+  <si>
+    <t>死亡时，成为附魔效果，目标生物力量-6</t>
+  </si>
+  <si>
+    <t>上场时，指定一个敌方卡槽，在敌方玩家的每个开始回合力量-2，海龙死亡后该效果消失</t>
+  </si>
+  <si>
+    <t>上场时和每回合开始时，对位卡槽中的生物对其所有者攻击一次</t>
+  </si>
+  <si>
+    <t>进入墓地时，你恢复生命值，数量等于可食用藤蔓的防御</t>
+  </si>
+  <si>
+    <t>置于绿色卡槽时，获得+1/0</t>
+  </si>
+  <si>
+    <t>进入战场时，目标生物获得+1/1，直到回合结束</t>
+  </si>
+  <si>
+    <t>目标卡槽被视为绿色</t>
+  </si>
+  <si>
+    <t>施法者</t>
+  </si>
+  <si>
+    <t>目标生物获得+1/1，直到回合结束</t>
+  </si>
+  <si>
+    <t>你的所有其它绿色生物获得+1/1</t>
+  </si>
+  <si>
+    <t>在你的回合开始阶段，附魔的卡槽内生物获得+0/1</t>
+  </si>
+  <si>
+    <t>使一个你的单位立即和对位卡槽的生物战斗一次，如果对位卡槽没有单位，攻击对方玩家</t>
+  </si>
+  <si>
+    <t>在你的回合开始阶段，如果你的绿色卡槽内有生物，获得+1/1</t>
+  </si>
+  <si>
+    <t>你的所有绿色卡槽内的生物获得+2/2，直到回合结束</t>
+  </si>
+  <si>
+    <t>嘲讽</t>
+  </si>
+  <si>
+    <t>对位生物每回合必须进攻</t>
+  </si>
+  <si>
+    <t>消耗2，目标生物获得+2/2或者治疗玩家3点生命值</t>
+  </si>
+  <si>
+    <t>卡槽内生物获得嘲讽和+1/3</t>
+  </si>
+  <si>
+    <t>碾压</t>
+  </si>
+  <si>
+    <t>对目标玩家造成战斗时溢出的伤害</t>
+  </si>
+  <si>
+    <t>每次战斗后获得+1/0</t>
+  </si>
+  <si>
+    <t>进入墓地时将手牌中的任一张生物卡置于远古树精的卡槽</t>
+  </si>
+  <si>
+    <t>进入墓地时，立即回到原卡槽并获得永久标记-2/-2，力量为1时，无法触发该异能</t>
+  </si>
+  <si>
+    <t>消耗1，召唤一个3/3的树人进入战场，可以放置于任何卡槽</t>
+  </si>
+  <si>
+    <t>每回合恢复所有生命值</t>
+  </si>
+  <si>
+    <t>技能</t>
+  </si>
+  <si>
+    <t>死亡时，对指定生物造成1点伤害</t>
+  </si>
+  <si>
     <t>不稳定</t>
   </si>
   <si>
-    <t>回合结束时，置于墓地</t>
-  </si>
-  <si>
-    <t>* 死亡召唤：死亡之后召唤一个1/1的水之魂回到原卡槽。水之魂具有不稳定：回合结束时，置于墓地</t>
-  </si>
-  <si>
-    <t>死亡召唤</t>
-  </si>
-  <si>
-    <t>死亡之后召唤一个生物回到原卡槽</t>
-  </si>
-  <si>
-    <t>防御者</t>
-  </si>
-  <si>
-    <t>无法攻击</t>
-  </si>
-  <si>
-    <t>Combat</t>
-  </si>
-  <si>
-    <t>目标卡牌回到其拥有者手牌</t>
-  </si>
-  <si>
-    <t>退回</t>
-  </si>
-  <si>
-    <t>* 回收：将一个你控制的蓝色生物置于墓地并获得2个符文</t>
-  </si>
-  <si>
-    <t>* 学识：你抽1张牌</t>
-  </si>
-  <si>
-    <t>* 衰弱：战斗时，敌方生物力量-1</t>
-  </si>
-  <si>
-    <t>衰弱</t>
-  </si>
-  <si>
-    <t>学识</t>
-  </si>
-  <si>
-    <t>回收</t>
-  </si>
-  <si>
-    <t>将一个你控制的指定颜色生物置于墓地并获得X个符文</t>
-  </si>
-  <si>
-    <t>* 流放：目标生物将不参与战斗，直到施法者的回合结束</t>
-  </si>
-  <si>
-    <t>流放</t>
-  </si>
-  <si>
-    <t>* 嘲讽：对位生物每回合必须进攻</t>
-  </si>
-  <si>
-    <t>嘲讽</t>
-  </si>
-  <si>
-    <t>对位生物每回合必须进攻</t>
-  </si>
-  <si>
-    <t>幽灵</t>
-  </si>
-  <si>
-    <t>* 吸血：进攻时，获得1点生命</t>
-  </si>
-  <si>
-    <t>吸血</t>
-  </si>
-  <si>
-    <t>进攻时，获得X点生命</t>
-  </si>
-  <si>
-    <t>package</t>
-  </si>
-  <si>
-    <t>Aether</t>
-  </si>
-  <si>
-    <t>Boundary</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>* 移除目标生物身上所有附魔效果，然后你可以对目标生物造成2点伤害，每个移除的附魔效果令伤害+1</t>
-  </si>
-  <si>
-    <t>* 寒冰山猫上场时，冻结对位卡槽和与其所在卡槽颜色相同的敌方生物，直到该玩家的回合结束阶段</t>
-  </si>
-  <si>
-    <t>* 幽灵：无法被攻击，无法被防御</t>
-  </si>
-  <si>
-    <t>* 退回：目标卡牌回到其拥有者手牌 * 学识：你抽1张牌</t>
-  </si>
-  <si>
-    <t>* 衰弱：目标生物力量为0，直到回合结束</t>
-  </si>
-  <si>
-    <t>* 支配：目标生物对其拥有者造成一次攻击</t>
-  </si>
-  <si>
-    <t>* 将一个你控制的生物以及所有位于与其卡槽颜色相同的生物退回各自拥有者手牌，所影响的卡槽被锁定，无法召唤生物，直到你的回合开始阶段</t>
-  </si>
-  <si>
-    <t>* 攻击时，将敌方力量或者防御不大于冰行者防御的生物退回，被退回的生物直接对其所有者攻击一次</t>
-  </si>
-  <si>
-    <t>* 上场时，催眠与其所在卡槽颜色相同的生物，在目标生物的战斗回合，直接对其所有者攻击一次 * 催眠师进入墓地时，此效果消失</t>
-  </si>
-  <si>
-    <t>* 回合结束时，若本回合没有参与战斗，额外抽一张卡 * 攻击时，流放任一个敌方目标</t>
-  </si>
-  <si>
-    <t>* 死亡时，成为附魔效果，目标生物力量-6</t>
-  </si>
-  <si>
-    <t>* 上场时，指定一个敌方卡槽，在敌方玩家的每个开始回合力量-2 * 海龙死亡后该效果消失</t>
-  </si>
-  <si>
-    <t>* 上场时和每回合开始时，对位卡槽中的生物对其所有者攻击一次</t>
-  </si>
-  <si>
-    <t>生物力量-X</t>
-  </si>
-  <si>
-    <t>抽X张牌</t>
-  </si>
-  <si>
-    <t>生物将不参与战斗，直到所有者的回合结束</t>
-  </si>
-  <si>
-    <t>无法被攻击，无法被防御</t>
-  </si>
-  <si>
-    <t>法术护盾</t>
-  </si>
-  <si>
-    <t>成为法术的目标时，法术失效</t>
-  </si>
-  <si>
-    <t>驱散</t>
-  </si>
-  <si>
-    <t>移除目标身上的X个附魔效果</t>
-  </si>
-  <si>
-    <t>法术攻击</t>
-  </si>
-  <si>
-    <t>对生物或者玩家造成X点伤害</t>
-  </si>
-  <si>
-    <t>冻结</t>
-  </si>
-  <si>
-    <t>生物的战斗回合无法行动</t>
-  </si>
-  <si>
-    <t>支配</t>
-  </si>
-  <si>
-    <t>生物对其所有者攻击一次</t>
-  </si>
-  <si>
-    <t>复制</t>
-  </si>
-  <si>
-    <t>复制目标生物的属性和异能</t>
-  </si>
-  <si>
-    <t>卡槽锁定</t>
-  </si>
-  <si>
-    <t>卡槽无法召唤生物</t>
-  </si>
-  <si>
-    <t>失控</t>
-  </si>
-  <si>
-    <t>在生物的战斗回合，无法被玩家控制</t>
-  </si>
-  <si>
-    <t>卡槽衰弱</t>
-  </si>
-  <si>
-    <t>卡槽内的生物力量-X</t>
-  </si>
-  <si>
-    <t>* 目标生物所在卡槽被视为绿色</t>
-  </si>
-  <si>
-    <t>* 进入墓地时，你恢复生命值，数量等于可食用藤蔓的防御</t>
-  </si>
-  <si>
-    <t>* 置于绿色卡槽时，+1/0</t>
-  </si>
-  <si>
-    <t>* 进场时，目标生物+1/1，直到回合结束</t>
-  </si>
-  <si>
-    <t>* 冻结自身：目标生物+1/1，直到回合结束</t>
-  </si>
-  <si>
-    <t>* 你的所有其它绿色生物+1/1</t>
-  </si>
-  <si>
-    <t>* 使一个你的单位立即和对位卡槽的生物一次，如果对位卡槽没有单位，攻击对方玩家</t>
-  </si>
-  <si>
-    <t>* 你的所有绿色卡槽的生物+2/2，直到回合结束</t>
-  </si>
-  <si>
-    <t>* 生长：在你的回合开始阶段，如果你的绿色卡槽有生物，获得+1/1</t>
-  </si>
-  <si>
-    <t>* 目标生物获得嘲讽，+1/3</t>
-  </si>
-  <si>
-    <t>* 冻结自身，消耗2：为一个生物+2/2或者治疗玩家3点生命值</t>
-  </si>
-  <si>
-    <t>* 每次战斗后获得+1/0</t>
-  </si>
-  <si>
-    <t>沼泽多头蛇</t>
-  </si>
-  <si>
-    <t>* 进入墓地时将手牌中的任一张生物卡置于远古树精的卡槽</t>
-  </si>
-  <si>
-    <t>* 不死：进入墓地时，立即回到原卡槽并获得永久标记-1/-1，力量为1时，无法触发不死效果</t>
-  </si>
-  <si>
-    <t>* 消耗1：召唤一个3/3的树人进入战场，可以放置于任何卡槽</t>
-  </si>
-  <si>
-    <t>* 死亡时，对指定生物造成1点伤害</t>
-  </si>
-  <si>
-    <t>* 死亡时，目标生物获得+1/+0，直到回合结束</t>
-  </si>
-  <si>
-    <t>* 对目标元素师或者生物造成2点伤害</t>
-  </si>
-  <si>
-    <t>* 对1个元素师或者生物造成1点伤害，然后重新指定1个元素师或者生物造成1点伤害，可以重复指定</t>
-  </si>
-  <si>
-    <t>* 不稳定 * 迅捷</t>
-  </si>
-  <si>
-    <t>* 对目标元素师的所有生物造成2点伤害</t>
-  </si>
-  <si>
-    <t>* 本回合中，你的每一个死亡的红色生物会为熔火暴徒+1/+0</t>
-  </si>
-  <si>
-    <t>* 对目标生物造成3点伤害，如果目标因此而死亡，你增加1个符文</t>
-  </si>
-  <si>
-    <t>纵火者</t>
-  </si>
-  <si>
-    <t>* 牺牲一个你的红色生物，对目标生物或者玩家造成牺牲掉生物的力量+3点伤害</t>
-  </si>
-  <si>
-    <t>献祭</t>
-  </si>
-  <si>
-    <t>* 对目标生物造成5点伤害.</t>
-  </si>
-  <si>
-    <t>* 将墓地中的红色生物置于手牌，生物的总消耗不大于4</t>
-  </si>
-  <si>
-    <t>* 每当你打出一张红色卡牌，纵火者对目标生物造成1点伤害</t>
-  </si>
-  <si>
-    <t>* 消耗X：获得+X/0</t>
-  </si>
-  <si>
-    <t>* 对战场上所有生物和元素师造成3点伤害</t>
-  </si>
-  <si>
-    <t>* 己方的红色卡槽内生物获得法术免疫</t>
-  </si>
-  <si>
-    <t>* 死亡时若前方没有阻挡生物，对目标元素师造成等同于灰烬暴君力量的伤害</t>
-  </si>
-  <si>
-    <t>* 对目标生物或者玩家造成4点伤害，你所操控的每一个红色生物对你的目标造成1点伤害 * 法术大师：法术置于墓地时，回到手牌</t>
-  </si>
-  <si>
-    <t>* 对目标玩家造成5点伤害，在同一回合，你每有一个红色生物进入墓地，纵火的符文消耗减少1点，伤害+1</t>
-  </si>
-  <si>
-    <t>* 火焰吐息F：对目标生物造成2点伤害</t>
-  </si>
-  <si>
-    <t>* 牺牲一个红色生物, 为炎魔领主+2/+1</t>
-  </si>
-  <si>
-    <t>* 附魔的生物无法被防御，也无法防御任何生物 * 附魔的生物成为法术的目标时，附魔的生物受到1点伤害，然后气化被置于墓地</t>
-  </si>
-  <si>
-    <t>* 如果空气元素所在卡槽颜色不是白色，将空气元素置于墓地并对目标生物或者元素师造成1点伤害</t>
-  </si>
-  <si>
-    <t>* 防御者 * 战斗时，进攻的生物获得-3/-0</t>
-  </si>
-  <si>
-    <t>* 目标生物获得先攻，直到回合结束</t>
-  </si>
-  <si>
-    <t>* 进场时，立即对对位生物造成1点伤害，如果对位卡槽没有生物，对目标玩家造成1点伤害</t>
-  </si>
-  <si>
-    <t>* 战斗开始前可以迁移到另外一个你的卡槽，如果目标卡槽有生物，位面之兽与目标卡槽的生物交换位置</t>
-  </si>
-  <si>
-    <t>* 进入白色卡槽时，获得+0/+1，被冻结 * 进入非白色卡槽时，对目标元素师造成2点伤害</t>
-  </si>
-  <si>
-    <t>空气之盾</t>
-  </si>
-  <si>
-    <t>* 生物受到伤害时，该伤害效果失效，空气之盾被置于墓地</t>
-  </si>
-  <si>
-    <t>神灯</t>
-  </si>
-  <si>
-    <t>* 战场上的每个你的白色生物会使神灯的耗费-1 * 场上有至少3个你的白色生物时，如果神灯在墓地中，将神灯洗入牌库</t>
-  </si>
-  <si>
-    <t>高塔法师</t>
-  </si>
-  <si>
-    <t>* 进入战场时，所有敌方生物下回合无法攻击</t>
-  </si>
-  <si>
-    <t>* 附魔的生物死亡时，对目标元素师造成一次攻击伤害，然后回到手牌</t>
-  </si>
-  <si>
-    <t>* 如果附魔的生物因战斗而死亡，对目标造成伤害，其值为敌对生物的力量值，妄想之境重新附魔到你的另外一个生物</t>
-  </si>
-  <si>
-    <t>* 可以攻击两次</t>
-  </si>
-  <si>
-    <t>Elemental</t>
-  </si>
-  <si>
-    <t>* 先攻：进攻时，你首先对敌人造成伤害并结算，然后敌人对你造成伤害并结算</t>
-  </si>
-  <si>
-    <t>* 虚幻武士位于白色卡槽进攻时，你选择一个元素生物对虚幻武士的目标攻击一次</t>
-  </si>
-  <si>
-    <t>* 战斗时，对战斗目标的拥有者造成1次攻击伤害</t>
+    <t>回合结束时，进入墓地</t>
+  </si>
+  <si>
+    <t>迅捷</t>
+  </si>
+  <si>
+    <t>进入战场的回合可以进行攻击</t>
+  </si>
+  <si>
+    <t>2000042;2000043</t>
+  </si>
+  <si>
+    <t>对目标元素师或者生物造成2点伤害</t>
+  </si>
+  <si>
+    <t>对1个玩家或者生物造成1点伤害，然后重新指定1个玩家或者生物造成1点伤害，可以重复指定</t>
+  </si>
+  <si>
+    <t>本回合中，你的每一个死亡的红色生物会为熔火暴徒+1/+0</t>
+  </si>
+  <si>
+    <t>在回合开始阶段，对附魔的卡槽内生物造成1点伤害，如果卡槽内没有生物，对卡槽所属玩家造成1点伤害</t>
+  </si>
+  <si>
+    <t>对目标玩家的所有生物造成2点伤害</t>
+  </si>
+  <si>
+    <t>对目标生物造成3点伤害，如果目标因此而死亡，你增加1个符文</t>
+  </si>
+  <si>
+    <t>每当你打出一张红色卡牌，纵火者对目标生物造成1点伤害</t>
+  </si>
+  <si>
+    <t>牺牲一个你的红色生物，对目标生物或者玩家造成牺牲掉生物的力量+3点伤害</t>
+  </si>
+  <si>
+    <t>将墓地中的红色生物置于手牌，生物的总消耗不大于4</t>
+  </si>
+  <si>
+    <t>对战场上所有生物和玩家造成3点伤害</t>
+  </si>
+  <si>
+    <t>立即杀死一个没有位于红色卡槽的生物</t>
+  </si>
+  <si>
+    <t>己方的红色卡槽内生物获得法术免疫</t>
+  </si>
+  <si>
+    <t>对目标生物或者玩家造成4点伤害，你所操控的每一个红色生物对你的目标造成1点伤害</t>
+  </si>
+  <si>
+    <t>法术置于墓地时，回到手牌</t>
+  </si>
+  <si>
+    <t>法术大师</t>
+  </si>
+  <si>
+    <t>2000057;2000058</t>
+  </si>
+  <si>
+    <t>死亡时若前方没有阻挡生物，对目标元素师造成等同于灰烬暴君力量的伤害</t>
+  </si>
+  <si>
+    <t>对目标玩家造成5点伤害，在同一回合，你每有一个红色生物进入墓地，纵火的符文消耗减少1点，伤害+1</t>
+  </si>
+  <si>
+    <t>消耗1，对目标生物造成2点伤害</t>
+  </si>
+  <si>
+    <t>消耗X，获得+X/0</t>
+  </si>
+  <si>
+    <t>牺牲一个红色生物, 为炎魔领主+2/+1</t>
+  </si>
+  <si>
+    <t>如果空气元素所在卡槽颜色不是白色，将空气元素置于墓地并对目标生物或者玩家造成1点伤害</t>
+  </si>
+  <si>
+    <t>战斗开始前可以迁移到另外一个你的卡槽，如果目标卡槽有生物，位面之兽与目标卡槽的生物交换位置</t>
+  </si>
+  <si>
+    <t>附魔的卡槽内生物无法被防御，也无法防御任何生物。附魔的生物成为法术的目标时，附魔的生物受到1点伤害，然后气化被置于墓地</t>
+  </si>
+  <si>
+    <t>将目标生物转移至其拥有者的另外一个卡槽</t>
+  </si>
+  <si>
+    <t>进入战场时，立即对对位生物造成1点伤害，如果对位卡槽没有生物，对目标玩家造成1点伤害</t>
+  </si>
+  <si>
+    <t>战斗时，敌方生物获得-3/-0</t>
+  </si>
+  <si>
+    <t>2000068;2000001</t>
+  </si>
+  <si>
+    <t>气元素暗杀者无法被位于白色卡槽的生物防御</t>
+  </si>
+  <si>
+    <t>目标生物获得先攻，直到回合结束</t>
+  </si>
+  <si>
+    <t>进入白色卡槽时，获得+0/+1，被冻结</t>
+  </si>
+  <si>
+    <t>进入非白色卡槽时，对目标元素师造成2点伤害</t>
+  </si>
+  <si>
+    <t>2000071;2000072</t>
+  </si>
+  <si>
+    <t>战场上的每个你的白色生物会使神灯的耗费-1</t>
+  </si>
+  <si>
+    <t>在你的回合结束阶段，如果战场上有至少3个你的白色生物，将神灯洗入牌库</t>
+  </si>
+  <si>
+    <t>2000073;2000074</t>
+  </si>
+  <si>
+    <t>附魔的卡槽内生物受到伤害时，该伤害效果失效，空气之盾被置于墓地</t>
+  </si>
+  <si>
+    <t>进入战场时，所有敌方生物下回合无法攻击</t>
+  </si>
+  <si>
+    <t>附魔的生物死亡时，对目标玩家造成一次攻击伤害，然后回到手牌</t>
+  </si>
+  <si>
+    <t>暗杀</t>
+  </si>
+  <si>
+    <t>无法被防御</t>
+  </si>
+  <si>
+    <t>附魔的卡槽内生物因战斗而死亡时，对目标玩家造成伤害，其值为敌对生物的力量值，妄想之境重新附魔到你的另外一个卡槽</t>
+  </si>
+  <si>
+    <t>虚幻武士位于白色卡槽进攻时，你选择一个元素生物对虚幻武士的目标攻击一次</t>
+  </si>
+  <si>
+    <t>可以攻击两次</t>
+  </si>
+  <si>
+    <t>先攻</t>
+  </si>
+  <si>
+    <t>战斗时，对战斗目标的拥有者造成1次攻击伤害</t>
+  </si>
+  <si>
+    <t>战斗时，你首先对敌人造成伤害并结算，然后敌人对你造成伤害并结算</t>
   </si>
 </sst>
 </file>
@@ -1589,7 +1787,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1630,6 +1828,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1969,13 +2170,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1" filterMode="1"/>
-  <dimension ref="A1:P1000"/>
+  <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J1002" sqref="J1002"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1992,64 +2190,68 @@
     <col min="10" max="10" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="88.5703125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="70.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="2"/>
+    <col min="13" max="13" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="88.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="70.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:17" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1000124</v>
       </c>
@@ -2063,7 +2265,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>90</v>
@@ -2086,14 +2288,15 @@
       <c r="L2" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="N2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>371</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1000125</v>
       </c>
@@ -2104,7 +2307,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>90</v>
@@ -2128,7 +2331,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>1000126</v>
       </c>
@@ -2142,7 +2345,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>90</v>
@@ -2166,21 +2369,21 @@
         <v>244</v>
       </c>
     </row>
-    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1000132</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>322</v>
-      </c>
       <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>91</v>
@@ -2204,21 +2407,21 @@
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>1000136</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>342</v>
-      </c>
       <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>91</v>
@@ -2242,7 +2445,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>1000002</v>
       </c>
@@ -2256,7 +2459,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>90</v>
@@ -2276,12 +2479,13 @@
       <c r="L7" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="M7" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="P7" s="3"/>
-    </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M7" s="4"/>
+      <c r="N7" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1000023</v>
       </c>
@@ -2295,7 +2499,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>90</v>
@@ -2315,12 +2519,15 @@
       <c r="L8" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="M8" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M8" s="12">
+        <v>2000001</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>1000008</v>
       </c>
@@ -2334,7 +2541,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>92</v>
@@ -2354,14 +2561,17 @@
       <c r="L9" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="M9" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="P9" s="4" t="s">
+      <c r="M9">
+        <v>2000041</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q9" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>1000118</v>
       </c>
@@ -2375,7 +2585,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>90</v>
@@ -2396,7 +2606,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>1000119</v>
       </c>
@@ -2410,7 +2620,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>90</v>
@@ -2428,13 +2638,16 @@
         <v>1</v>
       </c>
       <c r="L11" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="M11" s="12">
+        <v>2000002</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="M11" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>1000006</v>
       </c>
@@ -2448,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>91</v>
@@ -2468,12 +2681,15 @@
       <c r="L12" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="M12" s="12" t="s">
-        <v>441</v>
-      </c>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M12" s="4">
+        <v>2000022</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>1000014</v>
       </c>
@@ -2487,7 +2703,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>91</v>
@@ -2507,12 +2723,13 @@
       <c r="L13" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="M13" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="P13" s="4"/>
-    </row>
-    <row r="14" spans="1:16" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="4"/>
+      <c r="N13" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q13" s="4"/>
+    </row>
+    <row r="14" spans="1:17" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>1000053</v>
       </c>
@@ -2526,7 +2743,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>91</v>
@@ -2547,28 +2764,31 @@
       <c r="L14" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="M14" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="N14" s="2"/>
+      <c r="M14" s="2">
+        <v>2000023</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>409</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>1000128</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>313</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>91</v>
@@ -2589,21 +2809,21 @@
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>1000129</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>315</v>
-      </c>
       <c r="D16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>91</v>
@@ -2623,11 +2843,14 @@
       <c r="L16" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="M16" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>2000024</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>1000075</v>
       </c>
@@ -2641,7 +2864,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>92</v>
@@ -2661,11 +2884,11 @@
       <c r="L17" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="M17" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N17" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>1000076</v>
       </c>
@@ -2679,7 +2902,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>92</v>
@@ -2699,11 +2922,14 @@
       <c r="L18" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="M18" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>516</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>1000095</v>
       </c>
@@ -2717,7 +2943,7 @@
         <v>2</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>93</v>
@@ -2726,7 +2952,7 @@
         <v>94</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>494</v>
+        <v>461</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
@@ -2740,11 +2966,14 @@
       <c r="L19" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="M19" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>2000063</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>1000096</v>
       </c>
@@ -2758,7 +2987,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>93</v>
@@ -2778,11 +3007,14 @@
       <c r="L20" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="M20" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>2000064</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>1000097</v>
       </c>
@@ -2796,7 +3028,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>93</v>
@@ -2816,11 +3048,11 @@
       <c r="L21" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="N21" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>1000007</v>
       </c>
@@ -2834,7 +3066,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>91</v>
@@ -2854,12 +3086,13 @@
       <c r="L22" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="M22" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="4"/>
+      <c r="N22" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>1000101</v>
       </c>
@@ -2873,7 +3106,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>93</v>
@@ -2887,11 +3120,14 @@
       <c r="L23" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M23" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <v>2000065</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>1000102</v>
       </c>
@@ -2905,7 +3141,7 @@
         <v>2</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>93</v>
@@ -2919,11 +3155,11 @@
       <c r="L24" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="N24" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>1000028</v>
       </c>
@@ -2937,7 +3173,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>90</v>
@@ -2953,12 +3189,15 @@
       <c r="L25" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="M25" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M25" s="12">
+        <v>2000003</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>1000123</v>
       </c>
@@ -2972,7 +3211,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>90</v>
@@ -2986,11 +3225,14 @@
       <c r="L26" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M26" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M26" s="2">
+        <v>2000004</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>1000032</v>
       </c>
@@ -3004,7 +3246,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>92</v>
@@ -3020,12 +3262,15 @@
       <c r="L27" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="M27" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="P27" s="4"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <v>2000044</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q27" s="4"/>
+    </row>
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>1000033</v>
       </c>
@@ -3039,7 +3284,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>92</v>
@@ -3055,12 +3300,15 @@
       <c r="L28" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="M28" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <v>2000045</v>
+      </c>
+      <c r="N28" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>1000037</v>
       </c>
@@ -3074,7 +3322,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>93</v>
@@ -3090,12 +3338,13 @@
       <c r="L29" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="M29" s="12" t="s">
+      <c r="M29" s="3"/>
+      <c r="N29" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="1:16" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="1:17" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>1000051</v>
       </c>
@@ -3109,7 +3358,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>92</v>
@@ -3126,14 +3375,15 @@
       <c r="L30" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="M30" s="12" t="s">
+      <c r="M30" s="4"/>
+      <c r="N30" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-      <c r="P30" s="3"/>
-    </row>
-    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P30" s="2"/>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>1000055</v>
       </c>
@@ -3147,7 +3397,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>91</v>
@@ -3164,14 +3414,15 @@
       <c r="L31" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="M31" s="6" t="s">
+      <c r="M31" s="6"/>
+      <c r="N31" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="N31" s="6"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
-    </row>
-    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q31" s="6"/>
+    </row>
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>1000056</v>
       </c>
@@ -3185,7 +3436,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>91</v>
@@ -3199,11 +3450,14 @@
       <c r="L32" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M32" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <v>2000025</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>1000009</v>
       </c>
@@ -3217,7 +3471,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>92</v>
@@ -3237,12 +3491,13 @@
       <c r="L33" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="M33" s="12" t="s">
+      <c r="M33" s="4"/>
+      <c r="N33" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="P33" s="3"/>
-    </row>
-    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>1000099</v>
       </c>
@@ -3256,7 +3511,7 @@
         <v>2</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>93</v>
@@ -3270,11 +3525,14 @@
       <c r="L34" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M34" s="2" t="s">
+      <c r="M34">
+        <v>2000066</v>
+      </c>
+      <c r="N34" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>1000100</v>
       </c>
@@ -3288,7 +3546,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>93</v>
@@ -3302,11 +3560,11 @@
       <c r="L35" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M35" s="2" t="s">
+      <c r="N35" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>1000046</v>
       </c>
@@ -3320,7 +3578,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>90</v>
@@ -3336,12 +3594,13 @@
       <c r="L36" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="M36" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="P36" s="3"/>
-    </row>
-    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M36" s="4"/>
+      <c r="N36" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q36" s="3"/>
+    </row>
+    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>1000015</v>
       </c>
@@ -3355,7 +3614,7 @@
         <v>2</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>92</v>
@@ -3375,12 +3634,13 @@
       <c r="L37" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="M37" s="12" t="s">
+      <c r="M37" s="4"/>
+      <c r="N37" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="P37" s="3"/>
-    </row>
-    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q37" s="3"/>
+    </row>
+    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>1000049</v>
       </c>
@@ -3394,7 +3654,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>92</v>
@@ -3414,12 +3674,13 @@
       <c r="L38" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="M38" s="12" t="s">
+      <c r="M38" s="4"/>
+      <c r="N38" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="P38" s="3"/>
-    </row>
-    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q38" s="3"/>
+    </row>
+    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>1000011</v>
       </c>
@@ -3433,7 +3694,7 @@
         <v>2</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>90</v>
@@ -3453,12 +3714,15 @@
       <c r="L39" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="M39" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M39" s="12">
+        <v>2000005</v>
+      </c>
+      <c r="N39" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>1000078</v>
       </c>
@@ -3472,7 +3736,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>92</v>
@@ -3492,25 +3756,28 @@
       <c r="L40" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="M40" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <v>2000046</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>1000052</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="D41" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>91</v>
@@ -3519,7 +3786,7 @@
         <v>94</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I41" s="2">
         <v>2</v>
@@ -3534,7 +3801,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>1000058</v>
       </c>
@@ -3548,7 +3815,7 @@
         <v>2</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>91</v>
@@ -3557,7 +3824,7 @@
         <v>94</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I42" s="2">
         <v>2</v>
@@ -3571,11 +3838,11 @@
       <c r="L42" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="M42" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N42" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>1000060</v>
       </c>
@@ -3589,7 +3856,7 @@
         <v>2</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>91</v>
@@ -3609,11 +3876,14 @@
       <c r="L43" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="M43" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <v>2000026</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>1000065</v>
       </c>
@@ -3627,7 +3897,7 @@
         <v>2</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>91</v>
@@ -3647,11 +3917,14 @@
       <c r="L44" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="M44" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <v>2000027</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>1000035</v>
       </c>
@@ -3665,7 +3938,7 @@
         <v>2</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>92</v>
@@ -3681,12 +3954,15 @@
       <c r="L45" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="M45" s="12" t="s">
+      <c r="M45">
+        <v>2000047</v>
+      </c>
+      <c r="N45" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="P45" s="3"/>
-    </row>
-    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q45" s="3"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>1000103</v>
       </c>
@@ -3700,7 +3976,7 @@
         <v>2</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>93</v>
@@ -3709,7 +3985,7 @@
         <v>94</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>494</v>
+        <v>461</v>
       </c>
       <c r="I46" s="2">
         <v>2</v>
@@ -3723,11 +3999,14 @@
       <c r="L46" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="M46" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <v>2000067</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>1000105</v>
       </c>
@@ -3741,7 +4020,7 @@
         <v>2</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>93</v>
@@ -3761,11 +4040,14 @@
       <c r="L47" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="M47" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M47" t="s">
+        <v>544</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>1000106</v>
       </c>
@@ -3779,7 +4061,7 @@
         <v>2</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>93</v>
@@ -3788,7 +4070,7 @@
         <v>94</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>494</v>
+        <v>461</v>
       </c>
       <c r="I48" s="2">
         <v>2</v>
@@ -3802,11 +4084,14 @@
       <c r="L48" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="M48" s="2" t="s">
+      <c r="M48">
+        <v>2000069</v>
+      </c>
+      <c r="N48" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>1000005</v>
       </c>
@@ -3820,7 +4105,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>90</v>
@@ -3840,14 +4125,15 @@
       <c r="L49" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="M49" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="P49" s="3" t="s">
+      <c r="M49" s="4"/>
+      <c r="N49" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q49" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>1000013</v>
       </c>
@@ -3861,7 +4147,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>90</v>
@@ -3881,12 +4167,13 @@
       <c r="L50" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="M50" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="P50" s="3"/>
-    </row>
-    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M50" s="4"/>
+      <c r="N50" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q50" s="3"/>
+    </row>
+    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>1000030</v>
       </c>
@@ -3900,7 +4187,7 @@
         <v>2</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>90</v>
@@ -3916,12 +4203,15 @@
       <c r="L51" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="M51" s="12" t="s">
+      <c r="M51" s="16">
+        <v>2000006</v>
+      </c>
+      <c r="N51" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="P51" s="3"/>
-    </row>
-    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q51" s="3"/>
+    </row>
+    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>1000080</v>
       </c>
@@ -3935,7 +4225,7 @@
         <v>2</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>92</v>
@@ -3949,11 +4239,11 @@
       <c r="L52" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M52" s="2" t="s">
+      <c r="N52" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>1000031</v>
       </c>
@@ -3967,7 +4257,7 @@
         <v>2</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>91</v>
@@ -3983,12 +4273,15 @@
       <c r="L53" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="M53" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="P53" s="3"/>
-    </row>
-    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M53">
+        <v>2000028</v>
+      </c>
+      <c r="N53" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q53" s="3"/>
+    </row>
+    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>1000079</v>
       </c>
@@ -4002,7 +4295,7 @@
         <v>2</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>92</v>
@@ -4016,11 +4309,11 @@
       <c r="L54" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M54" s="2" t="s">
+      <c r="N54" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>1000043</v>
       </c>
@@ -4034,7 +4327,7 @@
         <v>2</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>90</v>
@@ -4051,11 +4344,14 @@
         <v>95</v>
       </c>
       <c r="M55" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="1:16" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+      <c r="N55" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="1:17" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>1000004</v>
       </c>
@@ -4069,7 +4365,7 @@
         <v>2</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F56" s="9" t="s">
         <v>90</v>
@@ -4086,14 +4382,17 @@
       <c r="L56" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="M56" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="N56" s="8"/>
+      <c r="M56" s="13">
+        <v>2000008</v>
+      </c>
+      <c r="N56" s="13" t="s">
+        <v>398</v>
+      </c>
       <c r="O56" s="8"/>
-      <c r="P56" s="10"/>
-    </row>
-    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P56" s="8"/>
+      <c r="Q56" s="10"/>
+    </row>
+    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>1000029</v>
       </c>
@@ -4107,7 +4406,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>90</v>
@@ -4123,14 +4422,15 @@
       <c r="L57" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="M57" s="12" t="s">
+      <c r="M57" s="3"/>
+      <c r="N57" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="O57" s="3" t="s">
+      <c r="P57" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>1000038</v>
       </c>
@@ -4144,7 +4444,7 @@
         <v>2</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>93</v>
@@ -4160,12 +4460,13 @@
       <c r="L58" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="M58" s="12" t="s">
+      <c r="M58" s="4"/>
+      <c r="N58" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="P58" s="3"/>
-    </row>
-    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q58" s="3"/>
+    </row>
+    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>1000062</v>
       </c>
@@ -4179,7 +4480,7 @@
         <v>2</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>91</v>
@@ -4193,11 +4494,14 @@
       <c r="L59" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M59" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M59">
+        <v>2000029</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>1000081</v>
       </c>
@@ -4211,7 +4515,7 @@
         <v>2</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>92</v>
@@ -4225,11 +4529,14 @@
       <c r="L60" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M60" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M60">
+        <v>2000048</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>1000083</v>
       </c>
@@ -4243,7 +4550,7 @@
         <v>2</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>92</v>
@@ -4257,16 +4564,19 @@
       <c r="L61" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M61" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M61">
+        <v>2000049</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>1000050</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>464</v>
+        <v>431</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>88</v>
@@ -4275,7 +4585,7 @@
         <v>2</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>92</v>
@@ -4295,12 +4605,15 @@
       <c r="L62" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="M62" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="P62" s="3"/>
-    </row>
-    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M62">
+        <v>2000050</v>
+      </c>
+      <c r="N62" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q62" s="3"/>
+    </row>
+    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>1000107</v>
       </c>
@@ -4314,7 +4627,7 @@
         <v>2</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>93</v>
@@ -4328,11 +4641,11 @@
       <c r="L63" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M63" s="2" t="s">
+      <c r="N63" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>1000108</v>
       </c>
@@ -4346,7 +4659,7 @@
         <v>2</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>93</v>
@@ -4360,11 +4673,11 @@
       <c r="L64" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M64" s="2" t="s">
+      <c r="N64" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>1000109</v>
       </c>
@@ -4378,7 +4691,7 @@
         <v>2</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>93</v>
@@ -4392,11 +4705,14 @@
       <c r="L65" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M65" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M65">
+        <v>2000070</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>1000010</v>
       </c>
@@ -4410,7 +4726,7 @@
         <v>2</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>90</v>
@@ -4430,12 +4746,15 @@
       <c r="L66" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="M66" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="P66" s="3"/>
-    </row>
-    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M66" s="12">
+        <v>2000009</v>
+      </c>
+      <c r="N66" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q66" s="3"/>
+    </row>
+    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>1000016</v>
       </c>
@@ -4449,7 +4768,7 @@
         <v>3</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>90</v>
@@ -4469,12 +4788,13 @@
       <c r="L67" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="M67" s="12" t="s">
+      <c r="M67" s="4"/>
+      <c r="N67" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>1000017</v>
       </c>
@@ -4488,7 +4808,7 @@
         <v>1</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>90</v>
@@ -4508,12 +4828,13 @@
       <c r="L68" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="M68" s="12" t="s">
+      <c r="M68" s="4"/>
+      <c r="N68" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="P68" s="3"/>
-    </row>
-    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q68" s="3"/>
+    </row>
+    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>1000085</v>
       </c>
@@ -4527,7 +4848,7 @@
         <v>2</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>92</v>
@@ -4547,11 +4868,11 @@
       <c r="L69" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="M69" s="2" t="s">
+      <c r="N69" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>1000018</v>
       </c>
@@ -4565,7 +4886,7 @@
         <v>2</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>91</v>
@@ -4585,12 +4906,15 @@
       <c r="L70" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="M70" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="P70" s="3"/>
-    </row>
-    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M70">
+        <v>2000030</v>
+      </c>
+      <c r="N70" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q70" s="3"/>
+    </row>
+    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>1000059</v>
       </c>
@@ -4604,7 +4928,7 @@
         <v>2</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>91</v>
@@ -4613,7 +4937,7 @@
         <v>94</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I71" s="2">
         <v>3</v>
@@ -4628,7 +4952,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>1000067</v>
       </c>
@@ -4642,7 +4966,7 @@
         <v>3</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>91</v>
@@ -4651,7 +4975,7 @@
         <v>94</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I72" s="2">
         <v>3</v>
@@ -4665,11 +4989,11 @@
       <c r="L72" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="M72" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N72" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>1000086</v>
       </c>
@@ -4683,7 +5007,7 @@
         <v>2</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>92</v>
@@ -4703,11 +5027,11 @@
       <c r="L73" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="M73" s="2" t="s">
+      <c r="N73" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>1000036</v>
       </c>
@@ -4721,7 +5045,7 @@
         <v>2</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>92</v>
@@ -4737,12 +5061,13 @@
       <c r="L74" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="M74" s="12" t="s">
+      <c r="M74" s="3"/>
+      <c r="N74" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="P74" s="3"/>
-    </row>
-    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q74" s="3"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>1000112</v>
       </c>
@@ -4756,7 +5081,7 @@
         <v>2</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>93</v>
@@ -4765,7 +5090,7 @@
         <v>94</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>494</v>
+        <v>461</v>
       </c>
       <c r="I75" s="2">
         <v>3</v>
@@ -4779,11 +5104,14 @@
       <c r="L75" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="M75" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M75" t="s">
+        <v>549</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>1000012</v>
       </c>
@@ -4797,7 +5125,7 @@
         <v>100</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>90</v>
@@ -4813,17 +5141,18 @@
       <c r="L76" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="M76" s="12" t="s">
+      <c r="M76" s="4"/>
+      <c r="N76" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="P76" s="3"/>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q76" s="3"/>
+    </row>
+    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>1000077</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>466</v>
+        <v>433</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>202</v>
@@ -4832,7 +5161,7 @@
         <v>2</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>92</v>
@@ -4846,25 +5175,28 @@
       <c r="L77" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M77" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M77">
+        <v>2000051</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>1000063</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>91</v>
@@ -4878,11 +5210,11 @@
       <c r="L78" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M78" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N78" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>1000040</v>
       </c>
@@ -4896,7 +5228,7 @@
         <v>2</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>90</v>
@@ -4912,12 +5244,15 @@
       <c r="L79" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="M79" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="P79" s="3"/>
-    </row>
-    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M79" s="12">
+        <v>2000010</v>
+      </c>
+      <c r="N79" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q79" s="3"/>
+    </row>
+    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>1000003</v>
       </c>
@@ -4931,7 +5266,7 @@
         <v>3</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F80" s="9" t="s">
         <v>90</v>
@@ -4948,14 +5283,15 @@
       <c r="L80" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="M80" s="13" t="s">
+      <c r="M80" s="9"/>
+      <c r="N80" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="N80" s="7"/>
       <c r="O80" s="7"/>
-      <c r="P80" s="10"/>
-    </row>
-    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P80" s="7"/>
+      <c r="Q80" s="10"/>
+    </row>
+    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>1000034</v>
       </c>
@@ -4969,7 +5305,7 @@
         <v>2</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>92</v>
@@ -4985,12 +5321,13 @@
       <c r="L81" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="M81" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="P81" s="3"/>
-    </row>
-    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M81" s="3"/>
+      <c r="N81" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q81" s="3"/>
+    </row>
+    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>1000048</v>
       </c>
@@ -5004,7 +5341,7 @@
         <v>2</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>90</v>
@@ -5020,23 +5357,26 @@
       <c r="L82" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="M82" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M82" s="12">
+        <v>2000011</v>
+      </c>
+      <c r="N82" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <v>1000137</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>487</v>
+        <v>454</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>93</v>
@@ -5056,11 +5396,14 @@
       <c r="L83" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="M83" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M83" t="s">
+        <v>552</v>
+      </c>
+      <c r="N83" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>1000054</v>
       </c>
@@ -5074,7 +5417,7 @@
         <v>2</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>91</v>
@@ -5088,11 +5431,14 @@
       <c r="L84" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M84" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M84">
+        <v>2000031</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>1000064</v>
       </c>
@@ -5106,7 +5452,7 @@
         <v>3</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>91</v>
@@ -5120,11 +5466,11 @@
       <c r="L85" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M85" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N85" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <v>1000068</v>
       </c>
@@ -5138,7 +5484,7 @@
         <v>3</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>91</v>
@@ -5152,11 +5498,11 @@
       <c r="L86" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M86" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N86" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <v>1000088</v>
       </c>
@@ -5170,7 +5516,7 @@
         <v>2</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>92</v>
@@ -5184,11 +5530,11 @@
       <c r="L87" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M87" s="2" t="s">
+      <c r="N87" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <v>1000089</v>
       </c>
@@ -5202,7 +5548,7 @@
         <v>2</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>92</v>
@@ -5216,11 +5562,11 @@
       <c r="L88" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M88" s="2" t="s">
+      <c r="N88" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>1000116</v>
       </c>
@@ -5234,7 +5580,7 @@
         <v>2</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>93</v>
@@ -5248,11 +5594,11 @@
       <c r="L89" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M89" s="2" t="s">
+      <c r="N89" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <v>1000092</v>
       </c>
@@ -5266,7 +5612,7 @@
         <v>2</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>92</v>
@@ -5280,11 +5626,14 @@
       <c r="L90" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M90" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M90">
+        <v>2000052</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <v>1000001</v>
       </c>
@@ -5298,7 +5647,7 @@
         <v>2</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>90</v>
@@ -5318,12 +5667,15 @@
       <c r="L91" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="M91" s="12" t="s">
+      <c r="M91" s="12">
+        <v>2000012</v>
+      </c>
+      <c r="N91" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="P91" s="3"/>
-    </row>
-    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q91" s="3"/>
+    </row>
+    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
         <v>1000020</v>
       </c>
@@ -5337,7 +5689,7 @@
         <v>2</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>90</v>
@@ -5357,12 +5709,15 @@
       <c r="L92" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="M92" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="P92" s="3"/>
-    </row>
-    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M92" s="12">
+        <v>2000013</v>
+      </c>
+      <c r="N92" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q92" s="3"/>
+    </row>
+    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <v>1000044</v>
       </c>
@@ -5376,7 +5731,7 @@
         <v>1</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>90</v>
@@ -5396,12 +5751,13 @@
       <c r="L93" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="M93" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="P93" s="3"/>
-    </row>
-    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M93" s="4"/>
+      <c r="N93" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q93" s="3"/>
+    </row>
+    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <v>1000061</v>
       </c>
@@ -5415,7 +5771,7 @@
         <v>2</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>91</v>
@@ -5435,11 +5791,11 @@
       <c r="L94" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="M94" s="2" t="s">
+      <c r="N94" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>1000066</v>
       </c>
@@ -5453,7 +5809,7 @@
         <v>2</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>91</v>
@@ -5473,11 +5829,14 @@
       <c r="L95" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="M95" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M95">
+        <v>2000032</v>
+      </c>
+      <c r="N95" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <v>1000070</v>
       </c>
@@ -5491,7 +5850,7 @@
         <v>2</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>91</v>
@@ -5511,11 +5870,11 @@
       <c r="L96" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="M96" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N96" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <v>1000071</v>
       </c>
@@ -5529,7 +5888,7 @@
         <v>2</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>91</v>
@@ -5549,16 +5908,19 @@
       <c r="L97" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="M97" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M97">
+        <v>2000033</v>
+      </c>
+      <c r="N97" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>1000041</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>485</v>
+        <v>452</v>
       </c>
       <c r="C98" s="12" t="s">
         <v>82</v>
@@ -5567,7 +5929,7 @@
         <v>2</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>93</v>
@@ -5583,12 +5945,15 @@
       <c r="L98" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="M98" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="P98" s="3"/>
-    </row>
-    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M98">
+        <v>2000075</v>
+      </c>
+      <c r="N98" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q98" s="3"/>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>1000098</v>
       </c>
@@ -5602,7 +5967,7 @@
         <v>2</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>93</v>
@@ -5611,7 +5976,7 @@
         <v>94</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>494</v>
+        <v>461</v>
       </c>
       <c r="I99" s="2">
         <v>4</v>
@@ -5625,11 +5990,14 @@
       <c r="L99" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="M99" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M99">
+        <v>2000076</v>
+      </c>
+      <c r="N99" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <v>1000057</v>
       </c>
@@ -5643,7 +6011,7 @@
         <v>2</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>91</v>
@@ -5657,11 +6025,14 @@
       <c r="L100" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M100" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M100">
+        <v>2000034</v>
+      </c>
+      <c r="N100" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>1000039</v>
       </c>
@@ -5675,7 +6046,7 @@
         <v>3</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>90</v>
@@ -5691,12 +6062,13 @@
       <c r="L101" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="M101" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="P101" s="3"/>
-    </row>
-    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M101" s="4"/>
+      <c r="N101" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q101" s="3"/>
+    </row>
+    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
         <v>1000042</v>
       </c>
@@ -5710,7 +6082,7 @@
         <v>2</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>90</v>
@@ -5726,12 +6098,15 @@
       <c r="L102" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="M102" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="P102" s="3"/>
-    </row>
-    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M102" s="12">
+        <v>2000014</v>
+      </c>
+      <c r="N102" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q102" s="3"/>
+    </row>
+    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <v>1000127</v>
       </c>
@@ -5745,7 +6120,7 @@
         <v>1</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>90</v>
@@ -5759,11 +6134,11 @@
       <c r="L103" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M103" s="2" t="s">
+      <c r="N103" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7">
         <v>1000073</v>
       </c>
@@ -5777,7 +6152,7 @@
         <v>2</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>91</v>
@@ -5791,11 +6166,11 @@
       <c r="L104" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M104" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N104" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
         <v>1000022</v>
       </c>
@@ -5809,7 +6184,7 @@
         <v>2</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>92</v>
@@ -5829,12 +6204,15 @@
       <c r="L105" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="M105" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="P105" s="3"/>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M105">
+        <v>2000053</v>
+      </c>
+      <c r="N105" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q105" s="3"/>
+    </row>
+    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7">
         <v>1000090</v>
       </c>
@@ -5848,7 +6226,7 @@
         <v>2</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>92</v>
@@ -5862,11 +6240,14 @@
       <c r="L106" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M106" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M106">
+        <v>2000054</v>
+      </c>
+      <c r="N106" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
         <v>1000091</v>
       </c>
@@ -5880,7 +6261,7 @@
         <v>2</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>92</v>
@@ -5894,11 +6275,14 @@
       <c r="L107" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M107" s="2" t="s">
+      <c r="M107">
+        <v>2000055</v>
+      </c>
+      <c r="N107" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7">
         <v>1000047</v>
       </c>
@@ -5912,7 +6296,7 @@
         <v>2</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>90</v>
@@ -5932,12 +6316,15 @@
       <c r="L108" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="M108" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="P108" s="3"/>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M108" s="12">
+        <v>2000015</v>
+      </c>
+      <c r="N108" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q108" s="3"/>
+    </row>
+    <row r="109" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
         <v>1000026</v>
       </c>
@@ -5951,7 +6338,7 @@
         <v>2</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>92</v>
@@ -5974,12 +6361,15 @@
       <c r="L109" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="M109" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="P109" s="3"/>
-    </row>
-    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M109">
+        <v>2000056</v>
+      </c>
+      <c r="N109" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q109" s="3"/>
+    </row>
+    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
         <v>1000021</v>
       </c>
@@ -5993,7 +6383,7 @@
         <v>3</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>90</v>
@@ -6013,12 +6403,13 @@
       <c r="L110" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="M110" s="12" t="s">
+      <c r="M110" s="4"/>
+      <c r="N110" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="P110" s="3"/>
-    </row>
-    <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q110" s="3"/>
+    </row>
+    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
         <v>1000024</v>
       </c>
@@ -6032,7 +6423,7 @@
         <v>100</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>90</v>
@@ -6052,12 +6443,13 @@
       <c r="L111" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="M111" s="12" t="s">
+      <c r="M111" s="4"/>
+      <c r="N111" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="P111" s="3"/>
-    </row>
-    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q111" s="3"/>
+    </row>
+    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7">
         <v>1000025</v>
       </c>
@@ -6071,7 +6463,7 @@
         <v>2</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>91</v>
@@ -6091,26 +6483,29 @@
       <c r="L112" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="M112" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="P112" s="3"/>
-    </row>
-    <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M112">
+        <v>2000035</v>
+      </c>
+      <c r="N112" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q112" s="3"/>
+    </row>
+    <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
         <v>1000133</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>327</v>
-      </c>
       <c r="D113" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>91</v>
@@ -6130,25 +6525,28 @@
       <c r="L113" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="M113" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M113">
+        <v>2000036</v>
+      </c>
+      <c r="N113" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
         <v>1000134</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>91</v>
@@ -6168,22 +6566,22 @@
       <c r="L114" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="M114" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N114" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <v>1000138</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>489</v>
+        <v>456</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>93</v>
@@ -6203,11 +6601,14 @@
       <c r="L115" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="M115" s="2" t="s">
+      <c r="M115">
+        <v>2000077</v>
+      </c>
+      <c r="N115" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
         <v>1000115</v>
       </c>
@@ -6221,7 +6622,7 @@
         <v>2</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>93</v>
@@ -6235,11 +6636,14 @@
       <c r="L116" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M116" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M116">
+        <v>2000078</v>
+      </c>
+      <c r="N116" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
         <v>1000045</v>
       </c>
@@ -6253,7 +6657,7 @@
         <v>2</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>90</v>
@@ -6269,12 +6673,15 @@
       <c r="L117" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="M117" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="P117" s="3"/>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M117" s="12">
+        <v>2000016</v>
+      </c>
+      <c r="N117" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q117" s="3"/>
+    </row>
+    <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7">
         <v>1000082</v>
       </c>
@@ -6288,7 +6695,7 @@
         <v>2</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>92</v>
@@ -6302,25 +6709,28 @@
       <c r="L118" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M118" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M118" t="s">
+        <v>532</v>
+      </c>
+      <c r="N118" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
         <v>1000135</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>333</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>91</v>
@@ -6334,11 +6744,11 @@
       <c r="L119" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M119" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N119" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="7">
         <v>1000113</v>
       </c>
@@ -6352,7 +6762,7 @@
         <v>2</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>93</v>
@@ -6372,11 +6782,14 @@
       <c r="L120" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="M120" s="2" t="s">
+      <c r="M120">
+        <v>2000079</v>
+      </c>
+      <c r="N120" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
         <v>1000111</v>
       </c>
@@ -6390,7 +6803,7 @@
         <v>2</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>93</v>
@@ -6404,11 +6817,14 @@
       <c r="L121" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M121" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M121">
+        <v>2000080</v>
+      </c>
+      <c r="N121" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7">
         <v>1000019</v>
       </c>
@@ -6422,7 +6838,7 @@
         <v>2</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F122" s="4" t="s">
         <v>90</v>
@@ -6443,11 +6859,14 @@
         <v>243</v>
       </c>
       <c r="M122" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="P122" s="3"/>
-    </row>
-    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+      <c r="N122" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q122" s="3"/>
+    </row>
+    <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7">
         <v>1000027</v>
       </c>
@@ -6461,7 +6880,7 @@
         <v>2</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>90</v>
@@ -6481,12 +6900,15 @@
       <c r="L123" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="M123" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="P123" s="3"/>
-    </row>
-    <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M123" s="12">
+        <v>2000019</v>
+      </c>
+      <c r="N123" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q123" s="3"/>
+    </row>
+    <row r="124" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7">
         <v>1000069</v>
       </c>
@@ -6500,7 +6922,7 @@
         <v>2</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>91</v>
@@ -6520,16 +6942,19 @@
       <c r="L124" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="M124" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M124">
+        <v>2000037</v>
+      </c>
+      <c r="N124" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="7">
         <v>1000074</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>199</v>
@@ -6538,7 +6963,7 @@
         <v>2</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>91</v>
@@ -6558,11 +6983,14 @@
       <c r="L125" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="M125" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M125">
+        <v>2000038</v>
+      </c>
+      <c r="N125" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="7">
         <v>1000094</v>
       </c>
@@ -6576,7 +7004,7 @@
         <v>2</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>92</v>
@@ -6596,11 +7024,14 @@
       <c r="L126" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="M126" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M126">
+        <v>2000059</v>
+      </c>
+      <c r="N126" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="7">
         <v>1000093</v>
       </c>
@@ -6614,7 +7045,7 @@
         <v>2</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>92</v>
@@ -6628,11 +7059,14 @@
       <c r="L127" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M127" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M127">
+        <v>2000060</v>
+      </c>
+      <c r="N127" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="7">
         <v>1000087</v>
       </c>
@@ -6646,7 +7080,7 @@
         <v>2</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>92</v>
@@ -6666,11 +7100,14 @@
       <c r="L128" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="M128" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M128">
+        <v>2000061</v>
+      </c>
+      <c r="N128" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
         <v>1000104</v>
       </c>
@@ -6684,7 +7121,7 @@
         <v>2</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>93</v>
@@ -6704,11 +7141,14 @@
       <c r="L129" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="M129" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M129">
+        <v>2000081</v>
+      </c>
+      <c r="N129" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7">
         <v>1000120</v>
       </c>
@@ -6722,7 +7162,7 @@
         <v>1</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>90</v>
@@ -6742,11 +7182,11 @@
       <c r="L130" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="M130" s="2" t="s">
+      <c r="N130" s="2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="7">
         <v>1000121</v>
       </c>
@@ -6760,7 +7200,7 @@
         <v>2</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>90</v>
@@ -6780,11 +7220,14 @@
       <c r="L131" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="M131" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M131" s="2">
+        <v>2000020</v>
+      </c>
+      <c r="N131" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="7">
         <v>1000072</v>
       </c>
@@ -6798,7 +7241,7 @@
         <v>2</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>91</v>
@@ -6807,7 +7250,7 @@
         <v>94</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I132" s="2">
         <v>7</v>
@@ -6821,25 +7264,25 @@
       <c r="L132" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="M132" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N132" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7">
         <v>1000131</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>320</v>
-      </c>
       <c r="D133" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>91</v>
@@ -6848,7 +7291,7 @@
         <v>94</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I133" s="2">
         <v>7</v>
@@ -6862,11 +7305,14 @@
       <c r="L133" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="M133" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M133">
+        <v>2000039</v>
+      </c>
+      <c r="N133" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="7">
         <v>1000084</v>
       </c>
@@ -6880,7 +7326,7 @@
         <v>2</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>92</v>
@@ -6900,11 +7346,14 @@
       <c r="L134" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="M134" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M134">
+        <v>2000062</v>
+      </c>
+      <c r="N134" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="7">
         <v>1000117</v>
       </c>
@@ -6918,7 +7367,7 @@
         <v>2</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>93</v>
@@ -6938,11 +7387,14 @@
       <c r="L135" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="M135" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M135">
+        <v>2000082</v>
+      </c>
+      <c r="N135" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7">
         <v>1000122</v>
       </c>
@@ -6956,7 +7408,7 @@
         <v>2</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>90</v>
@@ -6976,25 +7428,28 @@
       <c r="L136" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="M136" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M136" s="2">
+        <v>2000021</v>
+      </c>
+      <c r="N136" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="7">
         <v>1000130</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>317</v>
-      </c>
       <c r="D137" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>91</v>
@@ -7003,7 +7458,7 @@
         <v>94</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I137" s="2">
         <v>8</v>
@@ -7017,11 +7472,14 @@
       <c r="L137" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="M137" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M137">
+        <v>2000040</v>
+      </c>
+      <c r="N137" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="7">
         <v>1000110</v>
       </c>
@@ -7035,7 +7493,7 @@
         <v>2</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>93</v>
@@ -7044,7 +7502,7 @@
         <v>94</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>494</v>
+        <v>461</v>
       </c>
       <c r="I138" s="2">
         <v>7</v>
@@ -7058,11 +7516,14 @@
       <c r="L138" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="M138" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M138">
+        <v>2000083</v>
+      </c>
+      <c r="N138" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="7">
         <v>1000114</v>
       </c>
@@ -7076,7 +7537,7 @@
         <v>2</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>93</v>
@@ -7096,31 +7557,34 @@
       <c r="L139" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="M139" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M139">
+        <v>2000084</v>
+      </c>
+      <c r="N139" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="7">
         <v>1000139</v>
       </c>
     </row>
-    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="7">
         <v>1000140</v>
       </c>
     </row>
-    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="7">
         <v>1000141</v>
       </c>
     </row>
-    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="7">
         <v>1000142</v>
       </c>
     </row>
-    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="7">
         <v>1000143</v>
       </c>
@@ -11406,7 +11870,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1000">
+  <autoFilter ref="A1:Q1000">
     <filterColumn colId="4">
       <filters>
         <filter val="Aether"/>
@@ -11414,7 +11878,7 @@
     </filterColumn>
     <filterColumn colId="5">
       <filters>
-        <filter val="Red"/>
+        <filter val="White"/>
       </filters>
     </filterColumn>
     <sortState ref="A19:P139">
@@ -11435,9 +11899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11461,42 +11923,42 @@
         <v>93</v>
       </c>
       <c r="F1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F2" t="s">
         <v>367</v>
-      </c>
-      <c r="C2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D2" t="s">
-        <v>370</v>
-      </c>
-      <c r="E2" t="s">
-        <v>371</v>
-      </c>
-      <c r="F2" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -11506,39 +11968,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2000001</v>
       </c>
       <c r="B2" t="s">
-        <v>362</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
         <v>374</v>
@@ -11547,18 +12008,18 @@
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2000002</v>
       </c>
       <c r="B3" t="s">
-        <v>362</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="D3" t="s">
-        <v>378</v>
+        <v>466</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -11569,10 +12030,10 @@
         <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D4" t="s">
-        <v>380</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -11583,10 +12044,10 @@
         <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D5" t="s">
-        <v>418</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -11597,10 +12058,10 @@
         <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D6" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -11610,25 +12071,22 @@
       <c r="B7" t="s">
         <v>90</v>
       </c>
-      <c r="C7" t="s">
-        <v>383</v>
-      </c>
       <c r="D7" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2000007</v>
       </c>
       <c r="B8" t="s">
-        <v>362</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="D8" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -11639,10 +12097,10 @@
         <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="D9" t="s">
-        <v>420</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -11652,11 +12110,8 @@
       <c r="B10" t="s">
         <v>90</v>
       </c>
-      <c r="C10" t="s">
-        <v>394</v>
-      </c>
       <c r="D10" t="s">
-        <v>395</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -11666,25 +12121,19 @@
       <c r="B11" t="s">
         <v>90</v>
       </c>
-      <c r="C11" t="s">
-        <v>396</v>
-      </c>
       <c r="D11" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2000011</v>
       </c>
       <c r="B12" t="s">
-        <v>362</v>
-      </c>
-      <c r="C12" t="s">
-        <v>398</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>399</v>
+        <v>475</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -11694,11 +12143,8 @@
       <c r="B13" t="s">
         <v>90</v>
       </c>
-      <c r="C13" t="s">
-        <v>422</v>
-      </c>
       <c r="D13" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -11708,11 +12154,8 @@
       <c r="B14" t="s">
         <v>90</v>
       </c>
-      <c r="C14" t="s">
-        <v>424</v>
-      </c>
       <c r="D14" t="s">
-        <v>425</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -11722,11 +12165,8 @@
       <c r="B15" t="s">
         <v>90</v>
       </c>
-      <c r="C15" t="s">
-        <v>426</v>
-      </c>
       <c r="D15" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -11736,11 +12176,8 @@
       <c r="B16" t="s">
         <v>90</v>
       </c>
-      <c r="C16" t="s">
-        <v>428</v>
-      </c>
       <c r="D16" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -11750,11 +12187,8 @@
       <c r="B17" t="s">
         <v>90</v>
       </c>
-      <c r="C17" t="s">
-        <v>430</v>
-      </c>
       <c r="D17" t="s">
-        <v>431</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -11764,11 +12198,8 @@
       <c r="B18" t="s">
         <v>90</v>
       </c>
-      <c r="C18" t="s">
-        <v>432</v>
-      </c>
       <c r="D18" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -11778,11 +12209,8 @@
       <c r="B19" t="s">
         <v>90</v>
       </c>
-      <c r="C19" t="s">
-        <v>434</v>
-      </c>
       <c r="D19" t="s">
-        <v>435</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -11792,11 +12220,8 @@
       <c r="B20" t="s">
         <v>90</v>
       </c>
-      <c r="C20" t="s">
-        <v>436</v>
-      </c>
       <c r="D20" t="s">
-        <v>437</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -11806,422 +12231,2843 @@
       <c r="B21" t="s">
         <v>90</v>
       </c>
-      <c r="C21" t="s">
-        <v>438</v>
-      </c>
       <c r="D21" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2000021</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2000022</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2000023</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2000024</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2000025</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2000026</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" t="s">
+        <v>510</v>
+      </c>
+      <c r="D27" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2000027</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2000028</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2000029</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2000030</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2000031</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2000032</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" t="s">
+        <v>499</v>
+      </c>
+      <c r="D33" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2000033</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" t="s">
+        <v>510</v>
+      </c>
+      <c r="D34" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2000034</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2000035</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" t="s">
+        <v>503</v>
+      </c>
+      <c r="D36" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2000036</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2000037</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2000038</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2000039</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" t="s">
+        <v>492</v>
+      </c>
+      <c r="D40" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2000040</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2000041</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2000042</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" t="s">
+        <v>512</v>
+      </c>
+      <c r="D43" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2000043</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" t="s">
+        <v>514</v>
+      </c>
+      <c r="D44" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2000044</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2000045</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2000046</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2000047</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2000048</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2000049</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2000050</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2000051</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2000052</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2000053</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" t="s">
+        <v>492</v>
+      </c>
+      <c r="D54" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2000054</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2000055</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2000056</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2000057</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2000058</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" t="s">
+        <v>531</v>
+      </c>
+      <c r="D59" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2000059</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2000060</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2000061</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>92</v>
+      </c>
+      <c r="C62" t="s">
+        <v>492</v>
+      </c>
+      <c r="D62" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2000062</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>92</v>
+      </c>
+      <c r="D63" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2000063</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>93</v>
+      </c>
+      <c r="D64" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2000064</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>93</v>
+      </c>
+      <c r="D65" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2000065</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>93</v>
+      </c>
+      <c r="D66" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2000066</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>93</v>
+      </c>
+      <c r="D67" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2000067</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="D68" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2000068</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>93</v>
+      </c>
+      <c r="C69" t="s">
+        <v>382</v>
+      </c>
+      <c r="D69" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2000069</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>93</v>
+      </c>
+      <c r="D70" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2000070</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>93</v>
+      </c>
+      <c r="D71" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2000071</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>93</v>
+      </c>
+      <c r="D72" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2000072</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>93</v>
+      </c>
+      <c r="D73" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2000073</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>93</v>
+      </c>
+      <c r="D74" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2000074</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>93</v>
+      </c>
+      <c r="D75" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2000075</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>93</v>
+      </c>
+      <c r="D76" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2000076</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>93</v>
+      </c>
+      <c r="D77" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2000077</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>93</v>
+      </c>
+      <c r="C78" t="s">
+        <v>492</v>
+      </c>
+      <c r="D78" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2000078</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>93</v>
+      </c>
+      <c r="D79" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2000079</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>93</v>
+      </c>
+      <c r="C80" t="s">
+        <v>556</v>
+      </c>
+      <c r="D80" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2000080</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>93</v>
+      </c>
+      <c r="D81" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2000081</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>93</v>
+      </c>
+      <c r="D82" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2000082</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>93</v>
+      </c>
+      <c r="D83" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2000083</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>93</v>
+      </c>
+      <c r="C84" t="s">
+        <v>561</v>
+      </c>
+      <c r="D84" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2000084</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>93</v>
+      </c>
+      <c r="D85" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2000085</v>
       </c>
     </row>
-    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2000086</v>
       </c>
     </row>
-    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2000087</v>
       </c>
     </row>
-    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2000088</v>
       </c>
     </row>
-    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2000089</v>
       </c>
     </row>
-    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2000090</v>
       </c>
     </row>
-    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2000091</v>
       </c>
     </row>
-    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2000092</v>
       </c>
     </row>
-    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2000093</v>
       </c>
     </row>
-    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2000094</v>
       </c>
     </row>
-    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2000095</v>
       </c>
     </row>
-    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2000096</v>
       </c>
     </row>
-    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2000097</v>
       </c>
     </row>
-    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2000098</v>
       </c>
     </row>
-    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2000099</v>
       </c>
     </row>
-    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2000100</v>
       </c>
     </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2000101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2000102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2000103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2000104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2000105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2000106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2000107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2000108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>2000109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2000110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2000111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2000112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2000113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2000114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>2000115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>2000116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2000117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>2000118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>2000119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>2000120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>2000121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2000122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>2000123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>2000124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>2000125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>2000126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>2000127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>2000128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>2000129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>2000130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>2000131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>2000132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>2000133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>2000134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>2000135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>2000136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>2000137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>2000138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>2000139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>2000140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>2000141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>2000142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>2000143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>2000144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>2000145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>2000146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>2000147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>2000148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>2000149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>2000150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>2000151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>2000152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>2000153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>2000154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>2000155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>2000156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>2000157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>2000158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>2000159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>2000160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>2000161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>2000162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>2000163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>2000164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>2000165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>2000166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>2000167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>2000168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>2000169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>2000170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>2000171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>2000172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>2000173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>2000174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>2000175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>2000176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>2000177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>2000178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>2000179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>2000180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>2000181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>2000182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>2000183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>2000184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>2000185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>2000186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>2000187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>2000188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>2000189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>2000190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>2000191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>2000192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>2000193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>2000194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>2000195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>2000196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>2000197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>2000198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>2000199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>2000200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>2000201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>2000202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>2000203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>2000204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>2000205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>2000206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>2000207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>2000208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>2000209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>2000210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>2000211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>2000212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>2000213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>2000214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>2000215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>2000216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>2000217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>2000218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>2000219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>2000220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>2000221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>2000222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>2000223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>2000224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>2000225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>2000226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>2000227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>2000228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>2000229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>2000230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>2000231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>2000232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>2000233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>2000234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>2000235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>2000236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>2000237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>2000238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>2000239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>2000240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>2000241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>2000242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>2000243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>2000244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>2000245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>2000246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>2000247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>2000248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>2000249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>2000250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>2000251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>2000252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>2000253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>2000254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>2000255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>2000256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>2000257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>2000258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>2000259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>2000260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>2000261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>2000262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>2000263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>2000264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>2000265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>2000266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>2000267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>2000268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>2000269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>2000270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>2000271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>2000272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>2000273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>2000274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>2000275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>2000276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>2000277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>2000278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>2000279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>2000280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>2000281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>2000282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>2000283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>2000284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>2000285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>2000286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>2000287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>2000288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>2000289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>2000290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>2000291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>2000292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>2000293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>2000294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>2000295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>2000296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>2000297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>2000298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>2000299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>2000300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>2000301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>2000302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>2000303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>2000304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>2000305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>2000306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>2000307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>2000308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>2000309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>2000310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>2000311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>2000312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>2000313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>2000314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>2000315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>2000316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>2000317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>2000318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>2000319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>2000320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>2000321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>2000322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>2000323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>2000324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>2000325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>2000326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>2000327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>2000328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>2000329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>2000330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>2000331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>2000332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>2000333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>2000334</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>2000335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>2000336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>2000337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>2000338</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>2000339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>2000340</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>2000341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>2000342</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>2000343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>2000344</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>2000345</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>2000346</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>2000347</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>2000348</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>2000349</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>2000350</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>2000351</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>2000352</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>2000353</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>2000354</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>2000355</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>2000356</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>2000357</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>2000358</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>2000359</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>2000360</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>2000361</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>2000362</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>2000363</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>2000364</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>2000365</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>2000366</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>2000367</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>2000368</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>2000369</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>2000370</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>2000371</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>2000372</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>2000373</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>2000374</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>2000375</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>2000376</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>2000377</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>2000378</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>2000379</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>2000380</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>2000381</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>2000382</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>2000383</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>2000384</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>2000385</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>2000386</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>2000387</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>2000388</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>2000389</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>2000390</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>2000391</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>2000392</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>2000393</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>2000394</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>2000395</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>2000396</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>2000397</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>2000398</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>2000399</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>2000400</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>2000401</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>2000402</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>2000403</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>2000404</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>2000405</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>2000406</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>2000407</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>2000408</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>2000409</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>2000410</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>2000411</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>2000412</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>2000413</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>2000414</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>2000415</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>2000416</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>2000417</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>2000418</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>2000419</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>2000420</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>2000421</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>2000422</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>2000423</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>2000424</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>2000425</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>2000426</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>2000427</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>2000428</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>2000429</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>2000430</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>2000431</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>2000432</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>2000433</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>2000434</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>2000435</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>2000436</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>2000437</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>2000438</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>2000439</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>2000440</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>2000441</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>2000442</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>2000443</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>2000444</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>2000445</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>2000446</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>2000447</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>2000448</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>2000449</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>2000450</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>2000451</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>2000452</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>2000453</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>2000454</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>2000455</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>2000456</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>2000457</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>2000458</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>2000459</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>2000460</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>2000461</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>2000462</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>2000463</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>2000464</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>2000465</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>2000466</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>2000467</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>2000468</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>2000469</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>2000470</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>2000471</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>2000472</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>2000473</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>2000474</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>2000475</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>2000476</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>2000477</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>2000478</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>2000479</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>2000480</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>2000481</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>2000482</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>2000483</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>2000484</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>2000485</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>2000486</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>2000487</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>2000488</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>2000489</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>2000490</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>2000491</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>2000492</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>2000493</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>2000494</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>2000495</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>2000496</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>2000497</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>2000498</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>2000499</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>2000500</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D101">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Blue"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D101"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12230,9 +15076,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -12245,9 +15089,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12272,10 +15114,10 @@
         <v>93</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -12472,7 +15314,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="B10" s="15">
         <f>SUM(B2:B9)</f>
